--- a/(WBS)AWS演習_進捗管理表(沼田).xlsx
+++ b/(WBS)AWS演習_進捗管理表(沼田).xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791D8B19-3DAE-427B-BDB7-3540BE88EC87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A94F848-2ED1-46CC-A500-43399BB1F35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクトのスケジュール" sheetId="11" r:id="rId1"/>
@@ -209,22 +209,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>「テスト自動化」作業進捗表</t>
-    <rPh sb="4" eb="7">
-      <t>ジドウカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シンチョク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>タスク 1</t>
   </si>
   <si>
@@ -261,6 +245,22 @@
   </si>
   <si>
     <t>タスク 4</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>「AWS演習」作業進捗表</t>
+    <rPh sb="4" eb="6">
+      <t>エンシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒョウ</t>
+    </rPh>
     <phoneticPr fontId="19"/>
   </si>
 </sst>
@@ -1618,13 +1618,12 @@
     <xf numFmtId="0" fontId="33" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="21" fillId="47" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="21" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1637,12 +1636,13 @@
     <xf numFmtId="179" fontId="33" fillId="0" borderId="3" xfId="9" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="47" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - アクセント 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1700,2347 +1700,7 @@
     <cellStyle name="名前" xfId="11" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="良い" xfId="18" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="246">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -4167,15 +1827,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDo_リスト" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="245"/>
-      <tableStyleElement type="headerRow" dxfId="244"/>
-      <tableStyleElement type="totalRow" dxfId="243"/>
-      <tableStyleElement type="firstColumn" dxfId="242"/>
-      <tableStyleElement type="lastColumn" dxfId="241"/>
-      <tableStyleElement type="firstRowStripe" dxfId="240"/>
-      <tableStyleElement type="secondRowStripe" dxfId="239"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="238"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="237"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="firstColumn" dxfId="8"/>
+      <tableStyleElement type="lastColumn" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4594,32 +2254,32 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="2.640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5703125" style="2" customWidth="1"/>
-    <col min="65" max="65" width="8.85546875" style="2"/>
-    <col min="66" max="68" width="6.85546875" style="2"/>
-    <col min="69" max="70" width="8.140625" style="2"/>
-    <col min="71" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="2.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5546875" style="2" customWidth="1"/>
+    <col min="65" max="65" width="8.88671875" style="2"/>
+    <col min="66" max="68" width="6.88671875" style="2"/>
+    <col min="69" max="70" width="8.109375" style="2"/>
+    <col min="71" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="19"/>
@@ -4629,7 +2289,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>37</v>
       </c>
@@ -4643,355 +2303,355 @@
       <c r="G2" s="22"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="148" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="154">
+      <c r="D3" s="155"/>
+      <c r="E3" s="153">
         <f ca="1">TODAY()-2</f>
-        <v>44074</v>
-      </c>
-      <c r="F3" s="154"/>
+        <v>45474</v>
+      </c>
+      <c r="F3" s="153"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="149"/>
+      <c r="D4" s="155"/>
       <c r="E4" s="27">
         <v>1</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
-      <c r="I4" s="151">
+      <c r="I4" s="150">
         <f ca="1">I5</f>
-        <v>44073</v>
-      </c>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
-      <c r="M4" s="152"/>
-      <c r="N4" s="152"/>
-      <c r="O4" s="153"/>
-      <c r="P4" s="151">
+        <v>45473</v>
+      </c>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="150">
         <f ca="1">P5</f>
-        <v>44080</v>
-      </c>
-      <c r="Q4" s="152"/>
-      <c r="R4" s="152"/>
-      <c r="S4" s="152"/>
-      <c r="T4" s="152"/>
-      <c r="U4" s="152"/>
-      <c r="V4" s="153"/>
-      <c r="W4" s="151">
+        <v>45480</v>
+      </c>
+      <c r="Q4" s="151"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="152"/>
+      <c r="W4" s="150">
         <f ca="1">W5</f>
-        <v>44087</v>
-      </c>
-      <c r="X4" s="152"/>
-      <c r="Y4" s="152"/>
-      <c r="Z4" s="152"/>
-      <c r="AA4" s="152"/>
-      <c r="AB4" s="152"/>
-      <c r="AC4" s="153"/>
-      <c r="AD4" s="151">
+        <v>45487</v>
+      </c>
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="152"/>
+      <c r="AD4" s="150">
         <f ca="1">AD5</f>
-        <v>44094</v>
-      </c>
-      <c r="AE4" s="152"/>
-      <c r="AF4" s="152"/>
-      <c r="AG4" s="152"/>
-      <c r="AH4" s="152"/>
-      <c r="AI4" s="152"/>
-      <c r="AJ4" s="153"/>
-      <c r="AK4" s="151">
+        <v>45494</v>
+      </c>
+      <c r="AE4" s="151"/>
+      <c r="AF4" s="151"/>
+      <c r="AG4" s="151"/>
+      <c r="AH4" s="151"/>
+      <c r="AI4" s="151"/>
+      <c r="AJ4" s="152"/>
+      <c r="AK4" s="150">
         <f ca="1">AK5</f>
-        <v>44101</v>
-      </c>
-      <c r="AL4" s="152"/>
-      <c r="AM4" s="152"/>
-      <c r="AN4" s="152"/>
-      <c r="AO4" s="152"/>
-      <c r="AP4" s="152"/>
-      <c r="AQ4" s="153"/>
-      <c r="AR4" s="151">
+        <v>45501</v>
+      </c>
+      <c r="AL4" s="151"/>
+      <c r="AM4" s="151"/>
+      <c r="AN4" s="151"/>
+      <c r="AO4" s="151"/>
+      <c r="AP4" s="151"/>
+      <c r="AQ4" s="152"/>
+      <c r="AR4" s="150">
         <f ca="1">AR5</f>
-        <v>44108</v>
-      </c>
-      <c r="AS4" s="152"/>
-      <c r="AT4" s="152"/>
-      <c r="AU4" s="152"/>
-      <c r="AV4" s="152"/>
-      <c r="AW4" s="152"/>
-      <c r="AX4" s="153"/>
-      <c r="AY4" s="151">
+        <v>45508</v>
+      </c>
+      <c r="AS4" s="151"/>
+      <c r="AT4" s="151"/>
+      <c r="AU4" s="151"/>
+      <c r="AV4" s="151"/>
+      <c r="AW4" s="151"/>
+      <c r="AX4" s="152"/>
+      <c r="AY4" s="150">
         <f ca="1">AY5</f>
-        <v>44115</v>
-      </c>
-      <c r="AZ4" s="152"/>
-      <c r="BA4" s="152"/>
-      <c r="BB4" s="152"/>
-      <c r="BC4" s="152"/>
-      <c r="BD4" s="152"/>
-      <c r="BE4" s="153"/>
-      <c r="BF4" s="151">
+        <v>45515</v>
+      </c>
+      <c r="AZ4" s="151"/>
+      <c r="BA4" s="151"/>
+      <c r="BB4" s="151"/>
+      <c r="BC4" s="151"/>
+      <c r="BD4" s="151"/>
+      <c r="BE4" s="152"/>
+      <c r="BF4" s="150">
         <f ca="1">BF5</f>
-        <v>44122</v>
-      </c>
-      <c r="BG4" s="152"/>
-      <c r="BH4" s="152"/>
-      <c r="BI4" s="152"/>
-      <c r="BJ4" s="152"/>
-      <c r="BK4" s="152"/>
-      <c r="BL4" s="153"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>45522</v>
+      </c>
+      <c r="BG4" s="151"/>
+      <c r="BH4" s="151"/>
+      <c r="BI4" s="151"/>
+      <c r="BJ4" s="151"/>
+      <c r="BK4" s="151"/>
+      <c r="BL4" s="152"/>
+    </row>
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="150"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
       <c r="I5" s="7">
         <f ca="1">プロジェクト_開始-WEEKDAY(プロジェクト_開始,1)+1+7*(週_表示-1)</f>
-        <v>44073</v>
+        <v>45473</v>
       </c>
       <c r="J5" s="8">
         <f ca="1">I5+1</f>
-        <v>44074</v>
+        <v>45474</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>44075</v>
+        <v>45475</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44076</v>
+        <v>45476</v>
       </c>
       <c r="M5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44077</v>
+        <v>45477</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44078</v>
+        <v>45478</v>
       </c>
       <c r="O5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44079</v>
+        <v>45479</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">O5+1</f>
-        <v>44080</v>
+        <v>45480</v>
       </c>
       <c r="Q5" s="8">
         <f ca="1">P5+1</f>
-        <v>44081</v>
+        <v>45481</v>
       </c>
       <c r="R5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44082</v>
+        <v>45482</v>
       </c>
       <c r="S5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44083</v>
+        <v>45483</v>
       </c>
       <c r="T5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44084</v>
+        <v>45484</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44085</v>
+        <v>45485</v>
       </c>
       <c r="V5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44086</v>
+        <v>45486</v>
       </c>
       <c r="W5" s="7">
         <f ca="1">V5+1</f>
-        <v>44087</v>
+        <v>45487</v>
       </c>
       <c r="X5" s="8">
         <f ca="1">W5+1</f>
-        <v>44088</v>
+        <v>45488</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44089</v>
+        <v>45489</v>
       </c>
       <c r="Z5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44090</v>
+        <v>45490</v>
       </c>
       <c r="AA5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44091</v>
+        <v>45491</v>
       </c>
       <c r="AB5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44092</v>
+        <v>45492</v>
       </c>
       <c r="AC5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44093</v>
+        <v>45493</v>
       </c>
       <c r="AD5" s="7">
         <f ca="1">AC5+1</f>
-        <v>44094</v>
+        <v>45494</v>
       </c>
       <c r="AE5" s="8">
         <f ca="1">AD5+1</f>
-        <v>44095</v>
+        <v>45495</v>
       </c>
       <c r="AF5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44096</v>
+        <v>45496</v>
       </c>
       <c r="AG5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44097</v>
+        <v>45497</v>
       </c>
       <c r="AH5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44098</v>
+        <v>45498</v>
       </c>
       <c r="AI5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44099</v>
+        <v>45499</v>
       </c>
       <c r="AJ5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44100</v>
+        <v>45500</v>
       </c>
       <c r="AK5" s="7">
         <f ca="1">AJ5+1</f>
-        <v>44101</v>
+        <v>45501</v>
       </c>
       <c r="AL5" s="8">
         <f ca="1">AK5+1</f>
-        <v>44102</v>
+        <v>45502</v>
       </c>
       <c r="AM5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44103</v>
+        <v>45503</v>
       </c>
       <c r="AN5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44104</v>
+        <v>45504</v>
       </c>
       <c r="AO5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44105</v>
+        <v>45505</v>
       </c>
       <c r="AP5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44106</v>
+        <v>45506</v>
       </c>
       <c r="AQ5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44107</v>
+        <v>45507</v>
       </c>
       <c r="AR5" s="7">
         <f ca="1">AQ5+1</f>
-        <v>44108</v>
+        <v>45508</v>
       </c>
       <c r="AS5" s="8">
         <f ca="1">AR5+1</f>
-        <v>44109</v>
+        <v>45509</v>
       </c>
       <c r="AT5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44110</v>
+        <v>45510</v>
       </c>
       <c r="AU5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44111</v>
+        <v>45511</v>
       </c>
       <c r="AV5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44112</v>
+        <v>45512</v>
       </c>
       <c r="AW5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>44113</v>
+        <v>45513</v>
       </c>
       <c r="AX5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>44114</v>
+        <v>45514</v>
       </c>
       <c r="AY5" s="7">
         <f ca="1">AX5+1</f>
-        <v>44115</v>
+        <v>45515</v>
       </c>
       <c r="AZ5" s="8">
         <f ca="1">AY5+1</f>
-        <v>44116</v>
+        <v>45516</v>
       </c>
       <c r="BA5" s="8">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>44117</v>
+        <v>45517</v>
       </c>
       <c r="BB5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>44118</v>
+        <v>45518</v>
       </c>
       <c r="BC5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>44119</v>
+        <v>45519</v>
       </c>
       <c r="BD5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>44120</v>
+        <v>45520</v>
       </c>
       <c r="BE5" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>44121</v>
+        <v>45521</v>
       </c>
       <c r="BF5" s="7">
         <f ca="1">BE5+1</f>
-        <v>44122</v>
+        <v>45522</v>
       </c>
       <c r="BG5" s="8">
         <f ca="1">BF5+1</f>
-        <v>44123</v>
+        <v>45523</v>
       </c>
       <c r="BH5" s="8">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>44124</v>
+        <v>45524</v>
       </c>
       <c r="BI5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>44125</v>
+        <v>45525</v>
       </c>
       <c r="BJ5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>44126</v>
+        <v>45526</v>
       </c>
       <c r="BK5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>44127</v>
+        <v>45527</v>
       </c>
       <c r="BL5" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>44128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>45528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
@@ -5239,7 +2899,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>4</v>
       </c>
@@ -5310,7 +2970,7 @@
       <c r="BK7" s="12"/>
       <c r="BL7" s="12"/>
     </row>
-    <row r="8" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>5</v>
       </c>
@@ -5381,12 +3041,12 @@
       <c r="BK8" s="12"/>
       <c r="BL8" s="12"/>
     </row>
-    <row r="9" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="39"/>
@@ -5458,12 +3118,12 @@
       <c r="BK9" s="12"/>
       <c r="BL9" s="12"/>
     </row>
-    <row r="10" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="39"/>
@@ -5535,10 +3195,10 @@
       <c r="BK10" s="12"/>
       <c r="BL10" s="12"/>
     </row>
-    <row r="11" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
       <c r="B11" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="39"/>
@@ -5610,7 +3270,7 @@
       <c r="BK11" s="12"/>
       <c r="BL11" s="12"/>
     </row>
-    <row r="12" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="37" t="s">
         <v>11</v>
@@ -5685,7 +3345,7 @@
       <c r="BK12" s="12"/>
       <c r="BL12" s="12"/>
     </row>
-    <row r="13" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="37" t="s">
         <v>12</v>
@@ -5760,7 +3420,7 @@
       <c r="BK13" s="12"/>
       <c r="BL13" s="12"/>
     </row>
-    <row r="14" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>8</v>
       </c>
@@ -5831,7 +3491,7 @@
       <c r="BK14" s="12"/>
       <c r="BL14" s="12"/>
     </row>
-    <row r="15" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="77" t="s">
         <v>40</v>
@@ -5906,7 +3566,7 @@
       <c r="BK15" s="12"/>
       <c r="BL15" s="12"/>
     </row>
-    <row r="16" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="77" t="s">
         <v>41</v>
@@ -5981,7 +3641,7 @@
       <c r="BK16" s="12"/>
       <c r="BL16" s="12"/>
     </row>
-    <row r="17" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="46" t="s">
         <v>39</v>
@@ -6056,7 +3716,7 @@
       <c r="BK17" s="12"/>
       <c r="BL17" s="12"/>
     </row>
-    <row r="18" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="46" t="s">
         <v>11</v>
@@ -6131,18 +3791,18 @@
       <c r="BK18" s="12"/>
       <c r="BL18" s="12"/>
     </row>
-    <row r="19" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
       <c r="B19" s="46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="48"/>
       <c r="E19" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="36"/>
       <c r="H19" s="13" t="e">
@@ -6206,7 +3866,7 @@
       <c r="BK19" s="12"/>
       <c r="BL19" s="12"/>
     </row>
-    <row r="20" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>9</v>
       </c>
@@ -6277,18 +3937,18 @@
       <c r="BK20" s="12"/>
       <c r="BL20" s="12"/>
     </row>
-    <row r="21" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="55"/>
       <c r="D21" s="56"/>
       <c r="E21" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="36"/>
       <c r="H21" s="13" t="e">
@@ -6352,18 +4012,18 @@
       <c r="BK21" s="12"/>
       <c r="BL21" s="12"/>
     </row>
-    <row r="22" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
       <c r="B22" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="55"/>
       <c r="D22" s="56"/>
       <c r="E22" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="13" t="e">
@@ -6427,18 +4087,18 @@
       <c r="BK22" s="12"/>
       <c r="BL22" s="12"/>
     </row>
-    <row r="23" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="55"/>
       <c r="D23" s="56"/>
       <c r="E23" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="36"/>
       <c r="H23" s="13" t="e">
@@ -6502,7 +4162,7 @@
       <c r="BK23" s="12"/>
       <c r="BL23" s="12"/>
     </row>
-    <row r="24" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="54" t="s">
         <v>11</v>
@@ -6510,10 +4170,10 @@
       <c r="C24" s="55"/>
       <c r="D24" s="56"/>
       <c r="E24" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G24" s="36"/>
       <c r="H24" s="13" t="e">
@@ -6577,7 +4237,7 @@
       <c r="BK24" s="12"/>
       <c r="BL24" s="12"/>
     </row>
-    <row r="25" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="54" t="s">
         <v>12</v>
@@ -6585,10 +4245,10 @@
       <c r="C25" s="55"/>
       <c r="D25" s="56"/>
       <c r="E25" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G25" s="36"/>
       <c r="H25" s="13" t="e">
@@ -6652,7 +4312,7 @@
       <c r="BK25" s="12"/>
       <c r="BL25" s="12"/>
     </row>
-    <row r="26" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>9</v>
       </c>
@@ -6723,18 +4383,18 @@
       <c r="BK26" s="12"/>
       <c r="BL26" s="12"/>
     </row>
-    <row r="27" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="63"/>
       <c r="D27" s="64"/>
       <c r="E27" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G27" s="36"/>
       <c r="H27" s="13" t="e">
@@ -6798,18 +4458,18 @@
       <c r="BK27" s="12"/>
       <c r="BL27" s="12"/>
     </row>
-    <row r="28" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
       <c r="B28" s="134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="63"/>
       <c r="D28" s="64"/>
       <c r="E28" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G28" s="36"/>
       <c r="H28" s="13" t="e">
@@ -6873,18 +4533,18 @@
       <c r="BK28" s="12"/>
       <c r="BL28" s="12"/>
     </row>
-    <row r="29" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="134" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="63"/>
       <c r="D29" s="64"/>
       <c r="E29" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29" s="36"/>
       <c r="H29" s="13" t="e">
@@ -6948,7 +4608,7 @@
       <c r="BK29" s="12"/>
       <c r="BL29" s="12"/>
     </row>
-    <row r="30" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="134" t="s">
         <v>11</v>
@@ -6956,10 +4616,10 @@
       <c r="C30" s="63"/>
       <c r="D30" s="64"/>
       <c r="E30" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" s="36"/>
       <c r="H30" s="13" t="e">
@@ -7023,7 +4683,7 @@
       <c r="BK30" s="12"/>
       <c r="BL30" s="12"/>
     </row>
-    <row r="31" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="134" t="s">
         <v>12</v>
@@ -7031,10 +4691,10 @@
       <c r="C31" s="63"/>
       <c r="D31" s="64"/>
       <c r="E31" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G31" s="36"/>
       <c r="H31" s="13" t="e">
@@ -7098,7 +4758,7 @@
       <c r="BK31" s="12"/>
       <c r="BL31" s="12"/>
     </row>
-    <row r="32" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>9</v>
       </c>
@@ -7169,18 +4829,18 @@
       <c r="BK32" s="12"/>
       <c r="BL32" s="12"/>
     </row>
-    <row r="33" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="87"/>
       <c r="D33" s="66"/>
       <c r="E33" s="88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" s="88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G33" s="36"/>
       <c r="H33" s="13" t="e">
@@ -7244,18 +4904,18 @@
       <c r="BK33" s="12"/>
       <c r="BL33" s="12"/>
     </row>
-    <row r="34" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
       <c r="B34" s="86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="87"/>
       <c r="D34" s="66"/>
       <c r="E34" s="88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F34" s="88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34" s="36"/>
       <c r="H34" s="13" t="e">
@@ -7319,18 +4979,18 @@
       <c r="BK34" s="12"/>
       <c r="BL34" s="12"/>
     </row>
-    <row r="35" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="87"/>
       <c r="D35" s="66"/>
       <c r="E35" s="88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F35" s="88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G35" s="36"/>
       <c r="H35" s="13" t="e">
@@ -7394,7 +5054,7 @@
       <c r="BK35" s="12"/>
       <c r="BL35" s="12"/>
     </row>
-    <row r="36" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="86" t="s">
         <v>11</v>
@@ -7402,10 +5062,10 @@
       <c r="C36" s="87"/>
       <c r="D36" s="66"/>
       <c r="E36" s="88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F36" s="88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G36" s="36"/>
       <c r="H36" s="13" t="e">
@@ -7469,7 +5129,7 @@
       <c r="BK36" s="12"/>
       <c r="BL36" s="12"/>
     </row>
-    <row r="37" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="86" t="s">
         <v>12</v>
@@ -7477,10 +5137,10 @@
       <c r="C37" s="87"/>
       <c r="D37" s="66"/>
       <c r="E37" s="88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F37" s="88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G37" s="36"/>
       <c r="H37" s="13" t="e">
@@ -7544,7 +5204,7 @@
       <c r="BK37" s="12"/>
       <c r="BL37" s="12"/>
     </row>
-    <row r="38" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
         <v>9</v>
       </c>
@@ -7615,15 +5275,15 @@
       <c r="BK38" s="12"/>
       <c r="BL38" s="12"/>
     </row>
-    <row r="39" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="95"/>
       <c r="D39" s="96"/>
       <c r="E39" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F39" s="97" t="s">
         <v>17</v>
@@ -7690,15 +5350,15 @@
       <c r="BK39" s="12"/>
       <c r="BL39" s="12"/>
     </row>
-    <row r="40" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
       <c r="B40" s="94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="95"/>
       <c r="D40" s="96"/>
       <c r="E40" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F40" s="97" t="s">
         <v>17</v>
@@ -7765,15 +5425,15 @@
       <c r="BK40" s="12"/>
       <c r="BL40" s="12"/>
     </row>
-    <row r="41" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="95"/>
       <c r="D41" s="96"/>
       <c r="E41" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F41" s="97" t="s">
         <v>17</v>
@@ -7840,7 +5500,7 @@
       <c r="BK41" s="12"/>
       <c r="BL41" s="12"/>
     </row>
-    <row r="42" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
       <c r="B42" s="94" t="s">
         <v>11</v>
@@ -7848,7 +5508,7 @@
       <c r="C42" s="95"/>
       <c r="D42" s="96"/>
       <c r="E42" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F42" s="97" t="s">
         <v>17</v>
@@ -7915,7 +5575,7 @@
       <c r="BK42" s="12"/>
       <c r="BL42" s="12"/>
     </row>
-    <row r="43" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="94" t="s">
         <v>12</v>
@@ -7923,7 +5583,7 @@
       <c r="C43" s="95"/>
       <c r="D43" s="96"/>
       <c r="E43" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F43" s="97" t="s">
         <v>17</v>
@@ -7990,7 +5650,7 @@
       <c r="BK43" s="12"/>
       <c r="BL43" s="12"/>
     </row>
-    <row r="44" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
         <v>9</v>
       </c>
@@ -8061,18 +5721,18 @@
       <c r="BK44" s="12"/>
       <c r="BL44" s="12"/>
     </row>
-    <row r="45" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="47"/>
       <c r="D45" s="48"/>
       <c r="E45" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F45" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G45" s="36"/>
       <c r="H45" s="13" t="e">
@@ -8136,18 +5796,18 @@
       <c r="BK45" s="12"/>
       <c r="BL45" s="12"/>
     </row>
-    <row r="46" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
       <c r="B46" s="77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46" s="47"/>
       <c r="D46" s="48"/>
       <c r="E46" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F46" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G46" s="36"/>
       <c r="H46" s="13" t="e">
@@ -8211,18 +5871,18 @@
       <c r="BK46" s="12"/>
       <c r="BL46" s="12"/>
     </row>
-    <row r="47" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="47"/>
       <c r="D47" s="48"/>
       <c r="E47" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F47" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G47" s="36"/>
       <c r="H47" s="13" t="e">
@@ -8286,7 +5946,7 @@
       <c r="BK47" s="12"/>
       <c r="BL47" s="12"/>
     </row>
-    <row r="48" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
       <c r="B48" s="77" t="s">
         <v>11</v>
@@ -8294,10 +5954,10 @@
       <c r="C48" s="47"/>
       <c r="D48" s="48"/>
       <c r="E48" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F48" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G48" s="36"/>
       <c r="H48" s="13" t="e">
@@ -8361,7 +6021,7 @@
       <c r="BK48" s="12"/>
       <c r="BL48" s="12"/>
     </row>
-    <row r="49" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="77" t="s">
         <v>12</v>
@@ -8369,10 +6029,10 @@
       <c r="C49" s="47"/>
       <c r="D49" s="48"/>
       <c r="E49" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F49" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G49" s="36"/>
       <c r="H49" s="13" t="e">
@@ -8436,7 +6096,7 @@
       <c r="BK49" s="12"/>
       <c r="BL49" s="12"/>
     </row>
-    <row r="50" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
         <v>9</v>
       </c>
@@ -8507,18 +6167,18 @@
       <c r="BK50" s="12"/>
       <c r="BL50" s="12"/>
     </row>
-    <row r="51" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="55"/>
       <c r="D51" s="56"/>
       <c r="E51" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F51" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G51" s="36"/>
       <c r="H51" s="13" t="e">
@@ -8582,18 +6242,18 @@
       <c r="BK51" s="12"/>
       <c r="BL51" s="12"/>
     </row>
-    <row r="52" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
       <c r="B52" s="54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="55"/>
       <c r="D52" s="56"/>
       <c r="E52" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F52" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G52" s="36"/>
       <c r="H52" s="13" t="e">
@@ -8657,18 +6317,18 @@
       <c r="BK52" s="12"/>
       <c r="BL52" s="12"/>
     </row>
-    <row r="53" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" s="55"/>
       <c r="D53" s="56"/>
       <c r="E53" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F53" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G53" s="36"/>
       <c r="H53" s="13" t="e">
@@ -8732,7 +6392,7 @@
       <c r="BK53" s="12"/>
       <c r="BL53" s="12"/>
     </row>
-    <row r="54" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="23"/>
       <c r="B54" s="54" t="s">
         <v>11</v>
@@ -8740,10 +6400,10 @@
       <c r="C54" s="55"/>
       <c r="D54" s="56"/>
       <c r="E54" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F54" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G54" s="36"/>
       <c r="H54" s="13" t="e">
@@ -8807,7 +6467,7 @@
       <c r="BK54" s="12"/>
       <c r="BL54" s="12"/>
     </row>
-    <row r="55" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="54" t="s">
         <v>12</v>
@@ -8815,10 +6475,10 @@
       <c r="C55" s="55"/>
       <c r="D55" s="56"/>
       <c r="E55" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F55" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G55" s="36"/>
       <c r="H55" s="13" t="e">
@@ -8882,7 +6542,7 @@
       <c r="BK55" s="12"/>
       <c r="BL55" s="12"/>
     </row>
-    <row r="56" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="23" t="s">
         <v>9</v>
       </c>
@@ -8953,18 +6613,18 @@
       <c r="BK56" s="12"/>
       <c r="BL56" s="12"/>
     </row>
-    <row r="57" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="B57" s="62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" s="63"/>
       <c r="D57" s="64"/>
       <c r="E57" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F57" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G57" s="36"/>
       <c r="H57" s="13" t="e">
@@ -9028,18 +6688,18 @@
       <c r="BK57" s="12"/>
       <c r="BL57" s="12"/>
     </row>
-    <row r="58" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="23"/>
       <c r="B58" s="62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C58" s="63"/>
       <c r="D58" s="64"/>
       <c r="E58" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F58" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G58" s="36"/>
       <c r="H58" s="13" t="e">
@@ -9103,18 +6763,18 @@
       <c r="BK58" s="12"/>
       <c r="BL58" s="12"/>
     </row>
-    <row r="59" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="23"/>
       <c r="B59" s="62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C59" s="63"/>
       <c r="D59" s="64"/>
       <c r="E59" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F59" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G59" s="36"/>
       <c r="H59" s="13" t="e">
@@ -9178,7 +6838,7 @@
       <c r="BK59" s="12"/>
       <c r="BL59" s="12"/>
     </row>
-    <row r="60" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="23"/>
       <c r="B60" s="62" t="s">
         <v>11</v>
@@ -9186,10 +6846,10 @@
       <c r="C60" s="63"/>
       <c r="D60" s="64"/>
       <c r="E60" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F60" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G60" s="36"/>
       <c r="H60" s="13" t="e">
@@ -9253,7 +6913,7 @@
       <c r="BK60" s="12"/>
       <c r="BL60" s="12"/>
     </row>
-    <row r="61" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="23"/>
       <c r="B61" s="62" t="s">
         <v>12</v>
@@ -9261,10 +6921,10 @@
       <c r="C61" s="63"/>
       <c r="D61" s="64"/>
       <c r="E61" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F61" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G61" s="36"/>
       <c r="H61" s="13" t="e">
@@ -9328,7 +6988,7 @@
       <c r="BK61" s="12"/>
       <c r="BL61" s="12"/>
     </row>
-    <row r="62" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="23" t="s">
         <v>9</v>
       </c>
@@ -9399,18 +7059,18 @@
       <c r="BK62" s="12"/>
       <c r="BL62" s="12"/>
     </row>
-    <row r="63" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C63" s="123"/>
       <c r="D63" s="124"/>
       <c r="E63" s="125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F63" s="125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G63" s="36"/>
       <c r="H63" s="13" t="e">
@@ -9474,18 +7134,18 @@
       <c r="BK63" s="12"/>
       <c r="BL63" s="12"/>
     </row>
-    <row r="64" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="23"/>
       <c r="B64" s="135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C64" s="123"/>
       <c r="D64" s="124"/>
       <c r="E64" s="125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F64" s="125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G64" s="36"/>
       <c r="H64" s="13" t="e">
@@ -9549,18 +7209,18 @@
       <c r="BK64" s="12"/>
       <c r="BL64" s="12"/>
     </row>
-    <row r="65" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="23"/>
       <c r="B65" s="135" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C65" s="123"/>
       <c r="D65" s="124"/>
       <c r="E65" s="125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F65" s="125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G65" s="36"/>
       <c r="H65" s="13" t="e">
@@ -9624,7 +7284,7 @@
       <c r="BK65" s="12"/>
       <c r="BL65" s="12"/>
     </row>
-    <row r="66" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="23"/>
       <c r="B66" s="135" t="s">
         <v>11</v>
@@ -9632,10 +7292,10 @@
       <c r="C66" s="123"/>
       <c r="D66" s="124"/>
       <c r="E66" s="125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F66" s="125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G66" s="36"/>
       <c r="H66" s="13" t="e">
@@ -9699,7 +7359,7 @@
       <c r="BK66" s="12"/>
       <c r="BL66" s="12"/>
     </row>
-    <row r="67" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="23"/>
       <c r="B67" s="135" t="s">
         <v>12</v>
@@ -9707,10 +7367,10 @@
       <c r="C67" s="123"/>
       <c r="D67" s="124"/>
       <c r="E67" s="125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F67" s="125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G67" s="36"/>
       <c r="H67" s="13" t="e">
@@ -9774,7 +7434,7 @@
       <c r="BK67" s="12"/>
       <c r="BL67" s="12"/>
     </row>
-    <row r="68" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="23" t="s">
         <v>9</v>
       </c>
@@ -9845,18 +7505,18 @@
       <c r="BK68" s="12"/>
       <c r="BL68" s="12"/>
     </row>
-    <row r="69" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
       <c r="B69" s="136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C69" s="131"/>
       <c r="D69" s="132"/>
       <c r="E69" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F69" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G69" s="36"/>
       <c r="H69" s="13" t="e">
@@ -9920,18 +7580,18 @@
       <c r="BK69" s="12"/>
       <c r="BL69" s="12"/>
     </row>
-    <row r="70" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="23"/>
       <c r="B70" s="136" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C70" s="131"/>
       <c r="D70" s="132"/>
       <c r="E70" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F70" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G70" s="36"/>
       <c r="H70" s="13" t="e">
@@ -9995,18 +7655,18 @@
       <c r="BK70" s="12"/>
       <c r="BL70" s="12"/>
     </row>
-    <row r="71" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="23"/>
       <c r="B71" s="136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C71" s="131"/>
       <c r="D71" s="132"/>
       <c r="E71" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F71" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G71" s="36"/>
       <c r="H71" s="13" t="e">
@@ -10070,7 +7730,7 @@
       <c r="BK71" s="12"/>
       <c r="BL71" s="12"/>
     </row>
-    <row r="72" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
       <c r="B72" s="136" t="s">
         <v>11</v>
@@ -10078,10 +7738,10 @@
       <c r="C72" s="131"/>
       <c r="D72" s="132"/>
       <c r="E72" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F72" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G72" s="36"/>
       <c r="H72" s="13" t="e">
@@ -10145,7 +7805,7 @@
       <c r="BK72" s="12"/>
       <c r="BL72" s="12"/>
     </row>
-    <row r="73" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="23"/>
       <c r="B73" s="136" t="s">
         <v>12</v>
@@ -10153,10 +7813,10 @@
       <c r="C73" s="131"/>
       <c r="D73" s="132"/>
       <c r="E73" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F73" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G73" s="36"/>
       <c r="H73" s="13" t="e">
@@ -10220,7 +7880,7 @@
       <c r="BK73" s="12"/>
       <c r="BL73" s="12"/>
     </row>
-    <row r="74" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="23" t="s">
         <v>9</v>
       </c>
@@ -10291,18 +7951,18 @@
       <c r="BK74" s="12"/>
       <c r="BL74" s="12"/>
     </row>
-    <row r="75" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
       <c r="B75" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C75" s="143"/>
       <c r="D75" s="144"/>
       <c r="E75" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F75" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G75" s="36"/>
       <c r="H75" s="13" t="e">
@@ -10366,18 +8026,18 @@
       <c r="BK75" s="12"/>
       <c r="BL75" s="12"/>
     </row>
-    <row r="76" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="23"/>
       <c r="B76" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C76" s="143"/>
       <c r="D76" s="144"/>
       <c r="E76" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F76" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G76" s="36"/>
       <c r="H76" s="13" t="e">
@@ -10441,18 +8101,18 @@
       <c r="BK76" s="12"/>
       <c r="BL76" s="12"/>
     </row>
-    <row r="77" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="23"/>
       <c r="B77" s="142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C77" s="143"/>
       <c r="D77" s="144"/>
       <c r="E77" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F77" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G77" s="36"/>
       <c r="H77" s="13" t="e">
@@ -10516,7 +8176,7 @@
       <c r="BK77" s="12"/>
       <c r="BL77" s="12"/>
     </row>
-    <row r="78" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="23"/>
       <c r="B78" s="142" t="s">
         <v>11</v>
@@ -10524,10 +8184,10 @@
       <c r="C78" s="143"/>
       <c r="D78" s="144"/>
       <c r="E78" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F78" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G78" s="36"/>
       <c r="H78" s="13" t="e">
@@ -10591,7 +8251,7 @@
       <c r="BK78" s="12"/>
       <c r="BL78" s="12"/>
     </row>
-    <row r="79" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="23"/>
       <c r="B79" s="142" t="s">
         <v>12</v>
@@ -10599,10 +8259,10 @@
       <c r="C79" s="143"/>
       <c r="D79" s="144"/>
       <c r="E79" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F79" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G79" s="36"/>
       <c r="H79" s="13" t="e">
@@ -10666,7 +8326,7 @@
       <c r="BK79" s="12"/>
       <c r="BL79" s="12"/>
     </row>
-    <row r="80" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="23" t="s">
         <v>9</v>
       </c>
@@ -10737,18 +8397,18 @@
       <c r="BK80" s="12"/>
       <c r="BL80" s="12"/>
     </row>
-    <row r="81" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
-      <c r="B81" s="155" t="s">
-        <v>47</v>
+      <c r="B81" s="148" t="s">
+        <v>46</v>
       </c>
       <c r="C81" s="95"/>
       <c r="D81" s="96"/>
       <c r="E81" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F81" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G81" s="36"/>
       <c r="H81" s="13" t="e">
@@ -10812,18 +8472,18 @@
       <c r="BK81" s="12"/>
       <c r="BL81" s="12"/>
     </row>
-    <row r="82" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="23"/>
-      <c r="B82" s="155" t="s">
-        <v>44</v>
+      <c r="B82" s="148" t="s">
+        <v>43</v>
       </c>
       <c r="C82" s="95"/>
       <c r="D82" s="96"/>
       <c r="E82" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F82" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G82" s="36"/>
       <c r="H82" s="13" t="e">
@@ -10887,18 +8547,18 @@
       <c r="BK82" s="12"/>
       <c r="BL82" s="12"/>
     </row>
-    <row r="83" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="23"/>
-      <c r="B83" s="155" t="s">
-        <v>45</v>
+      <c r="B83" s="148" t="s">
+        <v>44</v>
       </c>
       <c r="C83" s="95"/>
       <c r="D83" s="96"/>
       <c r="E83" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F83" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G83" s="36"/>
       <c r="H83" s="13" t="e">
@@ -10962,18 +8622,18 @@
       <c r="BK83" s="12"/>
       <c r="BL83" s="12"/>
     </row>
-    <row r="84" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
-      <c r="B84" s="155" t="s">
+      <c r="B84" s="148" t="s">
         <v>11</v>
       </c>
       <c r="C84" s="95"/>
       <c r="D84" s="96"/>
       <c r="E84" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F84" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G84" s="36"/>
       <c r="H84" s="13" t="e">
@@ -11037,18 +8697,18 @@
       <c r="BK84" s="12"/>
       <c r="BL84" s="12"/>
     </row>
-    <row r="85" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="23"/>
-      <c r="B85" s="155" t="s">
+      <c r="B85" s="148" t="s">
         <v>12</v>
       </c>
       <c r="C85" s="95"/>
       <c r="D85" s="96"/>
       <c r="E85" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F85" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G85" s="36"/>
       <c r="H85" s="13" t="e">
@@ -11112,7 +8772,7 @@
       <c r="BK85" s="12"/>
       <c r="BL85" s="12"/>
     </row>
-    <row r="86" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="23" t="s">
         <v>9</v>
       </c>
@@ -11183,18 +8843,18 @@
       <c r="BK86" s="12"/>
       <c r="BL86" s="12"/>
     </row>
-    <row r="87" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="23"/>
-      <c r="B87" s="156" t="s">
-        <v>47</v>
+      <c r="B87" s="149" t="s">
+        <v>46</v>
       </c>
       <c r="C87" s="47"/>
       <c r="D87" s="48"/>
       <c r="E87" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F87" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G87" s="36"/>
       <c r="H87" s="13" t="e">
@@ -11258,18 +8918,18 @@
       <c r="BK87" s="12"/>
       <c r="BL87" s="12"/>
     </row>
-    <row r="88" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="23"/>
-      <c r="B88" s="156" t="s">
-        <v>44</v>
+      <c r="B88" s="149" t="s">
+        <v>43</v>
       </c>
       <c r="C88" s="47"/>
       <c r="D88" s="48"/>
       <c r="E88" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F88" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G88" s="36"/>
       <c r="H88" s="13" t="e">
@@ -11333,18 +8993,18 @@
       <c r="BK88" s="12"/>
       <c r="BL88" s="12"/>
     </row>
-    <row r="89" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="23"/>
-      <c r="B89" s="156" t="s">
-        <v>45</v>
+      <c r="B89" s="149" t="s">
+        <v>44</v>
       </c>
       <c r="C89" s="47"/>
       <c r="D89" s="48"/>
       <c r="E89" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F89" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G89" s="36"/>
       <c r="H89" s="13" t="e">
@@ -11408,18 +9068,18 @@
       <c r="BK89" s="12"/>
       <c r="BL89" s="12"/>
     </row>
-    <row r="90" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="23"/>
-      <c r="B90" s="156" t="s">
+      <c r="B90" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C90" s="47"/>
       <c r="D90" s="48"/>
       <c r="E90" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F90" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G90" s="36"/>
       <c r="H90" s="13" t="e">
@@ -11483,18 +9143,18 @@
       <c r="BK90" s="12"/>
       <c r="BL90" s="12"/>
     </row>
-    <row r="91" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
-      <c r="B91" s="156" t="s">
+      <c r="B91" s="149" t="s">
         <v>12</v>
       </c>
       <c r="C91" s="47"/>
       <c r="D91" s="48"/>
       <c r="E91" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F91" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G91" s="36"/>
       <c r="H91" s="13" t="e">
@@ -11558,7 +9218,7 @@
       <c r="BK91" s="12"/>
       <c r="BL91" s="12"/>
     </row>
-    <row r="92" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="23" t="s">
         <v>9</v>
       </c>
@@ -11629,18 +9289,18 @@
       <c r="BK92" s="12"/>
       <c r="BL92" s="12"/>
     </row>
-    <row r="93" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="23"/>
       <c r="B93" s="147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C93" s="38"/>
       <c r="D93" s="39"/>
       <c r="E93" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F93" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G93" s="36"/>
       <c r="H93" s="13" t="e">
@@ -11704,18 +9364,18 @@
       <c r="BK93" s="12"/>
       <c r="BL93" s="12"/>
     </row>
-    <row r="94" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="23"/>
       <c r="B94" s="147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C94" s="38"/>
       <c r="D94" s="39"/>
       <c r="E94" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F94" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G94" s="36"/>
       <c r="H94" s="13" t="e">
@@ -11779,18 +9439,18 @@
       <c r="BK94" s="12"/>
       <c r="BL94" s="12"/>
     </row>
-    <row r="95" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="23"/>
       <c r="B95" s="147" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C95" s="38"/>
       <c r="D95" s="39"/>
       <c r="E95" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F95" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G95" s="36"/>
       <c r="H95" s="13" t="e">
@@ -11854,7 +9514,7 @@
       <c r="BK95" s="12"/>
       <c r="BL95" s="12"/>
     </row>
-    <row r="96" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="23"/>
       <c r="B96" s="147" t="s">
         <v>11</v>
@@ -11862,10 +9522,10 @@
       <c r="C96" s="38"/>
       <c r="D96" s="39"/>
       <c r="E96" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F96" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G96" s="36"/>
       <c r="H96" s="13" t="e">
@@ -11929,7 +9589,7 @@
       <c r="BK96" s="12"/>
       <c r="BL96" s="12"/>
     </row>
-    <row r="97" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="23"/>
       <c r="B97" s="147" t="s">
         <v>12</v>
@@ -11937,10 +9597,10 @@
       <c r="C97" s="38"/>
       <c r="D97" s="39"/>
       <c r="E97" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F97" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G97" s="36"/>
       <c r="H97" s="13" t="e">
@@ -12004,7 +9664,7 @@
       <c r="BK97" s="12"/>
       <c r="BL97" s="12"/>
     </row>
-    <row r="98" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="23" t="s">
         <v>9</v>
       </c>
@@ -12075,18 +9735,18 @@
       <c r="BK98" s="12"/>
       <c r="BL98" s="12"/>
     </row>
-    <row r="99" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C99" s="55"/>
       <c r="D99" s="56"/>
       <c r="E99" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F99" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G99" s="36"/>
       <c r="H99" s="13" t="e">
@@ -12150,18 +9810,18 @@
       <c r="BK99" s="12"/>
       <c r="BL99" s="12"/>
     </row>
-    <row r="100" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="23"/>
       <c r="B100" s="79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C100" s="55"/>
       <c r="D100" s="56"/>
       <c r="E100" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F100" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G100" s="36"/>
       <c r="H100" s="13" t="e">
@@ -12225,18 +9885,18 @@
       <c r="BK100" s="12"/>
       <c r="BL100" s="12"/>
     </row>
-    <row r="101" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="23"/>
       <c r="B101" s="79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C101" s="55"/>
       <c r="D101" s="56"/>
       <c r="E101" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F101" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G101" s="36"/>
       <c r="H101" s="13" t="e">
@@ -12300,7 +9960,7 @@
       <c r="BK101" s="12"/>
       <c r="BL101" s="12"/>
     </row>
-    <row r="102" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="23"/>
       <c r="B102" s="79" t="s">
         <v>11</v>
@@ -12308,10 +9968,10 @@
       <c r="C102" s="55"/>
       <c r="D102" s="56"/>
       <c r="E102" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F102" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G102" s="36"/>
       <c r="H102" s="13" t="e">
@@ -12375,7 +10035,7 @@
       <c r="BK102" s="12"/>
       <c r="BL102" s="12"/>
     </row>
-    <row r="103" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
       <c r="B103" s="79" t="s">
         <v>12</v>
@@ -12383,10 +10043,10 @@
       <c r="C103" s="55"/>
       <c r="D103" s="56"/>
       <c r="E103" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F103" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G103" s="36"/>
       <c r="H103" s="13" t="e">
@@ -12450,7 +10110,7 @@
       <c r="BK103" s="12"/>
       <c r="BL103" s="12"/>
     </row>
-    <row r="104" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="23" t="s">
         <v>9</v>
       </c>
@@ -12521,18 +10181,18 @@
       <c r="BK104" s="12"/>
       <c r="BL104" s="12"/>
     </row>
-    <row r="105" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="23"/>
       <c r="B105" s="134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C105" s="63"/>
       <c r="D105" s="64"/>
       <c r="E105" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F105" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G105" s="36"/>
       <c r="H105" s="13" t="e">
@@ -12596,18 +10256,18 @@
       <c r="BK105" s="12"/>
       <c r="BL105" s="12"/>
     </row>
-    <row r="106" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="23"/>
       <c r="B106" s="134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C106" s="63"/>
       <c r="D106" s="64"/>
       <c r="E106" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F106" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G106" s="36"/>
       <c r="H106" s="13" t="e">
@@ -12671,18 +10331,18 @@
       <c r="BK106" s="12"/>
       <c r="BL106" s="12"/>
     </row>
-    <row r="107" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="23"/>
       <c r="B107" s="134" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C107" s="63"/>
       <c r="D107" s="64"/>
       <c r="E107" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F107" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G107" s="36"/>
       <c r="H107" s="13" t="e">
@@ -12746,7 +10406,7 @@
       <c r="BK107" s="12"/>
       <c r="BL107" s="12"/>
     </row>
-    <row r="108" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="23"/>
       <c r="B108" s="134" t="s">
         <v>11</v>
@@ -12754,10 +10414,10 @@
       <c r="C108" s="63"/>
       <c r="D108" s="64"/>
       <c r="E108" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F108" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G108" s="36"/>
       <c r="H108" s="13" t="e">
@@ -12821,7 +10481,7 @@
       <c r="BK108" s="12"/>
       <c r="BL108" s="12"/>
     </row>
-    <row r="109" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="23"/>
       <c r="B109" s="134" t="s">
         <v>12</v>
@@ -12829,10 +10489,10 @@
       <c r="C109" s="63"/>
       <c r="D109" s="64"/>
       <c r="E109" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F109" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G109" s="36"/>
       <c r="H109" s="13" t="e">
@@ -12896,7 +10556,7 @@
       <c r="BK109" s="12"/>
       <c r="BL109" s="12"/>
     </row>
-    <row r="110" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="23" t="s">
         <v>9</v>
       </c>
@@ -12967,18 +10627,18 @@
       <c r="BK110" s="12"/>
       <c r="BL110" s="12"/>
     </row>
-    <row r="111" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="23"/>
       <c r="B111" s="136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C111" s="131"/>
       <c r="D111" s="132"/>
       <c r="E111" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F111" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G111" s="36"/>
       <c r="H111" s="13" t="e">
@@ -13042,18 +10702,18 @@
       <c r="BK111" s="12"/>
       <c r="BL111" s="12"/>
     </row>
-    <row r="112" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="23"/>
       <c r="B112" s="136" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C112" s="131"/>
       <c r="D112" s="132"/>
       <c r="E112" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F112" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G112" s="36"/>
       <c r="H112" s="13" t="e">
@@ -13117,18 +10777,18 @@
       <c r="BK112" s="12"/>
       <c r="BL112" s="12"/>
     </row>
-    <row r="113" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="23"/>
       <c r="B113" s="136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C113" s="131"/>
       <c r="D113" s="132"/>
       <c r="E113" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F113" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G113" s="36"/>
       <c r="H113" s="13" t="e">
@@ -13192,7 +10852,7 @@
       <c r="BK113" s="12"/>
       <c r="BL113" s="12"/>
     </row>
-    <row r="114" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="23"/>
       <c r="B114" s="136" t="s">
         <v>11</v>
@@ -13200,10 +10860,10 @@
       <c r="C114" s="131"/>
       <c r="D114" s="132"/>
       <c r="E114" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F114" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G114" s="36"/>
       <c r="H114" s="13" t="e">
@@ -13267,7 +10927,7 @@
       <c r="BK114" s="12"/>
       <c r="BL114" s="12"/>
     </row>
-    <row r="115" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="23"/>
       <c r="B115" s="136" t="s">
         <v>12</v>
@@ -13275,10 +10935,10 @@
       <c r="C115" s="131"/>
       <c r="D115" s="132"/>
       <c r="E115" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F115" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G115" s="36"/>
       <c r="H115" s="13" t="e">
@@ -13342,7 +11002,7 @@
       <c r="BK115" s="12"/>
       <c r="BL115" s="12"/>
     </row>
-    <row r="116" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="23" t="s">
         <v>9</v>
       </c>
@@ -13413,18 +11073,18 @@
       <c r="BK116" s="12"/>
       <c r="BL116" s="12"/>
     </row>
-    <row r="117" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
       <c r="B117" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C117" s="143"/>
       <c r="D117" s="144"/>
       <c r="E117" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F117" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G117" s="36"/>
       <c r="H117" s="13" t="e">
@@ -13488,18 +11148,18 @@
       <c r="BK117" s="12"/>
       <c r="BL117" s="12"/>
     </row>
-    <row r="118" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="23"/>
       <c r="B118" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C118" s="143"/>
       <c r="D118" s="144"/>
       <c r="E118" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F118" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G118" s="36"/>
       <c r="H118" s="13" t="e">
@@ -13563,18 +11223,18 @@
       <c r="BK118" s="12"/>
       <c r="BL118" s="12"/>
     </row>
-    <row r="119" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="23"/>
       <c r="B119" s="142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C119" s="143"/>
       <c r="D119" s="144"/>
       <c r="E119" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F119" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G119" s="36"/>
       <c r="H119" s="13" t="e">
@@ -13638,7 +11298,7 @@
       <c r="BK119" s="12"/>
       <c r="BL119" s="12"/>
     </row>
-    <row r="120" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="23"/>
       <c r="B120" s="142" t="s">
         <v>11</v>
@@ -13646,10 +11306,10 @@
       <c r="C120" s="143"/>
       <c r="D120" s="144"/>
       <c r="E120" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F120" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G120" s="36"/>
       <c r="H120" s="13" t="e">
@@ -13713,18 +11373,18 @@
       <c r="BK120" s="12"/>
       <c r="BL120" s="12"/>
     </row>
-    <row r="121" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
       <c r="B121" s="142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C121" s="143"/>
       <c r="D121" s="144"/>
       <c r="E121" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F121" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G121" s="36"/>
       <c r="H121" s="13" t="e">
@@ -13788,7 +11448,7 @@
       <c r="BK121" s="12"/>
       <c r="BL121" s="12"/>
     </row>
-    <row r="122" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="23" t="s">
         <v>9</v>
       </c>
@@ -13859,18 +11519,18 @@
       <c r="BK122" s="12"/>
       <c r="BL122" s="12"/>
     </row>
-    <row r="123" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="23"/>
       <c r="B123" s="146" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C123" s="95"/>
       <c r="D123" s="96"/>
       <c r="E123" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F123" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G123" s="36"/>
       <c r="H123" s="13" t="e">
@@ -13934,18 +11594,18 @@
       <c r="BK123" s="12"/>
       <c r="BL123" s="12"/>
     </row>
-    <row r="124" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="23"/>
       <c r="B124" s="146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C124" s="95"/>
       <c r="D124" s="96"/>
       <c r="E124" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F124" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G124" s="36"/>
       <c r="H124" s="13" t="e">
@@ -14009,18 +11669,18 @@
       <c r="BK124" s="12"/>
       <c r="BL124" s="12"/>
     </row>
-    <row r="125" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="23"/>
       <c r="B125" s="146" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C125" s="95"/>
       <c r="D125" s="96"/>
       <c r="E125" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F125" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G125" s="36"/>
       <c r="H125" s="13" t="e">
@@ -14084,7 +11744,7 @@
       <c r="BK125" s="12"/>
       <c r="BL125" s="12"/>
     </row>
-    <row r="126" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="23"/>
       <c r="B126" s="146" t="s">
         <v>11</v>
@@ -14092,10 +11752,10 @@
       <c r="C126" s="95"/>
       <c r="D126" s="96"/>
       <c r="E126" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F126" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G126" s="36"/>
       <c r="H126" s="13" t="e">
@@ -14159,7 +11819,7 @@
       <c r="BK126" s="12"/>
       <c r="BL126" s="12"/>
     </row>
-    <row r="127" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
       <c r="B127" s="146" t="s">
         <v>12</v>
@@ -14167,10 +11827,10 @@
       <c r="C127" s="95"/>
       <c r="D127" s="96"/>
       <c r="E127" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F127" s="97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G127" s="36"/>
       <c r="H127" s="13" t="e">
@@ -14234,7 +11894,7 @@
       <c r="BK127" s="12"/>
       <c r="BL127" s="12"/>
     </row>
-    <row r="128" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="23" t="s">
         <v>9</v>
       </c>
@@ -14305,18 +11965,18 @@
       <c r="BK128" s="12"/>
       <c r="BL128" s="12"/>
     </row>
-    <row r="129" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="23"/>
       <c r="B129" s="77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C129" s="47"/>
       <c r="D129" s="48"/>
       <c r="E129" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F129" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G129" s="36"/>
       <c r="H129" s="13" t="e">
@@ -14380,18 +12040,18 @@
       <c r="BK129" s="12"/>
       <c r="BL129" s="12"/>
     </row>
-    <row r="130" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="23"/>
       <c r="B130" s="77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C130" s="47"/>
       <c r="D130" s="48"/>
       <c r="E130" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F130" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G130" s="36"/>
       <c r="H130" s="13" t="e">
@@ -14455,18 +12115,18 @@
       <c r="BK130" s="12"/>
       <c r="BL130" s="12"/>
     </row>
-    <row r="131" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="23"/>
       <c r="B131" s="77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C131" s="47"/>
       <c r="D131" s="48"/>
       <c r="E131" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F131" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G131" s="36"/>
       <c r="H131" s="13" t="e">
@@ -14530,7 +12190,7 @@
       <c r="BK131" s="12"/>
       <c r="BL131" s="12"/>
     </row>
-    <row r="132" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
       <c r="B132" s="77" t="s">
         <v>11</v>
@@ -14538,10 +12198,10 @@
       <c r="C132" s="47"/>
       <c r="D132" s="48"/>
       <c r="E132" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F132" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G132" s="36"/>
       <c r="H132" s="13" t="e">
@@ -14605,7 +12265,7 @@
       <c r="BK132" s="12"/>
       <c r="BL132" s="12"/>
     </row>
-    <row r="133" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="23"/>
       <c r="B133" s="77" t="s">
         <v>12</v>
@@ -14613,10 +12273,10 @@
       <c r="C133" s="47"/>
       <c r="D133" s="48"/>
       <c r="E133" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F133" s="49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G133" s="36"/>
       <c r="H133" s="13" t="e">
@@ -14680,7 +12340,7 @@
       <c r="BK133" s="12"/>
       <c r="BL133" s="12"/>
     </row>
-    <row r="134" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="23" t="s">
         <v>9</v>
       </c>
@@ -14751,18 +12411,18 @@
       <c r="BK134" s="12"/>
       <c r="BL134" s="12"/>
     </row>
-    <row r="135" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="23"/>
       <c r="B135" s="147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C135" s="38"/>
       <c r="D135" s="39"/>
       <c r="E135" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F135" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G135" s="36"/>
       <c r="H135" s="13" t="e">
@@ -14826,18 +12486,18 @@
       <c r="BK135" s="12"/>
       <c r="BL135" s="12"/>
     </row>
-    <row r="136" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="23"/>
       <c r="B136" s="147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C136" s="38"/>
       <c r="D136" s="39"/>
       <c r="E136" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F136" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G136" s="36"/>
       <c r="H136" s="13" t="e">
@@ -14901,18 +12561,18 @@
       <c r="BK136" s="12"/>
       <c r="BL136" s="12"/>
     </row>
-    <row r="137" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="23"/>
       <c r="B137" s="147" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C137" s="38"/>
       <c r="D137" s="39"/>
       <c r="E137" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F137" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G137" s="36"/>
       <c r="H137" s="13" t="e">
@@ -14976,7 +12636,7 @@
       <c r="BK137" s="12"/>
       <c r="BL137" s="12"/>
     </row>
-    <row r="138" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="23"/>
       <c r="B138" s="147" t="s">
         <v>11</v>
@@ -14984,10 +12644,10 @@
       <c r="C138" s="38"/>
       <c r="D138" s="39"/>
       <c r="E138" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F138" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G138" s="36"/>
       <c r="H138" s="13" t="e">
@@ -15051,18 +12711,18 @@
       <c r="BK138" s="12"/>
       <c r="BL138" s="12"/>
     </row>
-    <row r="139" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="23"/>
       <c r="B139" s="147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C139" s="38"/>
       <c r="D139" s="39"/>
       <c r="E139" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F139" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G139" s="36"/>
       <c r="H139" s="13" t="e">
@@ -15126,7 +12786,7 @@
       <c r="BK139" s="12"/>
       <c r="BL139" s="12"/>
     </row>
-    <row r="140" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="23" t="s">
         <v>9</v>
       </c>
@@ -15197,18 +12857,18 @@
       <c r="BK140" s="12"/>
       <c r="BL140" s="12"/>
     </row>
-    <row r="141" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="23"/>
       <c r="B141" s="79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C141" s="55"/>
       <c r="D141" s="56"/>
       <c r="E141" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F141" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G141" s="36"/>
       <c r="H141" s="13" t="e">
@@ -15272,18 +12932,18 @@
       <c r="BK141" s="12"/>
       <c r="BL141" s="12"/>
     </row>
-    <row r="142" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="23"/>
       <c r="B142" s="79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C142" s="55"/>
       <c r="D142" s="56"/>
       <c r="E142" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F142" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G142" s="36"/>
       <c r="H142" s="13" t="e">
@@ -15347,18 +13007,18 @@
       <c r="BK142" s="12"/>
       <c r="BL142" s="12"/>
     </row>
-    <row r="143" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="23"/>
       <c r="B143" s="79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C143" s="55"/>
       <c r="D143" s="56"/>
       <c r="E143" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F143" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G143" s="36"/>
       <c r="H143" s="13" t="e">
@@ -15422,18 +13082,18 @@
       <c r="BK143" s="12"/>
       <c r="BL143" s="12"/>
     </row>
-    <row r="144" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="23"/>
       <c r="B144" s="79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C144" s="55"/>
       <c r="D144" s="56"/>
       <c r="E144" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F144" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G144" s="36"/>
       <c r="H144" s="13" t="e">
@@ -15497,18 +13157,18 @@
       <c r="BK144" s="12"/>
       <c r="BL144" s="12"/>
     </row>
-    <row r="145" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="23"/>
       <c r="B145" s="79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C145" s="55"/>
       <c r="D145" s="56"/>
       <c r="E145" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F145" s="57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G145" s="36"/>
       <c r="H145" s="13" t="e">
@@ -15572,7 +13232,7 @@
       <c r="BK145" s="12"/>
       <c r="BL145" s="12"/>
     </row>
-    <row r="146" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="23" t="s">
         <v>9</v>
       </c>
@@ -15643,18 +13303,18 @@
       <c r="BK146" s="12"/>
       <c r="BL146" s="12"/>
     </row>
-    <row r="147" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="23"/>
       <c r="B147" s="134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C147" s="63"/>
       <c r="D147" s="64"/>
       <c r="E147" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F147" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G147" s="36"/>
       <c r="H147" s="13" t="e">
@@ -15718,18 +13378,18 @@
       <c r="BK147" s="12"/>
       <c r="BL147" s="12"/>
     </row>
-    <row r="148" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="23"/>
       <c r="B148" s="134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C148" s="63"/>
       <c r="D148" s="64"/>
       <c r="E148" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F148" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G148" s="36"/>
       <c r="H148" s="13" t="e">
@@ -15793,18 +13453,18 @@
       <c r="BK148" s="12"/>
       <c r="BL148" s="12"/>
     </row>
-    <row r="149" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="23"/>
       <c r="B149" s="134" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C149" s="63"/>
       <c r="D149" s="64"/>
       <c r="E149" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F149" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G149" s="36"/>
       <c r="H149" s="13" t="e">
@@ -15868,7 +13528,7 @@
       <c r="BK149" s="12"/>
       <c r="BL149" s="12"/>
     </row>
-    <row r="150" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="134" t="s">
         <v>11</v>
@@ -15876,10 +13536,10 @@
       <c r="C150" s="63"/>
       <c r="D150" s="64"/>
       <c r="E150" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F150" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G150" s="36"/>
       <c r="H150" s="13" t="e">
@@ -15943,18 +13603,18 @@
       <c r="BK150" s="12"/>
       <c r="BL150" s="12"/>
     </row>
-    <row r="151" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
       <c r="B151" s="134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C151" s="63"/>
       <c r="D151" s="64"/>
       <c r="E151" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F151" s="65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G151" s="36"/>
       <c r="H151" s="13" t="e">
@@ -16018,7 +13678,7 @@
       <c r="BK151" s="12"/>
       <c r="BL151" s="12"/>
     </row>
-    <row r="152" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="23" t="s">
         <v>9</v>
       </c>
@@ -16089,18 +13749,18 @@
       <c r="BK152" s="12"/>
       <c r="BL152" s="12"/>
     </row>
-    <row r="153" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="23"/>
       <c r="B153" s="136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C153" s="131"/>
       <c r="D153" s="132"/>
       <c r="E153" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F153" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G153" s="36"/>
       <c r="H153" s="13" t="e">
@@ -16164,18 +13824,18 @@
       <c r="BK153" s="12"/>
       <c r="BL153" s="12"/>
     </row>
-    <row r="154" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="23"/>
       <c r="B154" s="136" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C154" s="131"/>
       <c r="D154" s="132"/>
       <c r="E154" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F154" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G154" s="36"/>
       <c r="H154" s="13" t="e">
@@ -16239,18 +13899,18 @@
       <c r="BK154" s="12"/>
       <c r="BL154" s="12"/>
     </row>
-    <row r="155" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="23"/>
       <c r="B155" s="136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C155" s="131"/>
       <c r="D155" s="132"/>
       <c r="E155" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F155" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G155" s="36"/>
       <c r="H155" s="13" t="e">
@@ -16314,7 +13974,7 @@
       <c r="BK155" s="12"/>
       <c r="BL155" s="12"/>
     </row>
-    <row r="156" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
       <c r="B156" s="136" t="s">
         <v>11</v>
@@ -16322,10 +13982,10 @@
       <c r="C156" s="131"/>
       <c r="D156" s="132"/>
       <c r="E156" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F156" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G156" s="36"/>
       <c r="H156" s="13" t="e">
@@ -16389,18 +14049,18 @@
       <c r="BK156" s="12"/>
       <c r="BL156" s="12"/>
     </row>
-    <row r="157" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="23"/>
       <c r="B157" s="136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C157" s="131"/>
       <c r="D157" s="132"/>
       <c r="E157" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F157" s="133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G157" s="36"/>
       <c r="H157" s="13" t="e">
@@ -16464,7 +14124,7 @@
       <c r="BK157" s="12"/>
       <c r="BL157" s="12"/>
     </row>
-    <row r="158" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="23" t="s">
         <v>9</v>
       </c>
@@ -16535,18 +14195,18 @@
       <c r="BK158" s="12"/>
       <c r="BL158" s="12"/>
     </row>
-    <row r="159" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="23"/>
       <c r="B159" s="142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C159" s="143"/>
       <c r="D159" s="144"/>
       <c r="E159" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F159" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G159" s="36"/>
       <c r="H159" s="13" t="e">
@@ -16610,18 +14270,18 @@
       <c r="BK159" s="12"/>
       <c r="BL159" s="12"/>
     </row>
-    <row r="160" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
       <c r="B160" s="142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C160" s="143"/>
       <c r="D160" s="144"/>
       <c r="E160" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F160" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G160" s="36"/>
       <c r="H160" s="13" t="e">
@@ -16685,18 +14345,18 @@
       <c r="BK160" s="12"/>
       <c r="BL160" s="12"/>
     </row>
-    <row r="161" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="23"/>
       <c r="B161" s="142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C161" s="143"/>
       <c r="D161" s="144"/>
       <c r="E161" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F161" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G161" s="36"/>
       <c r="H161" s="13" t="e">
@@ -16760,7 +14420,7 @@
       <c r="BK161" s="12"/>
       <c r="BL161" s="12"/>
     </row>
-    <row r="162" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="23"/>
       <c r="B162" s="142" t="s">
         <v>11</v>
@@ -16768,10 +14428,10 @@
       <c r="C162" s="143"/>
       <c r="D162" s="144"/>
       <c r="E162" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F162" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G162" s="36"/>
       <c r="H162" s="13" t="e">
@@ -16835,7 +14495,7 @@
       <c r="BK162" s="12"/>
       <c r="BL162" s="12"/>
     </row>
-    <row r="163" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
       <c r="B163" s="142" t="s">
         <v>12</v>
@@ -16843,10 +14503,10 @@
       <c r="C163" s="143"/>
       <c r="D163" s="144"/>
       <c r="E163" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F163" s="145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G163" s="36"/>
       <c r="H163" s="13" t="e">
@@ -16910,7 +14570,7 @@
       <c r="BK163" s="12"/>
       <c r="BL163" s="12"/>
     </row>
-    <row r="164" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="23" t="s">
         <v>9</v>
       </c>
@@ -16981,7 +14641,7 @@
       <c r="BK164" s="12"/>
       <c r="BL164" s="12"/>
     </row>
-    <row r="165" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="23"/>
       <c r="B165" s="146" t="s">
         <v>40</v>
@@ -17056,7 +14716,7 @@
       <c r="BK165" s="12"/>
       <c r="BL165" s="12"/>
     </row>
-    <row r="166" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="23"/>
       <c r="B166" s="146" t="s">
         <v>41</v>
@@ -17131,7 +14791,7 @@
       <c r="BK166" s="12"/>
       <c r="BL166" s="12"/>
     </row>
-    <row r="167" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="23"/>
       <c r="B167" s="94" t="s">
         <v>39</v>
@@ -17206,7 +14866,7 @@
       <c r="BK167" s="12"/>
       <c r="BL167" s="12"/>
     </row>
-    <row r="168" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
       <c r="B168" s="94" t="s">
         <v>11</v>
@@ -17281,7 +14941,7 @@
       <c r="BK168" s="12"/>
       <c r="BL168" s="12"/>
     </row>
-    <row r="169" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="23"/>
       <c r="B169" s="94" t="s">
         <v>12</v>
@@ -17358,6 +15018,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -17365,13 +15030,22 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
+  <conditionalFormatting sqref="D15:D19">
+    <cfRule type="dataBar" priority="177">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7D7692E7-6A2C-49EE-BE66-8CE39DA51F61}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D20:D23 D7:D14 D26:D31">
     <cfRule type="dataBar" priority="347">
       <dataBar>
@@ -17386,17 +15060,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL23 I26:BL31">
-    <cfRule type="expression" dxfId="236" priority="366">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL23 I26:BL31">
-    <cfRule type="expression" dxfId="235" priority="360">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="234" priority="361" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+  <conditionalFormatting sqref="D24:D25">
+    <cfRule type="dataBar" priority="165">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DA4082BA-C4EC-4420-B5A0-D382F93A8118}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D36">
@@ -17413,17 +15088,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL36">
-    <cfRule type="expression" dxfId="233" priority="309">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL36">
-    <cfRule type="expression" dxfId="232" priority="307">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="231" priority="308" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="dataBar" priority="161">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{75ED4F39-7F02-46CA-B5EF-3520E54102C8}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D43">
@@ -17440,19 +15116,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL41">
-    <cfRule type="expression" dxfId="230" priority="305">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:BL41">
-    <cfRule type="expression" dxfId="229" priority="303">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="228" priority="304" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D44:D47">
     <cfRule type="dataBar" priority="298">
       <dataBar>
@@ -17467,17 +15130,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL47">
-    <cfRule type="expression" dxfId="227" priority="301">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:BL47">
-    <cfRule type="expression" dxfId="226" priority="299">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="225" priority="300" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+  <conditionalFormatting sqref="D48:D49">
+    <cfRule type="dataBar" priority="153">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CB709A03-E4C4-438A-87BC-AFE1ACF37821}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:D55">
@@ -17494,19 +15158,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL52">
-    <cfRule type="expression" dxfId="224" priority="297">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I50:BL52">
-    <cfRule type="expression" dxfId="223" priority="295">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="296" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D56:D61">
     <cfRule type="dataBar" priority="290">
       <dataBar>
@@ -17521,17 +15172,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL59">
-    <cfRule type="expression" dxfId="221" priority="293">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I56:BL59">
-    <cfRule type="expression" dxfId="220" priority="291">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="219" priority="292" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+  <conditionalFormatting sqref="D62:D67">
+    <cfRule type="dataBar" priority="286">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{77B573EC-821E-43AC-8FA0-277C6E0C5D22}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:D73">
@@ -17548,46 +15200,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68:BL70">
-    <cfRule type="expression" dxfId="218" priority="285">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I68:BL70">
-    <cfRule type="expression" dxfId="217" priority="283">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="216" priority="284" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62:D67">
-    <cfRule type="dataBar" priority="286">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{77B573EC-821E-43AC-8FA0-277C6E0C5D22}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62:BL65 I67:BL67">
-    <cfRule type="expression" dxfId="215" priority="289">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62:BL65 I67:BL67">
-    <cfRule type="expression" dxfId="214" priority="287">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="213" priority="288" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D74:D79">
     <cfRule type="dataBar" priority="274">
       <dataBar>
@@ -17600,19 +15212,6 @@
           <x14:id>{7E6CA822-2C39-4848-8BB3-C920BE7B10B5}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I74:BL76">
-    <cfRule type="expression" dxfId="212" priority="277">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I74:BL76">
-    <cfRule type="expression" dxfId="211" priority="275">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="210" priority="276" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80">
@@ -17629,17 +15228,46 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I80:BL80 I82:BL85">
-    <cfRule type="expression" dxfId="209" priority="273">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+  <conditionalFormatting sqref="D81:D85">
+    <cfRule type="dataBar" priority="182">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7963BA7B-0006-4487-A6CB-3774C29C5A68}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I80:BL80 I82:BL85">
-    <cfRule type="expression" dxfId="208" priority="271">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+  <conditionalFormatting sqref="D86">
+    <cfRule type="dataBar" priority="266">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2D11FBF3-6310-43B7-9E22-E321605FD66A}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="272" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87:D91">
+    <cfRule type="dataBar" priority="178">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E41C59B1-D264-4B75-A3E0-EC89A13E075C}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92:D97">
@@ -17652,33 +15280,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{E7C66323-B74B-4371-9C57-22062C6FCF71}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I92:BL95">
-    <cfRule type="expression" dxfId="206" priority="265">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I92:BL95">
-    <cfRule type="expression" dxfId="205" priority="263">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="264" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
-    <cfRule type="dataBar" priority="266">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2D11FBF3-6310-43B7-9E22-E321605FD66A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -17697,19 +15298,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I86:BL86 I88:BL89">
-    <cfRule type="expression" dxfId="203" priority="269">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I86:BL86 I88:BL89">
-    <cfRule type="expression" dxfId="202" priority="267">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="201" priority="268" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D104:D109">
     <cfRule type="dataBar" priority="254">
       <dataBar>
@@ -17724,19 +15312,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I98:BL99">
-    <cfRule type="expression" dxfId="200" priority="261">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I98:BL99">
-    <cfRule type="expression" dxfId="199" priority="259">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="198" priority="260" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D110:D111">
     <cfRule type="dataBar" priority="250">
       <dataBar>
@@ -17747,6 +15322,62 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{51DF76D8-ACBD-4776-8EFD-E3819B49E481}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D112">
+    <cfRule type="dataBar" priority="73">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{84A16644-937F-4327-94E6-739578AF6DF4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D113">
+    <cfRule type="dataBar" priority="61">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{68936C47-DF71-4EF7-934A-4D71A8AC3A15}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D114">
+    <cfRule type="dataBar" priority="69">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E5540990-3B6A-4ED9-A21B-C5372A976EC0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115">
+    <cfRule type="dataBar" priority="65">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{365859F8-A6A8-4B41-AF58-AFBA39B0BF73}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -17779,72 +15410,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I104:BL106">
-    <cfRule type="expression" dxfId="197" priority="257">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I104:BL106">
-    <cfRule type="expression" dxfId="196" priority="255">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="195" priority="256" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D152:D157">
-    <cfRule type="dataBar" priority="222">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B5A8F896-B228-4E22-A05C-EB7D20277B63}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I110:BL111">
-    <cfRule type="expression" dxfId="194" priority="253">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I110:BL111">
-    <cfRule type="expression" dxfId="193" priority="251">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="192" priority="252" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I116:BL119">
-    <cfRule type="expression" dxfId="191" priority="249">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I116:BL119">
-    <cfRule type="expression" dxfId="190" priority="247">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="189" priority="248" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I122:BL123">
-    <cfRule type="expression" dxfId="188" priority="245">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I122:BL123">
-    <cfRule type="expression" dxfId="187" priority="243">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="244" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D128:D133">
     <cfRule type="dataBar" priority="238">
       <dataBar>
@@ -17857,19 +15422,6 @@
           <x14:id>{07B02D3E-A1AF-4A91-B5F2-D00818A51474}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I128:BL129">
-    <cfRule type="expression" dxfId="185" priority="241">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I128:BL129">
-    <cfRule type="expression" dxfId="184" priority="239">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="183" priority="240" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134:D139">
@@ -17900,17 +15452,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I134:BL139">
-    <cfRule type="expression" dxfId="182" priority="237">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I134:BL139">
-    <cfRule type="expression" dxfId="181" priority="235">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="236" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+  <conditionalFormatting sqref="D145">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{430318A1-76C7-4141-AC13-D1823482773A}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146:D147">
@@ -17927,17 +15480,74 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I140:BL144">
-    <cfRule type="expression" dxfId="179" priority="233">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+  <conditionalFormatting sqref="D148">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5CCC1CEF-E8A7-40B1-B3DC-0BCCA240AED3}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I140:BL144">
-    <cfRule type="expression" dxfId="178" priority="231">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
+  <conditionalFormatting sqref="D149">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F5B460B7-0F5E-461E-BFD8-63CB282F1276}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="232" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D150">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2552C362-36BD-474F-94D7-E62C8EC1C1D4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D151">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C01B6ED1-42C1-41F1-8688-EB358929AB88}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D152:D157">
+    <cfRule type="dataBar" priority="222">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B5A8F896-B228-4E22-A05C-EB7D20277B63}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D158:D163">
@@ -17968,833 +15578,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D81:D85">
-    <cfRule type="dataBar" priority="182">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7963BA7B-0006-4487-A6CB-3774C29C5A68}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I146:BL147">
-    <cfRule type="expression" dxfId="176" priority="229">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I146:BL147">
-    <cfRule type="expression" dxfId="175" priority="227">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="228" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I152:BL157">
-    <cfRule type="expression" dxfId="173" priority="225">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I152:BL157">
-    <cfRule type="expression" dxfId="172" priority="223">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="171" priority="224" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I158:BL161">
-    <cfRule type="expression" dxfId="170" priority="221">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I158:BL161">
-    <cfRule type="expression" dxfId="169" priority="219">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="220" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I164:BL169">
-    <cfRule type="expression" dxfId="167" priority="217">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I164:BL169">
-    <cfRule type="expression" dxfId="166" priority="215">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="165" priority="216" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87:D91">
-    <cfRule type="dataBar" priority="178">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E41C59B1-D264-4B75-A3E0-EC89A13E075C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I81:BL81">
-    <cfRule type="expression" dxfId="161" priority="185">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I81:BL81">
-    <cfRule type="expression" dxfId="160" priority="183">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="159" priority="184" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I87:BL87">
-    <cfRule type="expression" dxfId="155" priority="181">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I87:BL87">
-    <cfRule type="expression" dxfId="154" priority="179">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="153" priority="180" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D19">
-    <cfRule type="dataBar" priority="177">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7D7692E7-6A2C-49EE-BE66-8CE39DA51F61}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D25">
-    <cfRule type="dataBar" priority="165">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DA4082BA-C4EC-4420-B5A0-D382F93A8118}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:BL25">
-    <cfRule type="expression" dxfId="146" priority="168">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:BL25">
-    <cfRule type="expression" dxfId="145" priority="166">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="167" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="dataBar" priority="161">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{75ED4F39-7F02-46CA-B5EF-3520E54102C8}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="143" priority="164">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I37:BL37">
-    <cfRule type="expression" dxfId="142" priority="162">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="141" priority="163" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D49">
-    <cfRule type="dataBar" priority="153">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CB709A03-E4C4-438A-87BC-AFE1ACF37821}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL43">
-    <cfRule type="expression" dxfId="140" priority="160">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42:BL43">
-    <cfRule type="expression" dxfId="139" priority="158">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="138" priority="159" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D112">
-    <cfRule type="dataBar" priority="73">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{84A16644-937F-4327-94E6-739578AF6DF4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL49">
-    <cfRule type="expression" dxfId="137" priority="156">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48:BL49">
-    <cfRule type="expression" dxfId="136" priority="154">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="155" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D114">
-    <cfRule type="dataBar" priority="69">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E5540990-3B6A-4ED9-A21B-C5372A976EC0}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
-    <cfRule type="dataBar" priority="65">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{365859F8-A6A8-4B41-AF58-AFBA39B0BF73}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="131" priority="152">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="130" priority="150">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="151" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="128" priority="148">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54:BL54">
-    <cfRule type="expression" dxfId="127" priority="146">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="147" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D113">
-    <cfRule type="dataBar" priority="61">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{68936C47-DF71-4EF7-934A-4D71A8AC3A15}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="125" priority="144">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL55">
-    <cfRule type="expression" dxfId="124" priority="142">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="143" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL61">
-    <cfRule type="expression" dxfId="122" priority="140">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I60:BL61">
-    <cfRule type="expression" dxfId="121" priority="138">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="139" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D145">
-    <cfRule type="dataBar" priority="21">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{430318A1-76C7-4141-AC13-D1823482773A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66:BL66">
-    <cfRule type="expression" dxfId="119" priority="136">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66:BL66">
-    <cfRule type="expression" dxfId="118" priority="134">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="135" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71:BL71">
-    <cfRule type="expression" dxfId="116" priority="132">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71:BL71">
-    <cfRule type="expression" dxfId="115" priority="130">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="131" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72:BL72">
-    <cfRule type="expression" dxfId="113" priority="128">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72:BL72">
-    <cfRule type="expression" dxfId="112" priority="126">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="127" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D149">
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F5B460B7-0F5E-461E-BFD8-63CB282F1276}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I73:BL73">
-    <cfRule type="expression" dxfId="110" priority="124">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I73:BL73">
-    <cfRule type="expression" dxfId="109" priority="122">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="123" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D150">
-    <cfRule type="dataBar" priority="13">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2552C362-36BD-474F-94D7-E62C8EC1C1D4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I77:BL77">
-    <cfRule type="expression" dxfId="107" priority="120">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I77:BL77">
-    <cfRule type="expression" dxfId="106" priority="118">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="119" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I78:BL78">
-    <cfRule type="expression" dxfId="104" priority="116">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I78:BL78">
-    <cfRule type="expression" dxfId="103" priority="114">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="115" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I79:BL79">
-    <cfRule type="expression" dxfId="101" priority="112">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I79:BL79">
-    <cfRule type="expression" dxfId="100" priority="110">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="111" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I90:BL91">
-    <cfRule type="expression" dxfId="98" priority="108">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I90:BL91">
-    <cfRule type="expression" dxfId="97" priority="106">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="107" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I96:BL97">
-    <cfRule type="expression" dxfId="92" priority="104">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I96:BL97">
-    <cfRule type="expression" dxfId="91" priority="102">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="103" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I100:BL100">
-    <cfRule type="expression" dxfId="89" priority="100">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I100:BL100">
-    <cfRule type="expression" dxfId="88" priority="98">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="99" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D151">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C01B6ED1-42C1-41F1-8688-EB358929AB88}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I101:BL101">
-    <cfRule type="expression" dxfId="86" priority="96">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I101:BL101">
-    <cfRule type="expression" dxfId="85" priority="94">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="95" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I102:BL102">
-    <cfRule type="expression" dxfId="83" priority="92">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I102:BL102">
-    <cfRule type="expression" dxfId="82" priority="90">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="91" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I103:BL103">
-    <cfRule type="expression" dxfId="80" priority="88">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I103:BL103">
-    <cfRule type="expression" dxfId="79" priority="86">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="87" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D148">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5CCC1CEF-E8A7-40B1-B3DC-0BCCA240AED3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I107:BL108">
-    <cfRule type="expression" dxfId="74" priority="84">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I107:BL108">
-    <cfRule type="expression" dxfId="73" priority="82">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="83" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I109:BL109">
-    <cfRule type="expression" dxfId="71" priority="80">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I109:BL109">
-    <cfRule type="expression" dxfId="70" priority="78">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="79" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I112:BL112">
-    <cfRule type="expression" dxfId="68" priority="76">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I112:BL112">
-    <cfRule type="expression" dxfId="67" priority="74">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="75" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I114:BL114">
-    <cfRule type="expression" dxfId="65" priority="72">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I114:BL114">
-    <cfRule type="expression" dxfId="64" priority="70">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="71" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I115:BL115">
-    <cfRule type="expression" dxfId="62" priority="68">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I115:BL115">
-    <cfRule type="expression" dxfId="61" priority="66">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="67" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I113:BL113">
-    <cfRule type="expression" dxfId="59" priority="64">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I113:BL113">
-    <cfRule type="expression" dxfId="58" priority="62">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="63" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I120:BL121">
-    <cfRule type="expression" dxfId="56" priority="60">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I120:BL121">
-    <cfRule type="expression" dxfId="55" priority="58">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="59" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I125:BL125">
-    <cfRule type="expression" dxfId="53" priority="56">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I125:BL125">
-    <cfRule type="expression" dxfId="52" priority="54">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="55" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I126:BL126">
-    <cfRule type="expression" dxfId="44" priority="52">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I126:BL126">
-    <cfRule type="expression" dxfId="43" priority="50">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="51" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I127:BL127">
-    <cfRule type="expression" dxfId="41" priority="48">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I127:BL127">
-    <cfRule type="expression" dxfId="40" priority="46">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="47" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I124:BL124">
-    <cfRule type="expression" dxfId="38" priority="44">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I124:BL124">
-    <cfRule type="expression" dxfId="37" priority="42">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="43" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I131:BL131">
-    <cfRule type="expression" dxfId="35" priority="40">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I131:BL131">
-    <cfRule type="expression" dxfId="34" priority="38">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="39" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I132:BL132">
-    <cfRule type="expression" dxfId="26" priority="36">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I132:BL132">
-    <cfRule type="expression" dxfId="25" priority="34">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="35" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I133:BL133">
-    <cfRule type="expression" dxfId="23" priority="32">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I133:BL133">
-    <cfRule type="expression" dxfId="22" priority="30">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="31" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I130:BL130">
-    <cfRule type="expression" dxfId="20" priority="28">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I130:BL130">
-    <cfRule type="expression" dxfId="19" priority="26">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="27" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I145:BL145">
-    <cfRule type="expression" dxfId="17" priority="24">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I145:BL145">
-    <cfRule type="expression" dxfId="16" priority="22">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I149:BL149">
-    <cfRule type="expression" dxfId="14" priority="20">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I149:BL149">
-    <cfRule type="expression" dxfId="13" priority="18">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I150:BL150">
-    <cfRule type="expression" dxfId="11" priority="16">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I150:BL150">
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I151:BL151">
-    <cfRule type="expression" dxfId="8" priority="12">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I151:BL151">
-    <cfRule type="expression" dxfId="7" priority="10">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I148:BL148">
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I148:BL148">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
-      <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I162:BL163">
+  <conditionalFormatting sqref="I5:BL169">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I162:BL163">
+  <conditionalFormatting sqref="I7:BL169">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
@@ -18817,6 +15606,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7D7692E7-6A2C-49EE-BE66-8CE39DA51F61}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D15:D19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B0389232-4C98-4A03-AD0E-39F63BAD1F53}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -18832,6 +15636,21 @@
           <xm:sqref>D20:D23 D7:D14 D26:D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DA4082BA-C4EC-4420-B5A0-D382F93A8118}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D24:D25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C5D26957-274F-4CF0-B793-57F3934A8317}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -18845,6 +15664,21 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D32:D36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{75ED4F39-7F02-46CA-B5EF-3520E54102C8}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{430F68EA-CEA0-49F6-BF03-5FB80DBA4030}">
@@ -18877,6 +15711,21 @@
           <xm:sqref>D44:D47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CB709A03-E4C4-438A-87BC-AFE1ACF37821}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D48:D49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AA4C5D16-1136-42A8-BBD6-B3A287F42FB0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -18907,6 +15756,21 @@
           <xm:sqref>D56:D61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{77B573EC-821E-43AC-8FA0-277C6E0C5D22}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D62:D67</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E5BD969B-2970-462A-9A3C-6B47097F30A7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -18920,21 +15784,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D68:D73</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{77B573EC-821E-43AC-8FA0-277C6E0C5D22}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D62:D67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7E6CA822-2C39-4848-8BB3-C920BE7B10B5}">
@@ -18967,7 +15816,7 @@
           <xm:sqref>D80</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E7C66323-B74B-4371-9C57-22062C6FCF71}">
+          <x14:cfRule type="dataBar" id="{7963BA7B-0006-4487-A6CB-3774C29C5A68}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -18979,7 +15828,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D92:D97</xm:sqref>
+          <xm:sqref>D81:D85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2D11FBF3-6310-43B7-9E22-E321605FD66A}">
@@ -18995,6 +15844,36 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D86</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E41C59B1-D264-4B75-A3E0-EC89A13E075C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D87:D91</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E7C66323-B74B-4371-9C57-22062C6FCF71}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D92:D97</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2A44AEAF-B117-4F77-8EF7-BD19A12675A3}">
@@ -19042,6 +15921,66 @@
           <xm:sqref>D110:D111</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{84A16644-937F-4327-94E6-739578AF6DF4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D112</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{68936C47-DF71-4EF7-934A-4D71A8AC3A15}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D113</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E5540990-3B6A-4ED9-A21B-C5372A976EC0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D114</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{365859F8-A6A8-4B41-AF58-AFBA39B0BF73}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D115</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{20B924D4-D5EE-4514-A741-DA65BEDC7E68}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -19070,21 +16009,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D122:D127</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B5A8F896-B228-4E22-A05C-EB7D20277B63}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D152:D157</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{07B02D3E-A1AF-4A91-B5F2-D00818A51474}">
@@ -19132,6 +16056,21 @@
           <xm:sqref>D140:D144</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{430318A1-76C7-4141-AC13-D1823482773A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D145</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5051664D-C8DC-4EB7-8CEC-8A768B94DF30}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -19147,7 +16086,7 @@
           <xm:sqref>D146:D147</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7AE75E91-737E-4141-9EA7-D26F3B7CB069}">
+          <x14:cfRule type="dataBar" id="{5CCC1CEF-E8A7-40B1-B3DC-0BCCA240AED3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19159,187 +16098,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D158:D163</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{55A11941-0547-4FF1-9B90-8F39582F8450}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D164:D169</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7963BA7B-0006-4487-A6CB-3774C29C5A68}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D81:D85</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E41C59B1-D264-4B75-A3E0-EC89A13E075C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D87:D91</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7D7692E7-6A2C-49EE-BE66-8CE39DA51F61}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D15:D19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DA4082BA-C4EC-4420-B5A0-D382F93A8118}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D24:D25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{75ED4F39-7F02-46CA-B5EF-3520E54102C8}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CB709A03-E4C4-438A-87BC-AFE1ACF37821}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D48:D49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{84A16644-937F-4327-94E6-739578AF6DF4}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D112</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E5540990-3B6A-4ED9-A21B-C5372A976EC0}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D114</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{365859F8-A6A8-4B41-AF58-AFBA39B0BF73}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D115</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{68936C47-DF71-4EF7-934A-4D71A8AC3A15}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D113</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{430318A1-76C7-4141-AC13-D1823482773A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D145</xm:sqref>
+          <xm:sqref>D148</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F5B460B7-0F5E-461E-BFD8-63CB282F1276}">
@@ -19387,7 +16146,7 @@
           <xm:sqref>D151</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5CCC1CEF-E8A7-40B1-B3DC-0BCCA240AED3}">
+          <x14:cfRule type="dataBar" id="{B5A8F896-B228-4E22-A05C-EB7D20277B63}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -19399,7 +16158,37 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D148</xm:sqref>
+          <xm:sqref>D152:D157</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7AE75E91-737E-4141-9EA7-D26F3B7CB069}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D158:D163</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{55A11941-0547-4FF1-9B90-8F39582F8450}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D164:D169</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -19416,86 +16205,86 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2109375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.2109375" style="67" customWidth="1"/>
-    <col min="2" max="16384" width="9.2109375" style="19"/>
+    <col min="1" max="1" width="87.21875" style="67" customWidth="1"/>
+    <col min="2" max="16384" width="9.21875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="69" customFormat="1" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:2" s="69" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="68"/>
     </row>
-    <row r="3" spans="1:2" s="71" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="71" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="70"/>
     </row>
-    <row r="4" spans="1:2" s="73" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" s="73" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="72" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="72" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="67" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="67" customFormat="1" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="75" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="73" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" s="73" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="72" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="67" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="67" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="73" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" s="73" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="72" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="67" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="67" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="73" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" s="73" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="72" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="74" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="74" t="s">
         <v>34</v>
       </c>

--- a/(WBS)AWS演習_進捗管理表(沼田).xlsx
+++ b/(WBS)AWS演習_進捗管理表(沼田).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A94F848-2ED1-46CC-A500-43399BB1F35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF3F799-C69A-4E88-810C-4D211B78B87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="74">
   <si>
     <t>セル B3 に、プロジェクト主任の名前を入力します。セル E3 には、プロジェクトの開始日を入力します。プロジェクトの開始: ラベルはセル C3 にあります。</t>
   </si>
@@ -209,9 +209,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>タスク 1</t>
-  </si>
-  <si>
     <t>タスク 2</t>
   </si>
   <si>
@@ -261,6 +258,111 @@
     <rPh sb="11" eb="12">
       <t>ヒョウ</t>
     </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>調査</t>
+    <rPh sb="0" eb="2">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>ドキュメント作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>担当者</t>
+  </si>
+  <si>
+    <t>環境構築</t>
+    <rPh sb="0" eb="4">
+      <t>カンキョウコウチク</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>システム構成図</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>サーバー構築手順書</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>結合試験仕様書</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>結合試験成績書</t>
+    <rPh sb="4" eb="6">
+      <t>セイセキ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>沼田</t>
+    <rPh sb="0" eb="2">
+      <t>ヌマタ</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>AWS EC2</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>Word Press</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>タスク 3</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>①EC2インスタンスの作成</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>②Linuxのインストール</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>タスク 11</t>
+  </si>
+  <si>
+    <t>③ソフトウェアの最新化</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>④Apacheのインストール</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>⑤PHPのインストール</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>⑥Apacheの設定とwebページ表示確認</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>⑦PHPの動作確認</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>⑧MySQL(MariaDB)のインストール</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>⑨phpMyAdminをインストール/ログイン</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>⑩WordPress をインストールする</t>
     <phoneticPr fontId="19"/>
   </si>
 </sst>
@@ -1624,6 +1726,13 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="21" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1636,13 +1745,6 @@
     <xf numFmtId="179" fontId="33" fillId="0" borderId="3" xfId="9" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - アクセント 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2250,11 +2352,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL169"/>
+  <dimension ref="A1:BL175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2279,7 +2381,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="19"/>
@@ -2308,17 +2410,17 @@
         <v>0</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="154" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="153">
+      <c r="D3" s="151"/>
+      <c r="E3" s="156">
         <f ca="1">TODAY()-2</f>
-        <v>45474</v>
-      </c>
-      <c r="F3" s="153"/>
+        <v>45475</v>
+      </c>
+      <c r="F3" s="156"/>
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2326,106 +2428,106 @@
         <v>1</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="155"/>
+      <c r="D4" s="151"/>
       <c r="E4" s="27">
         <v>1</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
-      <c r="I4" s="150">
+      <c r="I4" s="153">
         <f ca="1">I5</f>
         <v>45473</v>
       </c>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="150">
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="153">
         <f ca="1">P5</f>
         <v>45480</v>
       </c>
-      <c r="Q4" s="151"/>
-      <c r="R4" s="151"/>
-      <c r="S4" s="151"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="152"/>
-      <c r="W4" s="150">
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
+      <c r="T4" s="154"/>
+      <c r="U4" s="154"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="153">
         <f ca="1">W5</f>
         <v>45487</v>
       </c>
-      <c r="X4" s="151"/>
-      <c r="Y4" s="151"/>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="152"/>
-      <c r="AD4" s="150">
+      <c r="X4" s="154"/>
+      <c r="Y4" s="154"/>
+      <c r="Z4" s="154"/>
+      <c r="AA4" s="154"/>
+      <c r="AB4" s="154"/>
+      <c r="AC4" s="155"/>
+      <c r="AD4" s="153">
         <f ca="1">AD5</f>
         <v>45494</v>
       </c>
-      <c r="AE4" s="151"/>
-      <c r="AF4" s="151"/>
-      <c r="AG4" s="151"/>
-      <c r="AH4" s="151"/>
-      <c r="AI4" s="151"/>
-      <c r="AJ4" s="152"/>
-      <c r="AK4" s="150">
+      <c r="AE4" s="154"/>
+      <c r="AF4" s="154"/>
+      <c r="AG4" s="154"/>
+      <c r="AH4" s="154"/>
+      <c r="AI4" s="154"/>
+      <c r="AJ4" s="155"/>
+      <c r="AK4" s="153">
         <f ca="1">AK5</f>
         <v>45501</v>
       </c>
-      <c r="AL4" s="151"/>
-      <c r="AM4" s="151"/>
-      <c r="AN4" s="151"/>
-      <c r="AO4" s="151"/>
-      <c r="AP4" s="151"/>
-      <c r="AQ4" s="152"/>
-      <c r="AR4" s="150">
+      <c r="AL4" s="154"/>
+      <c r="AM4" s="154"/>
+      <c r="AN4" s="154"/>
+      <c r="AO4" s="154"/>
+      <c r="AP4" s="154"/>
+      <c r="AQ4" s="155"/>
+      <c r="AR4" s="153">
         <f ca="1">AR5</f>
         <v>45508</v>
       </c>
-      <c r="AS4" s="151"/>
-      <c r="AT4" s="151"/>
-      <c r="AU4" s="151"/>
-      <c r="AV4" s="151"/>
-      <c r="AW4" s="151"/>
-      <c r="AX4" s="152"/>
-      <c r="AY4" s="150">
+      <c r="AS4" s="154"/>
+      <c r="AT4" s="154"/>
+      <c r="AU4" s="154"/>
+      <c r="AV4" s="154"/>
+      <c r="AW4" s="154"/>
+      <c r="AX4" s="155"/>
+      <c r="AY4" s="153">
         <f ca="1">AY5</f>
         <v>45515</v>
       </c>
-      <c r="AZ4" s="151"/>
-      <c r="BA4" s="151"/>
-      <c r="BB4" s="151"/>
-      <c r="BC4" s="151"/>
-      <c r="BD4" s="151"/>
-      <c r="BE4" s="152"/>
-      <c r="BF4" s="150">
+      <c r="AZ4" s="154"/>
+      <c r="BA4" s="154"/>
+      <c r="BB4" s="154"/>
+      <c r="BC4" s="154"/>
+      <c r="BD4" s="154"/>
+      <c r="BE4" s="155"/>
+      <c r="BF4" s="153">
         <f ca="1">BF5</f>
         <v>45522</v>
       </c>
-      <c r="BG4" s="151"/>
-      <c r="BH4" s="151"/>
-      <c r="BI4" s="151"/>
-      <c r="BJ4" s="151"/>
-      <c r="BK4" s="151"/>
-      <c r="BL4" s="152"/>
+      <c r="BG4" s="154"/>
+      <c r="BH4" s="154"/>
+      <c r="BI4" s="154"/>
+      <c r="BJ4" s="154"/>
+      <c r="BK4" s="154"/>
+      <c r="BL4" s="155"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
       <c r="I5" s="7">
         <f ca="1">プロジェクト_開始-WEEKDAY(プロジェクト_開始,1)+1+7*(週_表示-1)</f>
         <v>45473</v>
@@ -2974,14 +3076,16 @@
       <c r="A8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="31" t="s">
+        <v>51</v>
+      </c>
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
       <c r="E8" s="34"/>
       <c r="F8" s="35"/>
       <c r="G8" s="36"/>
       <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H75" si="6">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" ref="H8:H81" si="6">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v/>
       </c>
       <c r="I8" s="12"/>
@@ -3046,20 +3150,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="38"/>
+        <v>60</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>59</v>
+      </c>
       <c r="D9" s="39"/>
-      <c r="E9" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>17</v>
+      <c r="E9" s="40">
+        <v>45478</v>
+      </c>
+      <c r="F9" s="40">
+        <v>45478</v>
       </c>
       <c r="G9" s="36"/>
-      <c r="H9" s="13" t="e">
+      <c r="H9" s="13">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
@@ -3123,20 +3229,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="38"/>
+        <v>61</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>59</v>
+      </c>
       <c r="D10" s="39"/>
-      <c r="E10" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>17</v>
+      <c r="E10" s="40">
+        <v>45478</v>
+      </c>
+      <c r="F10" s="40">
+        <v>45478</v>
       </c>
       <c r="G10" s="36"/>
-      <c r="H10" s="13" t="e">
+      <c r="H10" s="13">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -3198,7 +3306,7 @@
     <row r="11" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
       <c r="B11" s="37" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="39"/>
@@ -3424,15 +3532,25 @@
       <c r="A14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
+      <c r="B14" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>18</v>
+      </c>
       <c r="G14" s="36"/>
-      <c r="H14" s="13" t="str">
+      <c r="H14" s="13" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
@@ -3494,20 +3612,22 @@
     <row r="15" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="47"/>
+        <v>55</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>59</v>
+      </c>
       <c r="D15" s="48"/>
-      <c r="E15" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>17</v>
+      <c r="E15" s="49">
+        <v>45478</v>
+      </c>
+      <c r="F15" s="49">
+        <v>45478</v>
       </c>
       <c r="G15" s="36"/>
-      <c r="H15" s="13" t="e">
+      <c r="H15" s="13">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -3569,20 +3689,22 @@
     <row r="16" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="47"/>
+        <v>56</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>59</v>
+      </c>
       <c r="D16" s="48"/>
-      <c r="E16" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>17</v>
+      <c r="E16" s="49">
+        <v>45478</v>
+      </c>
+      <c r="F16" s="49">
+        <v>45488</v>
       </c>
       <c r="G16" s="36"/>
-      <c r="H16" s="13" t="e">
+      <c r="H16" s="13">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>11</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
@@ -3644,20 +3766,22 @@
     <row r="17" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="47"/>
+        <v>57</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>59</v>
+      </c>
       <c r="D17" s="48"/>
-      <c r="E17" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>17</v>
+      <c r="E17" s="49">
+        <v>45489</v>
+      </c>
+      <c r="F17" s="49">
+        <v>45489</v>
       </c>
       <c r="G17" s="36"/>
-      <c r="H17" s="13" t="e">
+      <c r="H17" s="13">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -3719,20 +3843,22 @@
     <row r="18" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="47"/>
+        <v>58</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>59</v>
+      </c>
       <c r="D18" s="48"/>
-      <c r="E18" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>17</v>
+      <c r="E18" s="49">
+        <v>45490</v>
+      </c>
+      <c r="F18" s="49">
+        <v>45490</v>
       </c>
       <c r="G18" s="36"/>
-      <c r="H18" s="13" t="e">
+      <c r="H18" s="13">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -3794,15 +3920,15 @@
     <row r="19" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
       <c r="B19" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="48"/>
       <c r="E19" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="36"/>
       <c r="H19" s="13" t="e">
@@ -3870,15 +3996,25 @@
       <c r="A20" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
+      <c r="B20" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>18</v>
+      </c>
       <c r="G20" s="36"/>
-      <c r="H20" s="13" t="str">
+      <c r="H20" s="13" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -3940,20 +4076,22 @@
     <row r="21" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="55"/>
+        <v>63</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>59</v>
+      </c>
       <c r="D21" s="56"/>
-      <c r="E21" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="57" t="s">
-        <v>47</v>
+      <c r="E21" s="57">
+        <v>45481</v>
+      </c>
+      <c r="F21" s="57">
+        <v>45481</v>
       </c>
       <c r="G21" s="36"/>
-      <c r="H21" s="13" t="e">
+      <c r="H21" s="13">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -4015,20 +4153,22 @@
     <row r="22" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
       <c r="B22" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="55"/>
+        <v>64</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>59</v>
+      </c>
       <c r="D22" s="56"/>
-      <c r="E22" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="57" t="s">
-        <v>47</v>
+      <c r="E22" s="57">
+        <v>45482</v>
+      </c>
+      <c r="F22" s="57">
+        <v>45482</v>
       </c>
       <c r="G22" s="36"/>
-      <c r="H22" s="13" t="e">
+      <c r="H22" s="13">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -4090,20 +4230,22 @@
     <row r="23" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="55"/>
+        <v>66</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>59</v>
+      </c>
       <c r="D23" s="56"/>
-      <c r="E23" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>47</v>
+      <c r="E23" s="57">
+        <v>45482</v>
+      </c>
+      <c r="F23" s="57">
+        <v>45482</v>
       </c>
       <c r="G23" s="36"/>
-      <c r="H23" s="13" t="e">
+      <c r="H23" s="13">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -4165,20 +4307,22 @@
     <row r="24" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="55"/>
+        <v>67</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>59</v>
+      </c>
       <c r="D24" s="56"/>
-      <c r="E24" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="57" t="s">
-        <v>47</v>
+      <c r="E24" s="57">
+        <v>45483</v>
+      </c>
+      <c r="F24" s="57">
+        <v>45483</v>
       </c>
       <c r="G24" s="36"/>
-      <c r="H24" s="13" t="e">
+      <c r="H24" s="13">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -4240,20 +4384,22 @@
     <row r="25" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="55"/>
+        <v>68</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>59</v>
+      </c>
       <c r="D25" s="56"/>
-      <c r="E25" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="57" t="s">
-        <v>47</v>
+      <c r="E25" s="57">
+        <v>45483</v>
+      </c>
+      <c r="F25" s="57">
+        <v>45483</v>
       </c>
       <c r="G25" s="36"/>
-      <c r="H25" s="13" t="e">
+      <c r="H25" s="13">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
@@ -4313,18 +4459,24 @@
       <c r="BL25" s="12"/>
     </row>
     <row r="26" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57">
+        <v>45484</v>
+      </c>
+      <c r="F26" s="57">
+        <v>45484</v>
+      </c>
       <c r="G26" s="36"/>
-      <c r="H26" s="13" t="str">
+      <c r="H26" s="13">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -4385,21 +4537,23 @@
     </row>
     <row r="27" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
-      <c r="B27" s="134" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="65" t="s">
-        <v>47</v>
+      <c r="B27" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57">
+        <v>45484</v>
+      </c>
+      <c r="F27" s="57">
+        <v>45484</v>
       </c>
       <c r="G27" s="36"/>
-      <c r="H27" s="13" t="e">
+      <c r="H27" s="13">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
@@ -4460,21 +4614,23 @@
     </row>
     <row r="28" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
-      <c r="B28" s="134" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="65" t="s">
-        <v>47</v>
+      <c r="B28" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57">
+        <v>45484</v>
+      </c>
+      <c r="F28" s="57">
+        <v>45484</v>
       </c>
       <c r="G28" s="36"/>
-      <c r="H28" s="13" t="e">
+      <c r="H28" s="13">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -4535,21 +4691,23 @@
     </row>
     <row r="29" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
-      <c r="B29" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="65" t="s">
-        <v>47</v>
+      <c r="B29" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57">
+        <v>45485</v>
+      </c>
+      <c r="F29" s="57">
+        <v>45485</v>
       </c>
       <c r="G29" s="36"/>
-      <c r="H29" s="13" t="e">
+      <c r="H29" s="13">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
@@ -4610,21 +4768,23 @@
     </row>
     <row r="30" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
-      <c r="B30" s="134" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="65" t="s">
-        <v>47</v>
+      <c r="B30" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57">
+        <v>45485</v>
+      </c>
+      <c r="F30" s="57">
+        <v>45485</v>
       </c>
       <c r="G30" s="36"/>
-      <c r="H30" s="13" t="e">
+      <c r="H30" s="13">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
@@ -4685,16 +4845,16 @@
     </row>
     <row r="31" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
-      <c r="B31" s="134" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="65" t="s">
-        <v>47</v>
+      <c r="B31" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="55"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="57" t="s">
+        <v>46</v>
       </c>
       <c r="G31" s="36"/>
       <c r="H31" s="13" t="e">
@@ -4762,15 +4922,23 @@
       <c r="A32" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="85"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="61" t="s">
+        <v>18</v>
+      </c>
       <c r="G32" s="36"/>
-      <c r="H32" s="13" t="str">
+      <c r="H32" s="13" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
@@ -4831,16 +4999,16 @@
     </row>
     <row r="33" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
-      <c r="B33" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="87"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="88" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="88" t="s">
-        <v>47</v>
+      <c r="B33" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="63"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="65" t="s">
+        <v>46</v>
       </c>
       <c r="G33" s="36"/>
       <c r="H33" s="13" t="e">
@@ -4906,16 +5074,16 @@
     </row>
     <row r="34" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
-      <c r="B34" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="87"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="88" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="88" t="s">
-        <v>47</v>
+      <c r="B34" s="134" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="63"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="65" t="s">
+        <v>46</v>
       </c>
       <c r="G34" s="36"/>
       <c r="H34" s="13" t="e">
@@ -4981,16 +5149,16 @@
     </row>
     <row r="35" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
-      <c r="B35" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="88" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="88" t="s">
-        <v>47</v>
+      <c r="B35" s="134" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="63"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="65" t="s">
+        <v>46</v>
       </c>
       <c r="G35" s="36"/>
       <c r="H35" s="13" t="e">
@@ -5056,16 +5224,16 @@
     </row>
     <row r="36" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="87"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="88" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="88" t="s">
-        <v>47</v>
+      <c r="C36" s="63"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="65" t="s">
+        <v>46</v>
       </c>
       <c r="G36" s="36"/>
       <c r="H36" s="13" t="e">
@@ -5131,16 +5299,16 @@
     </row>
     <row r="37" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="87"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="88" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="88" t="s">
-        <v>47</v>
+      <c r="C37" s="63"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="65" t="s">
+        <v>46</v>
       </c>
       <c r="G37" s="36"/>
       <c r="H37" s="13" t="e">
@@ -5208,11 +5376,11 @@
       <c r="A38" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="89"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="93"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="85"/>
       <c r="G38" s="36"/>
       <c r="H38" s="13" t="str">
         <f t="shared" si="6"/>
@@ -5277,16 +5445,16 @@
     </row>
     <row r="39" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
-      <c r="B39" s="94" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="95"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="97" t="s">
-        <v>17</v>
+      <c r="B39" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="87"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="88" t="s">
+        <v>46</v>
       </c>
       <c r="G39" s="36"/>
       <c r="H39" s="13" t="e">
@@ -5352,16 +5520,16 @@
     </row>
     <row r="40" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
-      <c r="B40" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="95"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="97" t="s">
-        <v>17</v>
+      <c r="B40" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="87"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="88" t="s">
+        <v>46</v>
       </c>
       <c r="G40" s="36"/>
       <c r="H40" s="13" t="e">
@@ -5427,16 +5595,16 @@
     </row>
     <row r="41" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
-      <c r="B41" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="95"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="97" t="s">
-        <v>17</v>
+      <c r="B41" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="87"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="88" t="s">
+        <v>46</v>
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="13" t="e">
@@ -5502,16 +5670,16 @@
     </row>
     <row r="42" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
-      <c r="B42" s="94" t="s">
+      <c r="B42" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="95"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="97" t="s">
-        <v>17</v>
+      <c r="C42" s="87"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="88" t="s">
+        <v>46</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="13" t="e">
@@ -5577,16 +5745,16 @@
     </row>
     <row r="43" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
-      <c r="B43" s="94" t="s">
+      <c r="B43" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="95"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="97" t="s">
-        <v>17</v>
+      <c r="C43" s="87"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="88" t="s">
+        <v>46</v>
       </c>
       <c r="G43" s="36"/>
       <c r="H43" s="13" t="e">
@@ -5654,11 +5822,11 @@
       <c r="A44" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="103"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="107"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="93"/>
       <c r="G44" s="36"/>
       <c r="H44" s="13" t="str">
         <f t="shared" si="6"/>
@@ -5723,16 +5891,16 @@
     </row>
     <row r="45" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
-      <c r="B45" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="49" t="s">
-        <v>47</v>
+      <c r="B45" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="95"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="97" t="s">
+        <v>17</v>
       </c>
       <c r="G45" s="36"/>
       <c r="H45" s="13" t="e">
@@ -5798,16 +5966,16 @@
     </row>
     <row r="46" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
-      <c r="B46" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F46" s="49" t="s">
-        <v>47</v>
+      <c r="B46" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="95"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="97" t="s">
+        <v>17</v>
       </c>
       <c r="G46" s="36"/>
       <c r="H46" s="13" t="e">
@@ -5873,16 +6041,16 @@
     </row>
     <row r="47" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
-      <c r="B47" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F47" s="49" t="s">
-        <v>47</v>
+      <c r="B47" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="95"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="97" t="s">
+        <v>17</v>
       </c>
       <c r="G47" s="36"/>
       <c r="H47" s="13" t="e">
@@ -5948,16 +6116,16 @@
     </row>
     <row r="48" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
-      <c r="B48" s="77" t="s">
+      <c r="B48" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="49" t="s">
-        <v>47</v>
+      <c r="C48" s="95"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="97" t="s">
+        <v>17</v>
       </c>
       <c r="G48" s="36"/>
       <c r="H48" s="13" t="e">
@@ -6023,16 +6191,16 @@
     </row>
     <row r="49" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
-      <c r="B49" s="77" t="s">
+      <c r="B49" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F49" s="49" t="s">
-        <v>47</v>
+      <c r="C49" s="95"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="97" t="s">
+        <v>17</v>
       </c>
       <c r="G49" s="36"/>
       <c r="H49" s="13" t="e">
@@ -6100,11 +6268,11 @@
       <c r="A50" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="108"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="112"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="107"/>
       <c r="G50" s="36"/>
       <c r="H50" s="13" t="str">
         <f t="shared" si="6"/>
@@ -6169,16 +6337,16 @@
     </row>
     <row r="51" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
-      <c r="B51" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F51" s="57" t="s">
-        <v>47</v>
+      <c r="B51" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="47"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="G51" s="36"/>
       <c r="H51" s="13" t="e">
@@ -6244,16 +6412,16 @@
     </row>
     <row r="52" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
-      <c r="B52" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" s="55"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F52" s="57" t="s">
-        <v>47</v>
+      <c r="B52" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="47"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="G52" s="36"/>
       <c r="H52" s="13" t="e">
@@ -6319,16 +6487,16 @@
     </row>
     <row r="53" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
-      <c r="B53" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="55"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F53" s="57" t="s">
-        <v>47</v>
+      <c r="B53" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="47"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="G53" s="36"/>
       <c r="H53" s="13" t="e">
@@ -6394,16 +6562,16 @@
     </row>
     <row r="54" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="23"/>
-      <c r="B54" s="54" t="s">
+      <c r="B54" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="55"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F54" s="57" t="s">
-        <v>47</v>
+      <c r="C54" s="47"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="G54" s="36"/>
       <c r="H54" s="13" t="e">
@@ -6469,16 +6637,16 @@
     </row>
     <row r="55" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
-      <c r="B55" s="54" t="s">
+      <c r="B55" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C55" s="55"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F55" s="57" t="s">
-        <v>47</v>
+      <c r="C55" s="47"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="G55" s="36"/>
       <c r="H55" s="13" t="e">
@@ -6546,11 +6714,11 @@
       <c r="A56" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="113"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="115"/>
-      <c r="E56" s="116"/>
-      <c r="F56" s="117"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="111"/>
+      <c r="F56" s="112"/>
       <c r="G56" s="36"/>
       <c r="H56" s="13" t="str">
         <f t="shared" si="6"/>
@@ -6615,16 +6783,16 @@
     </row>
     <row r="57" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
-      <c r="B57" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="63"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F57" s="65" t="s">
-        <v>47</v>
+      <c r="B57" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" s="55"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F57" s="57" t="s">
+        <v>46</v>
       </c>
       <c r="G57" s="36"/>
       <c r="H57" s="13" t="e">
@@ -6690,16 +6858,16 @@
     </row>
     <row r="58" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="23"/>
-      <c r="B58" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="C58" s="63"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F58" s="65" t="s">
-        <v>47</v>
+      <c r="B58" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="55"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" s="57" t="s">
+        <v>46</v>
       </c>
       <c r="G58" s="36"/>
       <c r="H58" s="13" t="e">
@@ -6765,16 +6933,16 @@
     </row>
     <row r="59" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="23"/>
-      <c r="B59" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="63"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F59" s="65" t="s">
-        <v>47</v>
+      <c r="B59" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="55"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" s="57" t="s">
+        <v>46</v>
       </c>
       <c r="G59" s="36"/>
       <c r="H59" s="13" t="e">
@@ -6840,16 +7008,16 @@
     </row>
     <row r="60" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="23"/>
-      <c r="B60" s="62" t="s">
+      <c r="B60" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="63"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F60" s="65" t="s">
-        <v>47</v>
+      <c r="C60" s="55"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" s="57" t="s">
+        <v>46</v>
       </c>
       <c r="G60" s="36"/>
       <c r="H60" s="13" t="e">
@@ -6915,16 +7083,16 @@
     </row>
     <row r="61" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="23"/>
-      <c r="B61" s="62" t="s">
+      <c r="B61" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="63"/>
-      <c r="D61" s="64"/>
-      <c r="E61" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F61" s="65" t="s">
-        <v>47</v>
+      <c r="C61" s="55"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" s="57" t="s">
+        <v>46</v>
       </c>
       <c r="G61" s="36"/>
       <c r="H61" s="13" t="e">
@@ -6992,11 +7160,11 @@
       <c r="A62" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="118"/>
-      <c r="C62" s="119"/>
-      <c r="D62" s="120"/>
-      <c r="E62" s="121"/>
-      <c r="F62" s="122"/>
+      <c r="B62" s="113"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="115"/>
+      <c r="E62" s="116"/>
+      <c r="F62" s="117"/>
       <c r="G62" s="36"/>
       <c r="H62" s="13" t="str">
         <f t="shared" si="6"/>
@@ -7061,16 +7229,16 @@
     </row>
     <row r="63" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
-      <c r="B63" s="135" t="s">
-        <v>46</v>
-      </c>
-      <c r="C63" s="123"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="125" t="s">
-        <v>47</v>
-      </c>
-      <c r="F63" s="125" t="s">
-        <v>47</v>
+      <c r="B63" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="63"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" s="65" t="s">
+        <v>46</v>
       </c>
       <c r="G63" s="36"/>
       <c r="H63" s="13" t="e">
@@ -7136,16 +7304,16 @@
     </row>
     <row r="64" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="23"/>
-      <c r="B64" s="135" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="123"/>
-      <c r="D64" s="124"/>
-      <c r="E64" s="125" t="s">
-        <v>47</v>
-      </c>
-      <c r="F64" s="125" t="s">
-        <v>47</v>
+      <c r="B64" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="63"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" s="65" t="s">
+        <v>46</v>
       </c>
       <c r="G64" s="36"/>
       <c r="H64" s="13" t="e">
@@ -7211,16 +7379,16 @@
     </row>
     <row r="65" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="23"/>
-      <c r="B65" s="135" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="123"/>
-      <c r="D65" s="124"/>
-      <c r="E65" s="125" t="s">
-        <v>47</v>
-      </c>
-      <c r="F65" s="125" t="s">
-        <v>47</v>
+      <c r="B65" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="63"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" s="65" t="s">
+        <v>46</v>
       </c>
       <c r="G65" s="36"/>
       <c r="H65" s="13" t="e">
@@ -7286,16 +7454,16 @@
     </row>
     <row r="66" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="23"/>
-      <c r="B66" s="135" t="s">
+      <c r="B66" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="123"/>
-      <c r="D66" s="124"/>
-      <c r="E66" s="125" t="s">
-        <v>47</v>
-      </c>
-      <c r="F66" s="125" t="s">
-        <v>47</v>
+      <c r="C66" s="63"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" s="65" t="s">
+        <v>46</v>
       </c>
       <c r="G66" s="36"/>
       <c r="H66" s="13" t="e">
@@ -7361,16 +7529,16 @@
     </row>
     <row r="67" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="23"/>
-      <c r="B67" s="135" t="s">
+      <c r="B67" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C67" s="123"/>
-      <c r="D67" s="124"/>
-      <c r="E67" s="125" t="s">
-        <v>47</v>
-      </c>
-      <c r="F67" s="125" t="s">
-        <v>47</v>
+      <c r="C67" s="63"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67" s="65" t="s">
+        <v>46</v>
       </c>
       <c r="G67" s="36"/>
       <c r="H67" s="13" t="e">
@@ -7438,11 +7606,11 @@
       <c r="A68" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="126"/>
-      <c r="C68" s="127"/>
-      <c r="D68" s="128"/>
-      <c r="E68" s="129"/>
-      <c r="F68" s="130"/>
+      <c r="B68" s="118"/>
+      <c r="C68" s="119"/>
+      <c r="D68" s="120"/>
+      <c r="E68" s="121"/>
+      <c r="F68" s="122"/>
       <c r="G68" s="36"/>
       <c r="H68" s="13" t="str">
         <f t="shared" si="6"/>
@@ -7507,16 +7675,16 @@
     </row>
     <row r="69" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
-      <c r="B69" s="136" t="s">
-        <v>46</v>
-      </c>
-      <c r="C69" s="131"/>
-      <c r="D69" s="132"/>
-      <c r="E69" s="133" t="s">
-        <v>47</v>
-      </c>
-      <c r="F69" s="133" t="s">
-        <v>47</v>
+      <c r="B69" s="135" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="123"/>
+      <c r="D69" s="124"/>
+      <c r="E69" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="F69" s="125" t="s">
+        <v>46</v>
       </c>
       <c r="G69" s="36"/>
       <c r="H69" s="13" t="e">
@@ -7582,16 +7750,16 @@
     </row>
     <row r="70" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="23"/>
-      <c r="B70" s="136" t="s">
-        <v>43</v>
-      </c>
-      <c r="C70" s="131"/>
-      <c r="D70" s="132"/>
-      <c r="E70" s="133" t="s">
-        <v>47</v>
-      </c>
-      <c r="F70" s="133" t="s">
-        <v>47</v>
+      <c r="B70" s="135" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="123"/>
+      <c r="D70" s="124"/>
+      <c r="E70" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" s="125" t="s">
+        <v>46</v>
       </c>
       <c r="G70" s="36"/>
       <c r="H70" s="13" t="e">
@@ -7657,16 +7825,16 @@
     </row>
     <row r="71" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="23"/>
-      <c r="B71" s="136" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="131"/>
-      <c r="D71" s="132"/>
-      <c r="E71" s="133" t="s">
-        <v>47</v>
-      </c>
-      <c r="F71" s="133" t="s">
-        <v>47</v>
+      <c r="B71" s="135" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="123"/>
+      <c r="D71" s="124"/>
+      <c r="E71" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" s="125" t="s">
+        <v>46</v>
       </c>
       <c r="G71" s="36"/>
       <c r="H71" s="13" t="e">
@@ -7732,16 +7900,16 @@
     </row>
     <row r="72" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
-      <c r="B72" s="136" t="s">
+      <c r="B72" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="131"/>
-      <c r="D72" s="132"/>
-      <c r="E72" s="133" t="s">
-        <v>47</v>
-      </c>
-      <c r="F72" s="133" t="s">
-        <v>47</v>
+      <c r="C72" s="123"/>
+      <c r="D72" s="124"/>
+      <c r="E72" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72" s="125" t="s">
+        <v>46</v>
       </c>
       <c r="G72" s="36"/>
       <c r="H72" s="13" t="e">
@@ -7807,16 +7975,16 @@
     </row>
     <row r="73" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="23"/>
-      <c r="B73" s="136" t="s">
+      <c r="B73" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="C73" s="131"/>
-      <c r="D73" s="132"/>
-      <c r="E73" s="133" t="s">
-        <v>47</v>
-      </c>
-      <c r="F73" s="133" t="s">
-        <v>47</v>
+      <c r="C73" s="123"/>
+      <c r="D73" s="124"/>
+      <c r="E73" s="125" t="s">
+        <v>46</v>
+      </c>
+      <c r="F73" s="125" t="s">
+        <v>46</v>
       </c>
       <c r="G73" s="36"/>
       <c r="H73" s="13" t="e">
@@ -7884,11 +8052,11 @@
       <c r="A74" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="137"/>
-      <c r="C74" s="138"/>
-      <c r="D74" s="139"/>
-      <c r="E74" s="140"/>
-      <c r="F74" s="141"/>
+      <c r="B74" s="126"/>
+      <c r="C74" s="127"/>
+      <c r="D74" s="128"/>
+      <c r="E74" s="129"/>
+      <c r="F74" s="130"/>
       <c r="G74" s="36"/>
       <c r="H74" s="13" t="str">
         <f t="shared" si="6"/>
@@ -7953,16 +8121,16 @@
     </row>
     <row r="75" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
-      <c r="B75" s="142" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75" s="143"/>
-      <c r="D75" s="144"/>
-      <c r="E75" s="145" t="s">
-        <v>47</v>
-      </c>
-      <c r="F75" s="145" t="s">
-        <v>47</v>
+      <c r="B75" s="136" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="131"/>
+      <c r="D75" s="132"/>
+      <c r="E75" s="133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75" s="133" t="s">
+        <v>46</v>
       </c>
       <c r="G75" s="36"/>
       <c r="H75" s="13" t="e">
@@ -8028,20 +8196,20 @@
     </row>
     <row r="76" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="23"/>
-      <c r="B76" s="142" t="s">
-        <v>43</v>
-      </c>
-      <c r="C76" s="143"/>
-      <c r="D76" s="144"/>
-      <c r="E76" s="145" t="s">
-        <v>47</v>
-      </c>
-      <c r="F76" s="145" t="s">
-        <v>47</v>
+      <c r="B76" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="131"/>
+      <c r="D76" s="132"/>
+      <c r="E76" s="133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" s="133" t="s">
+        <v>46</v>
       </c>
       <c r="G76" s="36"/>
       <c r="H76" s="13" t="e">
-        <f t="shared" ref="H76:H169" si="7">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I76" s="12"/>
@@ -8103,20 +8271,20 @@
     </row>
     <row r="77" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="23"/>
-      <c r="B77" s="142" t="s">
-        <v>44</v>
-      </c>
-      <c r="C77" s="143"/>
-      <c r="D77" s="144"/>
-      <c r="E77" s="145" t="s">
-        <v>47</v>
-      </c>
-      <c r="F77" s="145" t="s">
-        <v>47</v>
+      <c r="B77" s="136" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="131"/>
+      <c r="D77" s="132"/>
+      <c r="E77" s="133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="133" t="s">
+        <v>46</v>
       </c>
       <c r="G77" s="36"/>
       <c r="H77" s="13" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I77" s="12"/>
@@ -8178,20 +8346,20 @@
     </row>
     <row r="78" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="23"/>
-      <c r="B78" s="142" t="s">
+      <c r="B78" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="143"/>
-      <c r="D78" s="144"/>
-      <c r="E78" s="145" t="s">
-        <v>47</v>
-      </c>
-      <c r="F78" s="145" t="s">
-        <v>47</v>
+      <c r="C78" s="131"/>
+      <c r="D78" s="132"/>
+      <c r="E78" s="133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" s="133" t="s">
+        <v>46</v>
       </c>
       <c r="G78" s="36"/>
       <c r="H78" s="13" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I78" s="12"/>
@@ -8253,20 +8421,20 @@
     </row>
     <row r="79" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="23"/>
-      <c r="B79" s="142" t="s">
+      <c r="B79" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="143"/>
-      <c r="D79" s="144"/>
-      <c r="E79" s="145" t="s">
-        <v>47</v>
-      </c>
-      <c r="F79" s="145" t="s">
-        <v>47</v>
+      <c r="C79" s="131"/>
+      <c r="D79" s="132"/>
+      <c r="E79" s="133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F79" s="133" t="s">
+        <v>46</v>
       </c>
       <c r="G79" s="36"/>
       <c r="H79" s="13" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I79" s="12"/>
@@ -8330,14 +8498,14 @@
       <c r="A80" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="89"/>
-      <c r="C80" s="90"/>
-      <c r="D80" s="91"/>
-      <c r="E80" s="92"/>
-      <c r="F80" s="93"/>
+      <c r="B80" s="137"/>
+      <c r="C80" s="138"/>
+      <c r="D80" s="139"/>
+      <c r="E80" s="140"/>
+      <c r="F80" s="141"/>
       <c r="G80" s="36"/>
       <c r="H80" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I80" s="12"/>
@@ -8399,20 +8567,20 @@
     </row>
     <row r="81" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
-      <c r="B81" s="148" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="95"/>
-      <c r="D81" s="96"/>
-      <c r="E81" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="F81" s="97" t="s">
-        <v>47</v>
+      <c r="B81" s="142" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81" s="143"/>
+      <c r="D81" s="144"/>
+      <c r="E81" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="F81" s="145" t="s">
+        <v>46</v>
       </c>
       <c r="G81" s="36"/>
       <c r="H81" s="13" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I81" s="12"/>
@@ -8474,20 +8642,20 @@
     </row>
     <row r="82" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="23"/>
-      <c r="B82" s="148" t="s">
-        <v>43</v>
-      </c>
-      <c r="C82" s="95"/>
-      <c r="D82" s="96"/>
-      <c r="E82" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="F82" s="97" t="s">
-        <v>47</v>
+      <c r="B82" s="142" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="143"/>
+      <c r="D82" s="144"/>
+      <c r="E82" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="F82" s="145" t="s">
+        <v>46</v>
       </c>
       <c r="G82" s="36"/>
       <c r="H82" s="13" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H82:H175" si="7">IF(OR(ISBLANK(タスク_開始),ISBLANK(タスク_終了)),"",タスク_終了-タスク_開始+1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I82" s="12"/>
@@ -8549,16 +8717,16 @@
     </row>
     <row r="83" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="23"/>
-      <c r="B83" s="148" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" s="95"/>
-      <c r="D83" s="96"/>
-      <c r="E83" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="F83" s="97" t="s">
-        <v>47</v>
+      <c r="B83" s="142" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" s="143"/>
+      <c r="D83" s="144"/>
+      <c r="E83" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="145" t="s">
+        <v>46</v>
       </c>
       <c r="G83" s="36"/>
       <c r="H83" s="13" t="e">
@@ -8624,16 +8792,16 @@
     </row>
     <row r="84" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
-      <c r="B84" s="148" t="s">
+      <c r="B84" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="C84" s="95"/>
-      <c r="D84" s="96"/>
-      <c r="E84" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="F84" s="97" t="s">
-        <v>47</v>
+      <c r="C84" s="143"/>
+      <c r="D84" s="144"/>
+      <c r="E84" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="F84" s="145" t="s">
+        <v>46</v>
       </c>
       <c r="G84" s="36"/>
       <c r="H84" s="13" t="e">
@@ -8699,16 +8867,16 @@
     </row>
     <row r="85" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="23"/>
-      <c r="B85" s="148" t="s">
+      <c r="B85" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="C85" s="95"/>
-      <c r="D85" s="96"/>
-      <c r="E85" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="F85" s="97" t="s">
-        <v>47</v>
+      <c r="C85" s="143"/>
+      <c r="D85" s="144"/>
+      <c r="E85" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" s="145" t="s">
+        <v>46</v>
       </c>
       <c r="G85" s="36"/>
       <c r="H85" s="13" t="e">
@@ -8776,11 +8944,11 @@
       <c r="A86" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="103"/>
-      <c r="C86" s="104"/>
-      <c r="D86" s="105"/>
-      <c r="E86" s="106"/>
-      <c r="F86" s="107"/>
+      <c r="B86" s="89"/>
+      <c r="C86" s="90"/>
+      <c r="D86" s="91"/>
+      <c r="E86" s="92"/>
+      <c r="F86" s="93"/>
       <c r="G86" s="36"/>
       <c r="H86" s="13" t="str">
         <f t="shared" si="7"/>
@@ -8845,16 +9013,16 @@
     </row>
     <row r="87" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="23"/>
-      <c r="B87" s="149" t="s">
-        <v>46</v>
-      </c>
-      <c r="C87" s="47"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F87" s="49" t="s">
-        <v>47</v>
+      <c r="B87" s="148" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" s="95"/>
+      <c r="D87" s="96"/>
+      <c r="E87" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="F87" s="97" t="s">
+        <v>46</v>
       </c>
       <c r="G87" s="36"/>
       <c r="H87" s="13" t="e">
@@ -8920,16 +9088,16 @@
     </row>
     <row r="88" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="23"/>
-      <c r="B88" s="149" t="s">
-        <v>43</v>
-      </c>
-      <c r="C88" s="47"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F88" s="49" t="s">
-        <v>47</v>
+      <c r="B88" s="148" t="s">
+        <v>42</v>
+      </c>
+      <c r="C88" s="95"/>
+      <c r="D88" s="96"/>
+      <c r="E88" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="F88" s="97" t="s">
+        <v>46</v>
       </c>
       <c r="G88" s="36"/>
       <c r="H88" s="13" t="e">
@@ -8995,16 +9163,16 @@
     </row>
     <row r="89" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="23"/>
-      <c r="B89" s="149" t="s">
-        <v>44</v>
-      </c>
-      <c r="C89" s="47"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F89" s="49" t="s">
-        <v>47</v>
+      <c r="B89" s="148" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" s="95"/>
+      <c r="D89" s="96"/>
+      <c r="E89" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="F89" s="97" t="s">
+        <v>46</v>
       </c>
       <c r="G89" s="36"/>
       <c r="H89" s="13" t="e">
@@ -9070,16 +9238,16 @@
     </row>
     <row r="90" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="23"/>
-      <c r="B90" s="149" t="s">
+      <c r="B90" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="47"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F90" s="49" t="s">
-        <v>47</v>
+      <c r="C90" s="95"/>
+      <c r="D90" s="96"/>
+      <c r="E90" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="F90" s="97" t="s">
+        <v>46</v>
       </c>
       <c r="G90" s="36"/>
       <c r="H90" s="13" t="e">
@@ -9145,16 +9313,16 @@
     </row>
     <row r="91" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
-      <c r="B91" s="149" t="s">
+      <c r="B91" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="C91" s="47"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F91" s="49" t="s">
-        <v>47</v>
+      <c r="C91" s="95"/>
+      <c r="D91" s="96"/>
+      <c r="E91" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="F91" s="97" t="s">
+        <v>46</v>
       </c>
       <c r="G91" s="36"/>
       <c r="H91" s="13" t="e">
@@ -9222,11 +9390,11 @@
       <c r="A92" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="98"/>
-      <c r="C92" s="99"/>
-      <c r="D92" s="100"/>
-      <c r="E92" s="101"/>
-      <c r="F92" s="102"/>
+      <c r="B92" s="103"/>
+      <c r="C92" s="104"/>
+      <c r="D92" s="105"/>
+      <c r="E92" s="106"/>
+      <c r="F92" s="107"/>
       <c r="G92" s="36"/>
       <c r="H92" s="13" t="str">
         <f t="shared" si="7"/>
@@ -9291,16 +9459,16 @@
     </row>
     <row r="93" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="23"/>
-      <c r="B93" s="147" t="s">
-        <v>46</v>
-      </c>
-      <c r="C93" s="38"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F93" s="40" t="s">
-        <v>47</v>
+      <c r="B93" s="149" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="47"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F93" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="G93" s="36"/>
       <c r="H93" s="13" t="e">
@@ -9366,16 +9534,16 @@
     </row>
     <row r="94" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="23"/>
-      <c r="B94" s="147" t="s">
-        <v>43</v>
-      </c>
-      <c r="C94" s="38"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F94" s="40" t="s">
-        <v>47</v>
+      <c r="B94" s="149" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94" s="47"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F94" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="G94" s="36"/>
       <c r="H94" s="13" t="e">
@@ -9441,16 +9609,16 @@
     </row>
     <row r="95" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="23"/>
-      <c r="B95" s="147" t="s">
-        <v>44</v>
-      </c>
-      <c r="C95" s="38"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F95" s="40" t="s">
-        <v>47</v>
+      <c r="B95" s="149" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" s="47"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F95" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="G95" s="36"/>
       <c r="H95" s="13" t="e">
@@ -9516,16 +9684,16 @@
     </row>
     <row r="96" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="23"/>
-      <c r="B96" s="147" t="s">
+      <c r="B96" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="C96" s="38"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F96" s="40" t="s">
-        <v>47</v>
+      <c r="C96" s="47"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F96" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="G96" s="36"/>
       <c r="H96" s="13" t="e">
@@ -9591,16 +9759,16 @@
     </row>
     <row r="97" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="23"/>
-      <c r="B97" s="147" t="s">
+      <c r="B97" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="C97" s="38"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F97" s="40" t="s">
-        <v>47</v>
+      <c r="C97" s="47"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F97" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="G97" s="36"/>
       <c r="H97" s="13" t="e">
@@ -9668,11 +9836,11 @@
       <c r="A98" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="108"/>
-      <c r="C98" s="109"/>
-      <c r="D98" s="110"/>
-      <c r="E98" s="111"/>
-      <c r="F98" s="112"/>
+      <c r="B98" s="98"/>
+      <c r="C98" s="99"/>
+      <c r="D98" s="100"/>
+      <c r="E98" s="101"/>
+      <c r="F98" s="102"/>
       <c r="G98" s="36"/>
       <c r="H98" s="13" t="str">
         <f t="shared" si="7"/>
@@ -9737,16 +9905,16 @@
     </row>
     <row r="99" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
-      <c r="B99" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="C99" s="55"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F99" s="57" t="s">
-        <v>47</v>
+      <c r="B99" s="147" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" s="38"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F99" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="G99" s="36"/>
       <c r="H99" s="13" t="e">
@@ -9812,16 +9980,16 @@
     </row>
     <row r="100" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="23"/>
-      <c r="B100" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="C100" s="55"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F100" s="57" t="s">
-        <v>47</v>
+      <c r="B100" s="147" t="s">
+        <v>42</v>
+      </c>
+      <c r="C100" s="38"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F100" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="G100" s="36"/>
       <c r="H100" s="13" t="e">
@@ -9887,16 +10055,16 @@
     </row>
     <row r="101" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="23"/>
-      <c r="B101" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="C101" s="55"/>
-      <c r="D101" s="56"/>
-      <c r="E101" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F101" s="57" t="s">
-        <v>47</v>
+      <c r="B101" s="147" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" s="38"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F101" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="G101" s="36"/>
       <c r="H101" s="13" t="e">
@@ -9962,16 +10130,16 @@
     </row>
     <row r="102" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="23"/>
-      <c r="B102" s="79" t="s">
+      <c r="B102" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="C102" s="55"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F102" s="57" t="s">
-        <v>47</v>
+      <c r="C102" s="38"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F102" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="G102" s="36"/>
       <c r="H102" s="13" t="e">
@@ -10037,16 +10205,16 @@
     </row>
     <row r="103" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
-      <c r="B103" s="79" t="s">
+      <c r="B103" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="C103" s="55"/>
-      <c r="D103" s="56"/>
-      <c r="E103" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F103" s="57" t="s">
-        <v>47</v>
+      <c r="C103" s="38"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F103" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="G103" s="36"/>
       <c r="H103" s="13" t="e">
@@ -10114,11 +10282,11 @@
       <c r="A104" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B104" s="113"/>
-      <c r="C104" s="114"/>
-      <c r="D104" s="115"/>
-      <c r="E104" s="116"/>
-      <c r="F104" s="117"/>
+      <c r="B104" s="108"/>
+      <c r="C104" s="109"/>
+      <c r="D104" s="110"/>
+      <c r="E104" s="111"/>
+      <c r="F104" s="112"/>
       <c r="G104" s="36"/>
       <c r="H104" s="13" t="str">
         <f t="shared" si="7"/>
@@ -10183,16 +10351,16 @@
     </row>
     <row r="105" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="23"/>
-      <c r="B105" s="134" t="s">
-        <v>46</v>
-      </c>
-      <c r="C105" s="63"/>
-      <c r="D105" s="64"/>
-      <c r="E105" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F105" s="65" t="s">
-        <v>47</v>
+      <c r="B105" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C105" s="55"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F105" s="57" t="s">
+        <v>46</v>
       </c>
       <c r="G105" s="36"/>
       <c r="H105" s="13" t="e">
@@ -10258,16 +10426,16 @@
     </row>
     <row r="106" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="23"/>
-      <c r="B106" s="134" t="s">
-        <v>43</v>
-      </c>
-      <c r="C106" s="63"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F106" s="65" t="s">
-        <v>47</v>
+      <c r="B106" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C106" s="55"/>
+      <c r="D106" s="56"/>
+      <c r="E106" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F106" s="57" t="s">
+        <v>46</v>
       </c>
       <c r="G106" s="36"/>
       <c r="H106" s="13" t="e">
@@ -10333,16 +10501,16 @@
     </row>
     <row r="107" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="23"/>
-      <c r="B107" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="C107" s="63"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F107" s="65" t="s">
-        <v>47</v>
+      <c r="B107" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107" s="55"/>
+      <c r="D107" s="56"/>
+      <c r="E107" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F107" s="57" t="s">
+        <v>46</v>
       </c>
       <c r="G107" s="36"/>
       <c r="H107" s="13" t="e">
@@ -10408,16 +10576,16 @@
     </row>
     <row r="108" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="23"/>
-      <c r="B108" s="134" t="s">
+      <c r="B108" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C108" s="63"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F108" s="65" t="s">
-        <v>47</v>
+      <c r="C108" s="55"/>
+      <c r="D108" s="56"/>
+      <c r="E108" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F108" s="57" t="s">
+        <v>46</v>
       </c>
       <c r="G108" s="36"/>
       <c r="H108" s="13" t="e">
@@ -10483,16 +10651,16 @@
     </row>
     <row r="109" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="23"/>
-      <c r="B109" s="134" t="s">
+      <c r="B109" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C109" s="63"/>
-      <c r="D109" s="64"/>
-      <c r="E109" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F109" s="65" t="s">
-        <v>47</v>
+      <c r="C109" s="55"/>
+      <c r="D109" s="56"/>
+      <c r="E109" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F109" s="57" t="s">
+        <v>46</v>
       </c>
       <c r="G109" s="36"/>
       <c r="H109" s="13" t="e">
@@ -10560,11 +10728,11 @@
       <c r="A110" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B110" s="126"/>
-      <c r="C110" s="127"/>
-      <c r="D110" s="128"/>
-      <c r="E110" s="129"/>
-      <c r="F110" s="130"/>
+      <c r="B110" s="113"/>
+      <c r="C110" s="114"/>
+      <c r="D110" s="115"/>
+      <c r="E110" s="116"/>
+      <c r="F110" s="117"/>
       <c r="G110" s="36"/>
       <c r="H110" s="13" t="str">
         <f t="shared" si="7"/>
@@ -10629,16 +10797,16 @@
     </row>
     <row r="111" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="23"/>
-      <c r="B111" s="136" t="s">
-        <v>46</v>
-      </c>
-      <c r="C111" s="131"/>
-      <c r="D111" s="132"/>
-      <c r="E111" s="133" t="s">
-        <v>47</v>
-      </c>
-      <c r="F111" s="133" t="s">
-        <v>47</v>
+      <c r="B111" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111" s="63"/>
+      <c r="D111" s="64"/>
+      <c r="E111" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F111" s="65" t="s">
+        <v>46</v>
       </c>
       <c r="G111" s="36"/>
       <c r="H111" s="13" t="e">
@@ -10704,16 +10872,16 @@
     </row>
     <row r="112" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="23"/>
-      <c r="B112" s="136" t="s">
-        <v>43</v>
-      </c>
-      <c r="C112" s="131"/>
-      <c r="D112" s="132"/>
-      <c r="E112" s="133" t="s">
-        <v>47</v>
-      </c>
-      <c r="F112" s="133" t="s">
-        <v>47</v>
+      <c r="B112" s="134" t="s">
+        <v>42</v>
+      </c>
+      <c r="C112" s="63"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F112" s="65" t="s">
+        <v>46</v>
       </c>
       <c r="G112" s="36"/>
       <c r="H112" s="13" t="e">
@@ -10779,16 +10947,16 @@
     </row>
     <row r="113" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="23"/>
-      <c r="B113" s="136" t="s">
-        <v>44</v>
-      </c>
-      <c r="C113" s="131"/>
-      <c r="D113" s="132"/>
-      <c r="E113" s="133" t="s">
-        <v>47</v>
-      </c>
-      <c r="F113" s="133" t="s">
-        <v>47</v>
+      <c r="B113" s="134" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" s="63"/>
+      <c r="D113" s="64"/>
+      <c r="E113" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F113" s="65" t="s">
+        <v>46</v>
       </c>
       <c r="G113" s="36"/>
       <c r="H113" s="13" t="e">
@@ -10854,16 +11022,16 @@
     </row>
     <row r="114" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="23"/>
-      <c r="B114" s="136" t="s">
+      <c r="B114" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="C114" s="131"/>
-      <c r="D114" s="132"/>
-      <c r="E114" s="133" t="s">
-        <v>47</v>
-      </c>
-      <c r="F114" s="133" t="s">
-        <v>47</v>
+      <c r="C114" s="63"/>
+      <c r="D114" s="64"/>
+      <c r="E114" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F114" s="65" t="s">
+        <v>46</v>
       </c>
       <c r="G114" s="36"/>
       <c r="H114" s="13" t="e">
@@ -10929,16 +11097,16 @@
     </row>
     <row r="115" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="23"/>
-      <c r="B115" s="136" t="s">
+      <c r="B115" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="C115" s="131"/>
-      <c r="D115" s="132"/>
-      <c r="E115" s="133" t="s">
-        <v>47</v>
-      </c>
-      <c r="F115" s="133" t="s">
-        <v>47</v>
+      <c r="C115" s="63"/>
+      <c r="D115" s="64"/>
+      <c r="E115" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F115" s="65" t="s">
+        <v>46</v>
       </c>
       <c r="G115" s="36"/>
       <c r="H115" s="13" t="e">
@@ -11006,11 +11174,11 @@
       <c r="A116" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="137"/>
-      <c r="C116" s="138"/>
-      <c r="D116" s="139"/>
-      <c r="E116" s="140"/>
-      <c r="F116" s="141"/>
+      <c r="B116" s="126"/>
+      <c r="C116" s="127"/>
+      <c r="D116" s="128"/>
+      <c r="E116" s="129"/>
+      <c r="F116" s="130"/>
       <c r="G116" s="36"/>
       <c r="H116" s="13" t="str">
         <f t="shared" si="7"/>
@@ -11075,16 +11243,16 @@
     </row>
     <row r="117" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
-      <c r="B117" s="142" t="s">
-        <v>46</v>
-      </c>
-      <c r="C117" s="143"/>
-      <c r="D117" s="144"/>
-      <c r="E117" s="145" t="s">
-        <v>47</v>
-      </c>
-      <c r="F117" s="145" t="s">
-        <v>47</v>
+      <c r="B117" s="136" t="s">
+        <v>45</v>
+      </c>
+      <c r="C117" s="131"/>
+      <c r="D117" s="132"/>
+      <c r="E117" s="133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F117" s="133" t="s">
+        <v>46</v>
       </c>
       <c r="G117" s="36"/>
       <c r="H117" s="13" t="e">
@@ -11150,16 +11318,16 @@
     </row>
     <row r="118" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="23"/>
-      <c r="B118" s="142" t="s">
-        <v>43</v>
-      </c>
-      <c r="C118" s="143"/>
-      <c r="D118" s="144"/>
-      <c r="E118" s="145" t="s">
-        <v>47</v>
-      </c>
-      <c r="F118" s="145" t="s">
-        <v>47</v>
+      <c r="B118" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="C118" s="131"/>
+      <c r="D118" s="132"/>
+      <c r="E118" s="133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F118" s="133" t="s">
+        <v>46</v>
       </c>
       <c r="G118" s="36"/>
       <c r="H118" s="13" t="e">
@@ -11225,16 +11393,16 @@
     </row>
     <row r="119" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="23"/>
-      <c r="B119" s="142" t="s">
-        <v>44</v>
-      </c>
-      <c r="C119" s="143"/>
-      <c r="D119" s="144"/>
-      <c r="E119" s="145" t="s">
-        <v>47</v>
-      </c>
-      <c r="F119" s="145" t="s">
-        <v>47</v>
+      <c r="B119" s="136" t="s">
+        <v>43</v>
+      </c>
+      <c r="C119" s="131"/>
+      <c r="D119" s="132"/>
+      <c r="E119" s="133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F119" s="133" t="s">
+        <v>46</v>
       </c>
       <c r="G119" s="36"/>
       <c r="H119" s="13" t="e">
@@ -11300,16 +11468,16 @@
     </row>
     <row r="120" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="23"/>
-      <c r="B120" s="142" t="s">
+      <c r="B120" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="C120" s="143"/>
-      <c r="D120" s="144"/>
-      <c r="E120" s="145" t="s">
-        <v>47</v>
-      </c>
-      <c r="F120" s="145" t="s">
-        <v>47</v>
+      <c r="C120" s="131"/>
+      <c r="D120" s="132"/>
+      <c r="E120" s="133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F120" s="133" t="s">
+        <v>46</v>
       </c>
       <c r="G120" s="36"/>
       <c r="H120" s="13" t="e">
@@ -11375,16 +11543,16 @@
     </row>
     <row r="121" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
-      <c r="B121" s="142" t="s">
-        <v>45</v>
-      </c>
-      <c r="C121" s="143"/>
-      <c r="D121" s="144"/>
-      <c r="E121" s="145" t="s">
-        <v>47</v>
-      </c>
-      <c r="F121" s="145" t="s">
-        <v>47</v>
+      <c r="B121" s="136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="131"/>
+      <c r="D121" s="132"/>
+      <c r="E121" s="133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F121" s="133" t="s">
+        <v>46</v>
       </c>
       <c r="G121" s="36"/>
       <c r="H121" s="13" t="e">
@@ -11452,11 +11620,11 @@
       <c r="A122" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B122" s="89"/>
-      <c r="C122" s="90"/>
-      <c r="D122" s="91"/>
-      <c r="E122" s="92"/>
-      <c r="F122" s="93"/>
+      <c r="B122" s="137"/>
+      <c r="C122" s="138"/>
+      <c r="D122" s="139"/>
+      <c r="E122" s="140"/>
+      <c r="F122" s="141"/>
       <c r="G122" s="36"/>
       <c r="H122" s="13" t="str">
         <f t="shared" si="7"/>
@@ -11521,16 +11689,16 @@
     </row>
     <row r="123" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="23"/>
-      <c r="B123" s="146" t="s">
-        <v>46</v>
-      </c>
-      <c r="C123" s="95"/>
-      <c r="D123" s="96"/>
-      <c r="E123" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="F123" s="97" t="s">
-        <v>47</v>
+      <c r="B123" s="142" t="s">
+        <v>45</v>
+      </c>
+      <c r="C123" s="143"/>
+      <c r="D123" s="144"/>
+      <c r="E123" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="F123" s="145" t="s">
+        <v>46</v>
       </c>
       <c r="G123" s="36"/>
       <c r="H123" s="13" t="e">
@@ -11596,16 +11764,16 @@
     </row>
     <row r="124" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="23"/>
-      <c r="B124" s="146" t="s">
-        <v>43</v>
-      </c>
-      <c r="C124" s="95"/>
-      <c r="D124" s="96"/>
-      <c r="E124" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="F124" s="97" t="s">
-        <v>47</v>
+      <c r="B124" s="142" t="s">
+        <v>42</v>
+      </c>
+      <c r="C124" s="143"/>
+      <c r="D124" s="144"/>
+      <c r="E124" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="F124" s="145" t="s">
+        <v>46</v>
       </c>
       <c r="G124" s="36"/>
       <c r="H124" s="13" t="e">
@@ -11671,16 +11839,16 @@
     </row>
     <row r="125" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="23"/>
-      <c r="B125" s="146" t="s">
-        <v>44</v>
-      </c>
-      <c r="C125" s="95"/>
-      <c r="D125" s="96"/>
-      <c r="E125" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="F125" s="97" t="s">
-        <v>47</v>
+      <c r="B125" s="142" t="s">
+        <v>43</v>
+      </c>
+      <c r="C125" s="143"/>
+      <c r="D125" s="144"/>
+      <c r="E125" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="F125" s="145" t="s">
+        <v>46</v>
       </c>
       <c r="G125" s="36"/>
       <c r="H125" s="13" t="e">
@@ -11746,16 +11914,16 @@
     </row>
     <row r="126" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="23"/>
-      <c r="B126" s="146" t="s">
+      <c r="B126" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="C126" s="95"/>
-      <c r="D126" s="96"/>
-      <c r="E126" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="F126" s="97" t="s">
-        <v>47</v>
+      <c r="C126" s="143"/>
+      <c r="D126" s="144"/>
+      <c r="E126" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="F126" s="145" t="s">
+        <v>46</v>
       </c>
       <c r="G126" s="36"/>
       <c r="H126" s="13" t="e">
@@ -11821,16 +11989,16 @@
     </row>
     <row r="127" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
-      <c r="B127" s="146" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="95"/>
-      <c r="D127" s="96"/>
-      <c r="E127" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="F127" s="97" t="s">
-        <v>47</v>
+      <c r="B127" s="142" t="s">
+        <v>44</v>
+      </c>
+      <c r="C127" s="143"/>
+      <c r="D127" s="144"/>
+      <c r="E127" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="F127" s="145" t="s">
+        <v>46</v>
       </c>
       <c r="G127" s="36"/>
       <c r="H127" s="13" t="e">
@@ -11898,11 +12066,11 @@
       <c r="A128" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B128" s="103"/>
-      <c r="C128" s="104"/>
-      <c r="D128" s="105"/>
-      <c r="E128" s="106"/>
-      <c r="F128" s="107"/>
+      <c r="B128" s="89"/>
+      <c r="C128" s="90"/>
+      <c r="D128" s="91"/>
+      <c r="E128" s="92"/>
+      <c r="F128" s="93"/>
       <c r="G128" s="36"/>
       <c r="H128" s="13" t="str">
         <f t="shared" si="7"/>
@@ -11967,16 +12135,16 @@
     </row>
     <row r="129" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="23"/>
-      <c r="B129" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="C129" s="47"/>
-      <c r="D129" s="48"/>
-      <c r="E129" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F129" s="49" t="s">
-        <v>47</v>
+      <c r="B129" s="146" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" s="95"/>
+      <c r="D129" s="96"/>
+      <c r="E129" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="F129" s="97" t="s">
+        <v>46</v>
       </c>
       <c r="G129" s="36"/>
       <c r="H129" s="13" t="e">
@@ -12042,16 +12210,16 @@
     </row>
     <row r="130" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="23"/>
-      <c r="B130" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="C130" s="47"/>
-      <c r="D130" s="48"/>
-      <c r="E130" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F130" s="49" t="s">
-        <v>47</v>
+      <c r="B130" s="146" t="s">
+        <v>42</v>
+      </c>
+      <c r="C130" s="95"/>
+      <c r="D130" s="96"/>
+      <c r="E130" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="F130" s="97" t="s">
+        <v>46</v>
       </c>
       <c r="G130" s="36"/>
       <c r="H130" s="13" t="e">
@@ -12117,16 +12285,16 @@
     </row>
     <row r="131" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="23"/>
-      <c r="B131" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="C131" s="47"/>
-      <c r="D131" s="48"/>
-      <c r="E131" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F131" s="49" t="s">
-        <v>47</v>
+      <c r="B131" s="146" t="s">
+        <v>43</v>
+      </c>
+      <c r="C131" s="95"/>
+      <c r="D131" s="96"/>
+      <c r="E131" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="F131" s="97" t="s">
+        <v>46</v>
       </c>
       <c r="G131" s="36"/>
       <c r="H131" s="13" t="e">
@@ -12192,16 +12360,16 @@
     </row>
     <row r="132" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
-      <c r="B132" s="77" t="s">
+      <c r="B132" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="C132" s="47"/>
-      <c r="D132" s="48"/>
-      <c r="E132" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F132" s="49" t="s">
-        <v>47</v>
+      <c r="C132" s="95"/>
+      <c r="D132" s="96"/>
+      <c r="E132" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="F132" s="97" t="s">
+        <v>46</v>
       </c>
       <c r="G132" s="36"/>
       <c r="H132" s="13" t="e">
@@ -12267,16 +12435,16 @@
     </row>
     <row r="133" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="23"/>
-      <c r="B133" s="77" t="s">
+      <c r="B133" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="C133" s="47"/>
-      <c r="D133" s="48"/>
-      <c r="E133" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F133" s="49" t="s">
-        <v>47</v>
+      <c r="C133" s="95"/>
+      <c r="D133" s="96"/>
+      <c r="E133" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="F133" s="97" t="s">
+        <v>46</v>
       </c>
       <c r="G133" s="36"/>
       <c r="H133" s="13" t="e">
@@ -12344,11 +12512,11 @@
       <c r="A134" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B134" s="98"/>
-      <c r="C134" s="99"/>
-      <c r="D134" s="100"/>
-      <c r="E134" s="101"/>
-      <c r="F134" s="102"/>
+      <c r="B134" s="103"/>
+      <c r="C134" s="104"/>
+      <c r="D134" s="105"/>
+      <c r="E134" s="106"/>
+      <c r="F134" s="107"/>
       <c r="G134" s="36"/>
       <c r="H134" s="13" t="str">
         <f t="shared" si="7"/>
@@ -12413,16 +12581,16 @@
     </row>
     <row r="135" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="23"/>
-      <c r="B135" s="147" t="s">
-        <v>46</v>
-      </c>
-      <c r="C135" s="38"/>
-      <c r="D135" s="39"/>
-      <c r="E135" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F135" s="40" t="s">
-        <v>47</v>
+      <c r="B135" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="C135" s="47"/>
+      <c r="D135" s="48"/>
+      <c r="E135" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F135" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="G135" s="36"/>
       <c r="H135" s="13" t="e">
@@ -12488,16 +12656,16 @@
     </row>
     <row r="136" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="23"/>
-      <c r="B136" s="147" t="s">
-        <v>43</v>
-      </c>
-      <c r="C136" s="38"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F136" s="40" t="s">
-        <v>47</v>
+      <c r="B136" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="C136" s="47"/>
+      <c r="D136" s="48"/>
+      <c r="E136" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F136" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="G136" s="36"/>
       <c r="H136" s="13" t="e">
@@ -12563,16 +12731,16 @@
     </row>
     <row r="137" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="23"/>
-      <c r="B137" s="147" t="s">
-        <v>44</v>
-      </c>
-      <c r="C137" s="38"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F137" s="40" t="s">
-        <v>47</v>
+      <c r="B137" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C137" s="47"/>
+      <c r="D137" s="48"/>
+      <c r="E137" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F137" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="G137" s="36"/>
       <c r="H137" s="13" t="e">
@@ -12638,16 +12806,16 @@
     </row>
     <row r="138" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="23"/>
-      <c r="B138" s="147" t="s">
+      <c r="B138" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C138" s="38"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F138" s="40" t="s">
-        <v>47</v>
+      <c r="C138" s="47"/>
+      <c r="D138" s="48"/>
+      <c r="E138" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F138" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="G138" s="36"/>
       <c r="H138" s="13" t="e">
@@ -12713,16 +12881,16 @@
     </row>
     <row r="139" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="23"/>
-      <c r="B139" s="147" t="s">
-        <v>45</v>
-      </c>
-      <c r="C139" s="38"/>
-      <c r="D139" s="39"/>
-      <c r="E139" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F139" s="40" t="s">
-        <v>47</v>
+      <c r="B139" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="47"/>
+      <c r="D139" s="48"/>
+      <c r="E139" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F139" s="49" t="s">
+        <v>46</v>
       </c>
       <c r="G139" s="36"/>
       <c r="H139" s="13" t="e">
@@ -12790,11 +12958,11 @@
       <c r="A140" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B140" s="108"/>
-      <c r="C140" s="109"/>
-      <c r="D140" s="110"/>
-      <c r="E140" s="111"/>
-      <c r="F140" s="112"/>
+      <c r="B140" s="98"/>
+      <c r="C140" s="99"/>
+      <c r="D140" s="100"/>
+      <c r="E140" s="101"/>
+      <c r="F140" s="102"/>
       <c r="G140" s="36"/>
       <c r="H140" s="13" t="str">
         <f t="shared" si="7"/>
@@ -12859,16 +13027,16 @@
     </row>
     <row r="141" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="23"/>
-      <c r="B141" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="C141" s="55"/>
-      <c r="D141" s="56"/>
-      <c r="E141" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F141" s="57" t="s">
-        <v>47</v>
+      <c r="B141" s="147" t="s">
+        <v>45</v>
+      </c>
+      <c r="C141" s="38"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F141" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="G141" s="36"/>
       <c r="H141" s="13" t="e">
@@ -12934,16 +13102,16 @@
     </row>
     <row r="142" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="23"/>
-      <c r="B142" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="C142" s="55"/>
-      <c r="D142" s="56"/>
-      <c r="E142" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F142" s="57" t="s">
-        <v>47</v>
+      <c r="B142" s="147" t="s">
+        <v>42</v>
+      </c>
+      <c r="C142" s="38"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F142" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="G142" s="36"/>
       <c r="H142" s="13" t="e">
@@ -13009,16 +13177,16 @@
     </row>
     <row r="143" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="23"/>
-      <c r="B143" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="C143" s="55"/>
-      <c r="D143" s="56"/>
-      <c r="E143" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F143" s="57" t="s">
-        <v>47</v>
+      <c r="B143" s="147" t="s">
+        <v>43</v>
+      </c>
+      <c r="C143" s="38"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F143" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="G143" s="36"/>
       <c r="H143" s="13" t="e">
@@ -13084,16 +13252,16 @@
     </row>
     <row r="144" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="23"/>
-      <c r="B144" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="C144" s="55"/>
-      <c r="D144" s="56"/>
-      <c r="E144" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F144" s="57" t="s">
-        <v>47</v>
+      <c r="B144" s="147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="38"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F144" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="G144" s="36"/>
       <c r="H144" s="13" t="e">
@@ -13159,16 +13327,16 @@
     </row>
     <row r="145" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="23"/>
-      <c r="B145" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="C145" s="55"/>
-      <c r="D145" s="56"/>
-      <c r="E145" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F145" s="57" t="s">
-        <v>47</v>
+      <c r="B145" s="147" t="s">
+        <v>44</v>
+      </c>
+      <c r="C145" s="38"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F145" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="G145" s="36"/>
       <c r="H145" s="13" t="e">
@@ -13236,11 +13404,11 @@
       <c r="A146" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B146" s="113"/>
-      <c r="C146" s="114"/>
-      <c r="D146" s="115"/>
-      <c r="E146" s="116"/>
-      <c r="F146" s="117"/>
+      <c r="B146" s="108"/>
+      <c r="C146" s="109"/>
+      <c r="D146" s="110"/>
+      <c r="E146" s="111"/>
+      <c r="F146" s="112"/>
       <c r="G146" s="36"/>
       <c r="H146" s="13" t="str">
         <f t="shared" si="7"/>
@@ -13305,16 +13473,16 @@
     </row>
     <row r="147" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="23"/>
-      <c r="B147" s="134" t="s">
-        <v>46</v>
-      </c>
-      <c r="C147" s="63"/>
-      <c r="D147" s="64"/>
-      <c r="E147" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F147" s="65" t="s">
-        <v>47</v>
+      <c r="B147" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C147" s="55"/>
+      <c r="D147" s="56"/>
+      <c r="E147" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F147" s="57" t="s">
+        <v>46</v>
       </c>
       <c r="G147" s="36"/>
       <c r="H147" s="13" t="e">
@@ -13380,16 +13548,16 @@
     </row>
     <row r="148" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="23"/>
-      <c r="B148" s="134" t="s">
-        <v>43</v>
-      </c>
-      <c r="C148" s="63"/>
-      <c r="D148" s="64"/>
-      <c r="E148" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F148" s="65" t="s">
-        <v>47</v>
+      <c r="B148" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C148" s="55"/>
+      <c r="D148" s="56"/>
+      <c r="E148" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F148" s="57" t="s">
+        <v>46</v>
       </c>
       <c r="G148" s="36"/>
       <c r="H148" s="13" t="e">
@@ -13455,16 +13623,16 @@
     </row>
     <row r="149" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="23"/>
-      <c r="B149" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="C149" s="63"/>
-      <c r="D149" s="64"/>
-      <c r="E149" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F149" s="65" t="s">
-        <v>47</v>
+      <c r="B149" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C149" s="55"/>
+      <c r="D149" s="56"/>
+      <c r="E149" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F149" s="57" t="s">
+        <v>46</v>
       </c>
       <c r="G149" s="36"/>
       <c r="H149" s="13" t="e">
@@ -13530,16 +13698,16 @@
     </row>
     <row r="150" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
-      <c r="B150" s="134" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150" s="63"/>
-      <c r="D150" s="64"/>
-      <c r="E150" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F150" s="65" t="s">
-        <v>47</v>
+      <c r="B150" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C150" s="55"/>
+      <c r="D150" s="56"/>
+      <c r="E150" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F150" s="57" t="s">
+        <v>46</v>
       </c>
       <c r="G150" s="36"/>
       <c r="H150" s="13" t="e">
@@ -13605,16 +13773,16 @@
     </row>
     <row r="151" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
-      <c r="B151" s="134" t="s">
-        <v>45</v>
-      </c>
-      <c r="C151" s="63"/>
-      <c r="D151" s="64"/>
-      <c r="E151" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="F151" s="65" t="s">
-        <v>47</v>
+      <c r="B151" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="C151" s="55"/>
+      <c r="D151" s="56"/>
+      <c r="E151" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="F151" s="57" t="s">
+        <v>46</v>
       </c>
       <c r="G151" s="36"/>
       <c r="H151" s="13" t="e">
@@ -13682,11 +13850,11 @@
       <c r="A152" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B152" s="126"/>
-      <c r="C152" s="127"/>
-      <c r="D152" s="128"/>
-      <c r="E152" s="129"/>
-      <c r="F152" s="130"/>
+      <c r="B152" s="113"/>
+      <c r="C152" s="114"/>
+      <c r="D152" s="115"/>
+      <c r="E152" s="116"/>
+      <c r="F152" s="117"/>
       <c r="G152" s="36"/>
       <c r="H152" s="13" t="str">
         <f t="shared" si="7"/>
@@ -13751,16 +13919,16 @@
     </row>
     <row r="153" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="23"/>
-      <c r="B153" s="136" t="s">
-        <v>46</v>
-      </c>
-      <c r="C153" s="131"/>
-      <c r="D153" s="132"/>
-      <c r="E153" s="133" t="s">
-        <v>47</v>
-      </c>
-      <c r="F153" s="133" t="s">
-        <v>47</v>
+      <c r="B153" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="C153" s="63"/>
+      <c r="D153" s="64"/>
+      <c r="E153" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F153" s="65" t="s">
+        <v>46</v>
       </c>
       <c r="G153" s="36"/>
       <c r="H153" s="13" t="e">
@@ -13826,16 +13994,16 @@
     </row>
     <row r="154" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="23"/>
-      <c r="B154" s="136" t="s">
-        <v>43</v>
-      </c>
-      <c r="C154" s="131"/>
-      <c r="D154" s="132"/>
-      <c r="E154" s="133" t="s">
-        <v>47</v>
-      </c>
-      <c r="F154" s="133" t="s">
-        <v>47</v>
+      <c r="B154" s="134" t="s">
+        <v>42</v>
+      </c>
+      <c r="C154" s="63"/>
+      <c r="D154" s="64"/>
+      <c r="E154" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F154" s="65" t="s">
+        <v>46</v>
       </c>
       <c r="G154" s="36"/>
       <c r="H154" s="13" t="e">
@@ -13901,16 +14069,16 @@
     </row>
     <row r="155" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="23"/>
-      <c r="B155" s="136" t="s">
-        <v>44</v>
-      </c>
-      <c r="C155" s="131"/>
-      <c r="D155" s="132"/>
-      <c r="E155" s="133" t="s">
-        <v>47</v>
-      </c>
-      <c r="F155" s="133" t="s">
-        <v>47</v>
+      <c r="B155" s="134" t="s">
+        <v>43</v>
+      </c>
+      <c r="C155" s="63"/>
+      <c r="D155" s="64"/>
+      <c r="E155" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F155" s="65" t="s">
+        <v>46</v>
       </c>
       <c r="G155" s="36"/>
       <c r="H155" s="13" t="e">
@@ -13976,16 +14144,16 @@
     </row>
     <row r="156" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
-      <c r="B156" s="136" t="s">
+      <c r="B156" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="C156" s="131"/>
-      <c r="D156" s="132"/>
-      <c r="E156" s="133" t="s">
-        <v>47</v>
-      </c>
-      <c r="F156" s="133" t="s">
-        <v>47</v>
+      <c r="C156" s="63"/>
+      <c r="D156" s="64"/>
+      <c r="E156" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F156" s="65" t="s">
+        <v>46</v>
       </c>
       <c r="G156" s="36"/>
       <c r="H156" s="13" t="e">
@@ -14051,16 +14219,16 @@
     </row>
     <row r="157" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="23"/>
-      <c r="B157" s="136" t="s">
-        <v>45</v>
-      </c>
-      <c r="C157" s="131"/>
-      <c r="D157" s="132"/>
-      <c r="E157" s="133" t="s">
-        <v>47</v>
-      </c>
-      <c r="F157" s="133" t="s">
-        <v>47</v>
+      <c r="B157" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="C157" s="63"/>
+      <c r="D157" s="64"/>
+      <c r="E157" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F157" s="65" t="s">
+        <v>46</v>
       </c>
       <c r="G157" s="36"/>
       <c r="H157" s="13" t="e">
@@ -14128,11 +14296,11 @@
       <c r="A158" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B158" s="137"/>
-      <c r="C158" s="138"/>
-      <c r="D158" s="139"/>
-      <c r="E158" s="140"/>
-      <c r="F158" s="141"/>
+      <c r="B158" s="126"/>
+      <c r="C158" s="127"/>
+      <c r="D158" s="128"/>
+      <c r="E158" s="129"/>
+      <c r="F158" s="130"/>
       <c r="G158" s="36"/>
       <c r="H158" s="13" t="str">
         <f t="shared" si="7"/>
@@ -14197,16 +14365,16 @@
     </row>
     <row r="159" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="23"/>
-      <c r="B159" s="142" t="s">
-        <v>46</v>
-      </c>
-      <c r="C159" s="143"/>
-      <c r="D159" s="144"/>
-      <c r="E159" s="145" t="s">
-        <v>47</v>
-      </c>
-      <c r="F159" s="145" t="s">
-        <v>47</v>
+      <c r="B159" s="136" t="s">
+        <v>45</v>
+      </c>
+      <c r="C159" s="131"/>
+      <c r="D159" s="132"/>
+      <c r="E159" s="133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F159" s="133" t="s">
+        <v>46</v>
       </c>
       <c r="G159" s="36"/>
       <c r="H159" s="13" t="e">
@@ -14272,16 +14440,16 @@
     </row>
     <row r="160" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
-      <c r="B160" s="142" t="s">
-        <v>43</v>
-      </c>
-      <c r="C160" s="143"/>
-      <c r="D160" s="144"/>
-      <c r="E160" s="145" t="s">
-        <v>47</v>
-      </c>
-      <c r="F160" s="145" t="s">
-        <v>47</v>
+      <c r="B160" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="C160" s="131"/>
+      <c r="D160" s="132"/>
+      <c r="E160" s="133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F160" s="133" t="s">
+        <v>46</v>
       </c>
       <c r="G160" s="36"/>
       <c r="H160" s="13" t="e">
@@ -14347,16 +14515,16 @@
     </row>
     <row r="161" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="23"/>
-      <c r="B161" s="142" t="s">
-        <v>44</v>
-      </c>
-      <c r="C161" s="143"/>
-      <c r="D161" s="144"/>
-      <c r="E161" s="145" t="s">
-        <v>47</v>
-      </c>
-      <c r="F161" s="145" t="s">
-        <v>47</v>
+      <c r="B161" s="136" t="s">
+        <v>43</v>
+      </c>
+      <c r="C161" s="131"/>
+      <c r="D161" s="132"/>
+      <c r="E161" s="133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F161" s="133" t="s">
+        <v>46</v>
       </c>
       <c r="G161" s="36"/>
       <c r="H161" s="13" t="e">
@@ -14422,16 +14590,16 @@
     </row>
     <row r="162" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="23"/>
-      <c r="B162" s="142" t="s">
+      <c r="B162" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="C162" s="143"/>
-      <c r="D162" s="144"/>
-      <c r="E162" s="145" t="s">
-        <v>47</v>
-      </c>
-      <c r="F162" s="145" t="s">
-        <v>47</v>
+      <c r="C162" s="131"/>
+      <c r="D162" s="132"/>
+      <c r="E162" s="133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F162" s="133" t="s">
+        <v>46</v>
       </c>
       <c r="G162" s="36"/>
       <c r="H162" s="13" t="e">
@@ -14497,16 +14665,16 @@
     </row>
     <row r="163" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
-      <c r="B163" s="142" t="s">
-        <v>12</v>
-      </c>
-      <c r="C163" s="143"/>
-      <c r="D163" s="144"/>
-      <c r="E163" s="145" t="s">
-        <v>47</v>
-      </c>
-      <c r="F163" s="145" t="s">
-        <v>47</v>
+      <c r="B163" s="136" t="s">
+        <v>44</v>
+      </c>
+      <c r="C163" s="131"/>
+      <c r="D163" s="132"/>
+      <c r="E163" s="133" t="s">
+        <v>46</v>
+      </c>
+      <c r="F163" s="133" t="s">
+        <v>46</v>
       </c>
       <c r="G163" s="36"/>
       <c r="H163" s="13" t="e">
@@ -14574,11 +14742,11 @@
       <c r="A164" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B164" s="89"/>
-      <c r="C164" s="90"/>
-      <c r="D164" s="91"/>
-      <c r="E164" s="92"/>
-      <c r="F164" s="93"/>
+      <c r="B164" s="137"/>
+      <c r="C164" s="138"/>
+      <c r="D164" s="139"/>
+      <c r="E164" s="140"/>
+      <c r="F164" s="141"/>
       <c r="G164" s="36"/>
       <c r="H164" s="13" t="str">
         <f t="shared" si="7"/>
@@ -14643,16 +14811,16 @@
     </row>
     <row r="165" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="23"/>
-      <c r="B165" s="146" t="s">
-        <v>40</v>
-      </c>
-      <c r="C165" s="95"/>
-      <c r="D165" s="96"/>
-      <c r="E165" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="F165" s="97" t="s">
-        <v>17</v>
+      <c r="B165" s="142" t="s">
+        <v>45</v>
+      </c>
+      <c r="C165" s="143"/>
+      <c r="D165" s="144"/>
+      <c r="E165" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="F165" s="145" t="s">
+        <v>46</v>
       </c>
       <c r="G165" s="36"/>
       <c r="H165" s="13" t="e">
@@ -14718,16 +14886,16 @@
     </row>
     <row r="166" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="23"/>
-      <c r="B166" s="146" t="s">
-        <v>41</v>
-      </c>
-      <c r="C166" s="95"/>
-      <c r="D166" s="96"/>
-      <c r="E166" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="F166" s="97" t="s">
-        <v>17</v>
+      <c r="B166" s="142" t="s">
+        <v>42</v>
+      </c>
+      <c r="C166" s="143"/>
+      <c r="D166" s="144"/>
+      <c r="E166" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="F166" s="145" t="s">
+        <v>46</v>
       </c>
       <c r="G166" s="36"/>
       <c r="H166" s="13" t="e">
@@ -14793,16 +14961,16 @@
     </row>
     <row r="167" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="23"/>
-      <c r="B167" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="C167" s="95"/>
-      <c r="D167" s="96"/>
-      <c r="E167" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="F167" s="97" t="s">
-        <v>17</v>
+      <c r="B167" s="142" t="s">
+        <v>43</v>
+      </c>
+      <c r="C167" s="143"/>
+      <c r="D167" s="144"/>
+      <c r="E167" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="F167" s="145" t="s">
+        <v>46</v>
       </c>
       <c r="G167" s="36"/>
       <c r="H167" s="13" t="e">
@@ -14868,16 +15036,16 @@
     </row>
     <row r="168" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
-      <c r="B168" s="94" t="s">
+      <c r="B168" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="C168" s="95"/>
-      <c r="D168" s="96"/>
-      <c r="E168" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="F168" s="97" t="s">
-        <v>17</v>
+      <c r="C168" s="143"/>
+      <c r="D168" s="144"/>
+      <c r="E168" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="F168" s="145" t="s">
+        <v>46</v>
       </c>
       <c r="G168" s="36"/>
       <c r="H168" s="13" t="e">
@@ -14943,16 +15111,16 @@
     </row>
     <row r="169" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="23"/>
-      <c r="B169" s="94" t="s">
+      <c r="B169" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="C169" s="95"/>
-      <c r="D169" s="96"/>
-      <c r="E169" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="F169" s="97" t="s">
-        <v>17</v>
+      <c r="C169" s="143"/>
+      <c r="D169" s="144"/>
+      <c r="E169" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="F169" s="145" t="s">
+        <v>46</v>
       </c>
       <c r="G169" s="36"/>
       <c r="H169" s="13" t="e">
@@ -15016,13 +15184,454 @@
       <c r="BK169" s="12"/>
       <c r="BL169" s="12"/>
     </row>
+    <row r="170" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B170" s="89"/>
+      <c r="C170" s="90"/>
+      <c r="D170" s="91"/>
+      <c r="E170" s="92"/>
+      <c r="F170" s="93"/>
+      <c r="G170" s="36"/>
+      <c r="H170" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I170" s="12"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="12"/>
+      <c r="M170" s="12"/>
+      <c r="N170" s="12"/>
+      <c r="O170" s="12"/>
+      <c r="P170" s="12"/>
+      <c r="Q170" s="12"/>
+      <c r="R170" s="12"/>
+      <c r="S170" s="12"/>
+      <c r="T170" s="12"/>
+      <c r="U170" s="12"/>
+      <c r="V170" s="12"/>
+      <c r="W170" s="12"/>
+      <c r="X170" s="12"/>
+      <c r="Y170" s="12"/>
+      <c r="Z170" s="12"/>
+      <c r="AA170" s="12"/>
+      <c r="AB170" s="12"/>
+      <c r="AC170" s="12"/>
+      <c r="AD170" s="12"/>
+      <c r="AE170" s="12"/>
+      <c r="AF170" s="12"/>
+      <c r="AG170" s="12"/>
+      <c r="AH170" s="12"/>
+      <c r="AI170" s="12"/>
+      <c r="AJ170" s="12"/>
+      <c r="AK170" s="12"/>
+      <c r="AL170" s="12"/>
+      <c r="AM170" s="12"/>
+      <c r="AN170" s="12"/>
+      <c r="AO170" s="12"/>
+      <c r="AP170" s="12"/>
+      <c r="AQ170" s="12"/>
+      <c r="AR170" s="12"/>
+      <c r="AS170" s="12"/>
+      <c r="AT170" s="12"/>
+      <c r="AU170" s="12"/>
+      <c r="AV170" s="12"/>
+      <c r="AW170" s="12"/>
+      <c r="AX170" s="12"/>
+      <c r="AY170" s="12"/>
+      <c r="AZ170" s="12"/>
+      <c r="BA170" s="12"/>
+      <c r="BB170" s="12"/>
+      <c r="BC170" s="12"/>
+      <c r="BD170" s="12"/>
+      <c r="BE170" s="12"/>
+      <c r="BF170" s="12"/>
+      <c r="BG170" s="12"/>
+      <c r="BH170" s="12"/>
+      <c r="BI170" s="12"/>
+      <c r="BJ170" s="12"/>
+      <c r="BK170" s="12"/>
+      <c r="BL170" s="12"/>
+    </row>
+    <row r="171" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="23"/>
+      <c r="B171" s="146" t="s">
+        <v>40</v>
+      </c>
+      <c r="C171" s="95"/>
+      <c r="D171" s="96"/>
+      <c r="E171" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F171" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="G171" s="36"/>
+      <c r="H171" s="13" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I171" s="12"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="12"/>
+      <c r="L171" s="12"/>
+      <c r="M171" s="12"/>
+      <c r="N171" s="12"/>
+      <c r="O171" s="12"/>
+      <c r="P171" s="12"/>
+      <c r="Q171" s="12"/>
+      <c r="R171" s="12"/>
+      <c r="S171" s="12"/>
+      <c r="T171" s="12"/>
+      <c r="U171" s="12"/>
+      <c r="V171" s="12"/>
+      <c r="W171" s="12"/>
+      <c r="X171" s="12"/>
+      <c r="Y171" s="12"/>
+      <c r="Z171" s="12"/>
+      <c r="AA171" s="12"/>
+      <c r="AB171" s="12"/>
+      <c r="AC171" s="12"/>
+      <c r="AD171" s="12"/>
+      <c r="AE171" s="12"/>
+      <c r="AF171" s="12"/>
+      <c r="AG171" s="12"/>
+      <c r="AH171" s="12"/>
+      <c r="AI171" s="12"/>
+      <c r="AJ171" s="12"/>
+      <c r="AK171" s="12"/>
+      <c r="AL171" s="12"/>
+      <c r="AM171" s="12"/>
+      <c r="AN171" s="12"/>
+      <c r="AO171" s="12"/>
+      <c r="AP171" s="12"/>
+      <c r="AQ171" s="12"/>
+      <c r="AR171" s="12"/>
+      <c r="AS171" s="12"/>
+      <c r="AT171" s="12"/>
+      <c r="AU171" s="12"/>
+      <c r="AV171" s="12"/>
+      <c r="AW171" s="12"/>
+      <c r="AX171" s="12"/>
+      <c r="AY171" s="12"/>
+      <c r="AZ171" s="12"/>
+      <c r="BA171" s="12"/>
+      <c r="BB171" s="12"/>
+      <c r="BC171" s="12"/>
+      <c r="BD171" s="12"/>
+      <c r="BE171" s="12"/>
+      <c r="BF171" s="12"/>
+      <c r="BG171" s="12"/>
+      <c r="BH171" s="12"/>
+      <c r="BI171" s="12"/>
+      <c r="BJ171" s="12"/>
+      <c r="BK171" s="12"/>
+      <c r="BL171" s="12"/>
+    </row>
+    <row r="172" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="23"/>
+      <c r="B172" s="146" t="s">
+        <v>41</v>
+      </c>
+      <c r="C172" s="95"/>
+      <c r="D172" s="96"/>
+      <c r="E172" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F172" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="G172" s="36"/>
+      <c r="H172" s="13" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I172" s="12"/>
+      <c r="J172" s="12"/>
+      <c r="K172" s="12"/>
+      <c r="L172" s="12"/>
+      <c r="M172" s="12"/>
+      <c r="N172" s="12"/>
+      <c r="O172" s="12"/>
+      <c r="P172" s="12"/>
+      <c r="Q172" s="12"/>
+      <c r="R172" s="12"/>
+      <c r="S172" s="12"/>
+      <c r="T172" s="12"/>
+      <c r="U172" s="12"/>
+      <c r="V172" s="12"/>
+      <c r="W172" s="12"/>
+      <c r="X172" s="12"/>
+      <c r="Y172" s="12"/>
+      <c r="Z172" s="12"/>
+      <c r="AA172" s="12"/>
+      <c r="AB172" s="12"/>
+      <c r="AC172" s="12"/>
+      <c r="AD172" s="12"/>
+      <c r="AE172" s="12"/>
+      <c r="AF172" s="12"/>
+      <c r="AG172" s="12"/>
+      <c r="AH172" s="12"/>
+      <c r="AI172" s="12"/>
+      <c r="AJ172" s="12"/>
+      <c r="AK172" s="12"/>
+      <c r="AL172" s="12"/>
+      <c r="AM172" s="12"/>
+      <c r="AN172" s="12"/>
+      <c r="AO172" s="12"/>
+      <c r="AP172" s="12"/>
+      <c r="AQ172" s="12"/>
+      <c r="AR172" s="12"/>
+      <c r="AS172" s="12"/>
+      <c r="AT172" s="12"/>
+      <c r="AU172" s="12"/>
+      <c r="AV172" s="12"/>
+      <c r="AW172" s="12"/>
+      <c r="AX172" s="12"/>
+      <c r="AY172" s="12"/>
+      <c r="AZ172" s="12"/>
+      <c r="BA172" s="12"/>
+      <c r="BB172" s="12"/>
+      <c r="BC172" s="12"/>
+      <c r="BD172" s="12"/>
+      <c r="BE172" s="12"/>
+      <c r="BF172" s="12"/>
+      <c r="BG172" s="12"/>
+      <c r="BH172" s="12"/>
+      <c r="BI172" s="12"/>
+      <c r="BJ172" s="12"/>
+      <c r="BK172" s="12"/>
+      <c r="BL172" s="12"/>
+    </row>
+    <row r="173" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="23"/>
+      <c r="B173" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="C173" s="95"/>
+      <c r="D173" s="96"/>
+      <c r="E173" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F173" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="G173" s="36"/>
+      <c r="H173" s="13" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I173" s="12"/>
+      <c r="J173" s="12"/>
+      <c r="K173" s="12"/>
+      <c r="L173" s="12"/>
+      <c r="M173" s="12"/>
+      <c r="N173" s="12"/>
+      <c r="O173" s="12"/>
+      <c r="P173" s="12"/>
+      <c r="Q173" s="12"/>
+      <c r="R173" s="12"/>
+      <c r="S173" s="12"/>
+      <c r="T173" s="12"/>
+      <c r="U173" s="12"/>
+      <c r="V173" s="12"/>
+      <c r="W173" s="12"/>
+      <c r="X173" s="12"/>
+      <c r="Y173" s="12"/>
+      <c r="Z173" s="12"/>
+      <c r="AA173" s="12"/>
+      <c r="AB173" s="12"/>
+      <c r="AC173" s="12"/>
+      <c r="AD173" s="12"/>
+      <c r="AE173" s="12"/>
+      <c r="AF173" s="12"/>
+      <c r="AG173" s="12"/>
+      <c r="AH173" s="12"/>
+      <c r="AI173" s="12"/>
+      <c r="AJ173" s="12"/>
+      <c r="AK173" s="12"/>
+      <c r="AL173" s="12"/>
+      <c r="AM173" s="12"/>
+      <c r="AN173" s="12"/>
+      <c r="AO173" s="12"/>
+      <c r="AP173" s="12"/>
+      <c r="AQ173" s="12"/>
+      <c r="AR173" s="12"/>
+      <c r="AS173" s="12"/>
+      <c r="AT173" s="12"/>
+      <c r="AU173" s="12"/>
+      <c r="AV173" s="12"/>
+      <c r="AW173" s="12"/>
+      <c r="AX173" s="12"/>
+      <c r="AY173" s="12"/>
+      <c r="AZ173" s="12"/>
+      <c r="BA173" s="12"/>
+      <c r="BB173" s="12"/>
+      <c r="BC173" s="12"/>
+      <c r="BD173" s="12"/>
+      <c r="BE173" s="12"/>
+      <c r="BF173" s="12"/>
+      <c r="BG173" s="12"/>
+      <c r="BH173" s="12"/>
+      <c r="BI173" s="12"/>
+      <c r="BJ173" s="12"/>
+      <c r="BK173" s="12"/>
+      <c r="BL173" s="12"/>
+    </row>
+    <row r="174" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="23"/>
+      <c r="B174" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" s="95"/>
+      <c r="D174" s="96"/>
+      <c r="E174" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F174" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="G174" s="36"/>
+      <c r="H174" s="13" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I174" s="12"/>
+      <c r="J174" s="12"/>
+      <c r="K174" s="12"/>
+      <c r="L174" s="12"/>
+      <c r="M174" s="12"/>
+      <c r="N174" s="12"/>
+      <c r="O174" s="12"/>
+      <c r="P174" s="12"/>
+      <c r="Q174" s="12"/>
+      <c r="R174" s="12"/>
+      <c r="S174" s="12"/>
+      <c r="T174" s="12"/>
+      <c r="U174" s="12"/>
+      <c r="V174" s="12"/>
+      <c r="W174" s="12"/>
+      <c r="X174" s="12"/>
+      <c r="Y174" s="12"/>
+      <c r="Z174" s="12"/>
+      <c r="AA174" s="12"/>
+      <c r="AB174" s="12"/>
+      <c r="AC174" s="12"/>
+      <c r="AD174" s="12"/>
+      <c r="AE174" s="12"/>
+      <c r="AF174" s="12"/>
+      <c r="AG174" s="12"/>
+      <c r="AH174" s="12"/>
+      <c r="AI174" s="12"/>
+      <c r="AJ174" s="12"/>
+      <c r="AK174" s="12"/>
+      <c r="AL174" s="12"/>
+      <c r="AM174" s="12"/>
+      <c r="AN174" s="12"/>
+      <c r="AO174" s="12"/>
+      <c r="AP174" s="12"/>
+      <c r="AQ174" s="12"/>
+      <c r="AR174" s="12"/>
+      <c r="AS174" s="12"/>
+      <c r="AT174" s="12"/>
+      <c r="AU174" s="12"/>
+      <c r="AV174" s="12"/>
+      <c r="AW174" s="12"/>
+      <c r="AX174" s="12"/>
+      <c r="AY174" s="12"/>
+      <c r="AZ174" s="12"/>
+      <c r="BA174" s="12"/>
+      <c r="BB174" s="12"/>
+      <c r="BC174" s="12"/>
+      <c r="BD174" s="12"/>
+      <c r="BE174" s="12"/>
+      <c r="BF174" s="12"/>
+      <c r="BG174" s="12"/>
+      <c r="BH174" s="12"/>
+      <c r="BI174" s="12"/>
+      <c r="BJ174" s="12"/>
+      <c r="BK174" s="12"/>
+      <c r="BL174" s="12"/>
+    </row>
+    <row r="175" spans="1:64" s="14" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="23"/>
+      <c r="B175" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="95"/>
+      <c r="D175" s="96"/>
+      <c r="E175" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="F175" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="G175" s="36"/>
+      <c r="H175" s="13" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I175" s="12"/>
+      <c r="J175" s="12"/>
+      <c r="K175" s="12"/>
+      <c r="L175" s="12"/>
+      <c r="M175" s="12"/>
+      <c r="N175" s="12"/>
+      <c r="O175" s="12"/>
+      <c r="P175" s="12"/>
+      <c r="Q175" s="12"/>
+      <c r="R175" s="12"/>
+      <c r="S175" s="12"/>
+      <c r="T175" s="12"/>
+      <c r="U175" s="12"/>
+      <c r="V175" s="12"/>
+      <c r="W175" s="12"/>
+      <c r="X175" s="12"/>
+      <c r="Y175" s="12"/>
+      <c r="Z175" s="12"/>
+      <c r="AA175" s="12"/>
+      <c r="AB175" s="12"/>
+      <c r="AC175" s="12"/>
+      <c r="AD175" s="12"/>
+      <c r="AE175" s="12"/>
+      <c r="AF175" s="12"/>
+      <c r="AG175" s="12"/>
+      <c r="AH175" s="12"/>
+      <c r="AI175" s="12"/>
+      <c r="AJ175" s="12"/>
+      <c r="AK175" s="12"/>
+      <c r="AL175" s="12"/>
+      <c r="AM175" s="12"/>
+      <c r="AN175" s="12"/>
+      <c r="AO175" s="12"/>
+      <c r="AP175" s="12"/>
+      <c r="AQ175" s="12"/>
+      <c r="AR175" s="12"/>
+      <c r="AS175" s="12"/>
+      <c r="AT175" s="12"/>
+      <c r="AU175" s="12"/>
+      <c r="AV175" s="12"/>
+      <c r="AW175" s="12"/>
+      <c r="AX175" s="12"/>
+      <c r="AY175" s="12"/>
+      <c r="AZ175" s="12"/>
+      <c r="BA175" s="12"/>
+      <c r="BB175" s="12"/>
+      <c r="BC175" s="12"/>
+      <c r="BD175" s="12"/>
+      <c r="BE175" s="12"/>
+      <c r="BF175" s="12"/>
+      <c r="BG175" s="12"/>
+      <c r="BH175" s="12"/>
+      <c r="BI175" s="12"/>
+      <c r="BJ175" s="12"/>
+      <c r="BK175" s="12"/>
+      <c r="BL175" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -15030,10 +15639,15 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <conditionalFormatting sqref="D15:D19">
-    <cfRule type="dataBar" priority="177">
+    <cfRule type="dataBar" priority="179">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15046,8 +15660,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D23 D7:D14 D26:D31">
-    <cfRule type="dataBar" priority="347">
+  <conditionalFormatting sqref="D20:D23 D7:D14 D32:D37">
+    <cfRule type="dataBar" priority="349">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15060,8 +15674,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D25">
-    <cfRule type="dataBar" priority="165">
+  <conditionalFormatting sqref="D24:D25 D27:D28 D30:D31">
+    <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15074,8 +15688,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D36">
-    <cfRule type="dataBar" priority="306">
+  <conditionalFormatting sqref="D38:D42">
+    <cfRule type="dataBar" priority="308">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15088,8 +15702,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="dataBar" priority="161">
+  <conditionalFormatting sqref="D43">
+    <cfRule type="dataBar" priority="163">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15102,8 +15716,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D43">
-    <cfRule type="dataBar" priority="302">
+  <conditionalFormatting sqref="D44:D49">
+    <cfRule type="dataBar" priority="304">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15116,8 +15730,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D44:D47">
-    <cfRule type="dataBar" priority="298">
+  <conditionalFormatting sqref="D50:D53">
+    <cfRule type="dataBar" priority="300">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15130,8 +15744,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D49">
-    <cfRule type="dataBar" priority="153">
+  <conditionalFormatting sqref="D54:D55">
+    <cfRule type="dataBar" priority="155">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15144,8 +15758,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50:D55">
-    <cfRule type="dataBar" priority="294">
+  <conditionalFormatting sqref="D56:D61">
+    <cfRule type="dataBar" priority="296">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15158,8 +15772,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D61">
-    <cfRule type="dataBar" priority="290">
+  <conditionalFormatting sqref="D62:D67">
+    <cfRule type="dataBar" priority="292">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15172,8 +15786,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62:D67">
-    <cfRule type="dataBar" priority="286">
+  <conditionalFormatting sqref="D68:D73">
+    <cfRule type="dataBar" priority="288">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15186,8 +15800,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D68:D73">
-    <cfRule type="dataBar" priority="282">
+  <conditionalFormatting sqref="D74:D79">
+    <cfRule type="dataBar" priority="284">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15200,8 +15814,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74:D79">
-    <cfRule type="dataBar" priority="274">
+  <conditionalFormatting sqref="D80:D85">
+    <cfRule type="dataBar" priority="276">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15214,8 +15828,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D80">
-    <cfRule type="dataBar" priority="270">
+  <conditionalFormatting sqref="D86">
+    <cfRule type="dataBar" priority="272">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15228,8 +15842,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D81:D85">
-    <cfRule type="dataBar" priority="182">
+  <conditionalFormatting sqref="D87:D91">
+    <cfRule type="dataBar" priority="184">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15242,8 +15856,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
-    <cfRule type="dataBar" priority="266">
+  <conditionalFormatting sqref="D92">
+    <cfRule type="dataBar" priority="268">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15256,8 +15870,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D87:D91">
-    <cfRule type="dataBar" priority="178">
+  <conditionalFormatting sqref="D93:D97">
+    <cfRule type="dataBar" priority="180">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15270,8 +15884,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D92:D97">
-    <cfRule type="dataBar" priority="262">
+  <conditionalFormatting sqref="D98:D103">
+    <cfRule type="dataBar" priority="264">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15284,8 +15898,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D98:D103">
-    <cfRule type="dataBar" priority="258">
+  <conditionalFormatting sqref="D104:D109">
+    <cfRule type="dataBar" priority="260">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15298,8 +15912,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D104:D109">
-    <cfRule type="dataBar" priority="254">
+  <conditionalFormatting sqref="D110:D115">
+    <cfRule type="dataBar" priority="256">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15312,8 +15926,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D110:D111">
-    <cfRule type="dataBar" priority="250">
+  <conditionalFormatting sqref="D116:D117">
+    <cfRule type="dataBar" priority="252">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15326,8 +15940,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D112">
-    <cfRule type="dataBar" priority="73">
+  <conditionalFormatting sqref="D118">
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15340,8 +15954,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D113">
-    <cfRule type="dataBar" priority="61">
+  <conditionalFormatting sqref="D119">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15354,8 +15968,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D114">
-    <cfRule type="dataBar" priority="69">
+  <conditionalFormatting sqref="D120">
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15368,8 +15982,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
-    <cfRule type="dataBar" priority="65">
+  <conditionalFormatting sqref="D121">
+    <cfRule type="dataBar" priority="67">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15382,8 +15996,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D116:D121">
-    <cfRule type="dataBar" priority="246">
+  <conditionalFormatting sqref="D122:D127">
+    <cfRule type="dataBar" priority="248">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15396,8 +16010,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D122:D127">
-    <cfRule type="dataBar" priority="242">
+  <conditionalFormatting sqref="D128:D133">
+    <cfRule type="dataBar" priority="244">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15410,8 +16024,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D128:D133">
-    <cfRule type="dataBar" priority="238">
+  <conditionalFormatting sqref="D134:D139">
+    <cfRule type="dataBar" priority="240">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15424,8 +16038,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D134:D139">
-    <cfRule type="dataBar" priority="234">
+  <conditionalFormatting sqref="D140:D145">
+    <cfRule type="dataBar" priority="236">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15438,8 +16052,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D140:D144">
-    <cfRule type="dataBar" priority="230">
+  <conditionalFormatting sqref="D146:D150">
+    <cfRule type="dataBar" priority="232">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15452,8 +16066,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D145">
-    <cfRule type="dataBar" priority="21">
+  <conditionalFormatting sqref="D151">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15466,8 +16080,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D146:D147">
-    <cfRule type="dataBar" priority="226">
+  <conditionalFormatting sqref="D152:D153">
+    <cfRule type="dataBar" priority="228">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15480,8 +16094,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D148">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="D154">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15494,8 +16108,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D149">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="D155">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15508,8 +16122,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D150">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="D156">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15522,8 +16136,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D151">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="D157">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15536,8 +16150,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D152:D157">
-    <cfRule type="dataBar" priority="222">
+  <conditionalFormatting sqref="D158:D163">
+    <cfRule type="dataBar" priority="224">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15550,8 +16164,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D158:D163">
-    <cfRule type="dataBar" priority="218">
+  <conditionalFormatting sqref="D164:D169">
+    <cfRule type="dataBar" priority="220">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15564,8 +16178,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D164:D169">
-    <cfRule type="dataBar" priority="214">
+  <conditionalFormatting sqref="D170:D175">
+    <cfRule type="dataBar" priority="216">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -15578,20 +16192,48 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL169">
-    <cfRule type="expression" dxfId="2" priority="4">
+  <conditionalFormatting sqref="I5:BL175">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL169">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="I7:BL175">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <conditionalFormatting sqref="D26">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BCB5B918-0AE7-47B3-8501-F323287B3C77}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F0802FE7-1B80-466B-92E0-040746669D64}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="週表示" prompt="この数字を変更すると、ガント チャート ビューがスクロールされます。" sqref="E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
@@ -15633,7 +16275,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D20:D23 D7:D14 D26:D31</xm:sqref>
+          <xm:sqref>D20:D23 D7:D14 D32:D37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DA4082BA-C4EC-4420-B5A0-D382F93A8118}">
@@ -15648,7 +16290,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D24:D25</xm:sqref>
+          <xm:sqref>D24:D25 D27:D28 D30:D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C5D26957-274F-4CF0-B793-57F3934A8317}">
@@ -15663,7 +16305,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D32:D36</xm:sqref>
+          <xm:sqref>D38:D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{75ED4F39-7F02-46CA-B5EF-3520E54102C8}">
@@ -15678,7 +16320,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D37</xm:sqref>
+          <xm:sqref>D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{430F68EA-CEA0-49F6-BF03-5FB80DBA4030}">
@@ -15693,7 +16335,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D38:D43</xm:sqref>
+          <xm:sqref>D44:D49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C31851BC-4CD6-4CC2-A4C0-85D80FFEA4B1}">
@@ -15708,7 +16350,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D44:D47</xm:sqref>
+          <xm:sqref>D50:D53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CB709A03-E4C4-438A-87BC-AFE1ACF37821}">
@@ -15723,7 +16365,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D48:D49</xm:sqref>
+          <xm:sqref>D54:D55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AA4C5D16-1136-42A8-BBD6-B3A287F42FB0}">
@@ -15738,7 +16380,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D50:D55</xm:sqref>
+          <xm:sqref>D56:D61</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0CD87E54-0F31-4478-9FB7-BD76A4E4F800}">
@@ -15753,7 +16395,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D56:D61</xm:sqref>
+          <xm:sqref>D62:D67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{77B573EC-821E-43AC-8FA0-277C6E0C5D22}">
@@ -15768,7 +16410,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D62:D67</xm:sqref>
+          <xm:sqref>D68:D73</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E5BD969B-2970-462A-9A3C-6B47097F30A7}">
@@ -15783,7 +16425,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D68:D73</xm:sqref>
+          <xm:sqref>D74:D79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7E6CA822-2C39-4848-8BB3-C920BE7B10B5}">
@@ -15798,7 +16440,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D74:D79</xm:sqref>
+          <xm:sqref>D80:D85</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DBD101ED-8CFF-4D4F-BFF3-4F08E72AEFF5}">
@@ -15813,7 +16455,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D80</xm:sqref>
+          <xm:sqref>D86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7963BA7B-0006-4487-A6CB-3774C29C5A68}">
@@ -15828,7 +16470,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D81:D85</xm:sqref>
+          <xm:sqref>D87:D91</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2D11FBF3-6310-43B7-9E22-E321605FD66A}">
@@ -15843,7 +16485,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D86</xm:sqref>
+          <xm:sqref>D92</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E41C59B1-D264-4B75-A3E0-EC89A13E075C}">
@@ -15858,7 +16500,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D87:D91</xm:sqref>
+          <xm:sqref>D93:D97</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E7C66323-B74B-4371-9C57-22062C6FCF71}">
@@ -15873,7 +16515,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D92:D97</xm:sqref>
+          <xm:sqref>D98:D103</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2A44AEAF-B117-4F77-8EF7-BD19A12675A3}">
@@ -15888,7 +16530,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D98:D103</xm:sqref>
+          <xm:sqref>D104:D109</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FA5BFE5C-5C44-4D35-BE0D-4BA7162EC1BF}">
@@ -15903,7 +16545,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D104:D109</xm:sqref>
+          <xm:sqref>D110:D115</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{51DF76D8-ACBD-4776-8EFD-E3819B49E481}">
@@ -15918,7 +16560,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D110:D111</xm:sqref>
+          <xm:sqref>D116:D117</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{84A16644-937F-4327-94E6-739578AF6DF4}">
@@ -15933,7 +16575,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D112</xm:sqref>
+          <xm:sqref>D118</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{68936C47-DF71-4EF7-934A-4D71A8AC3A15}">
@@ -15948,7 +16590,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D113</xm:sqref>
+          <xm:sqref>D119</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E5540990-3B6A-4ED9-A21B-C5372A976EC0}">
@@ -15963,7 +16605,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D114</xm:sqref>
+          <xm:sqref>D120</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{365859F8-A6A8-4B41-AF58-AFBA39B0BF73}">
@@ -15978,7 +16620,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D115</xm:sqref>
+          <xm:sqref>D121</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{20B924D4-D5EE-4514-A741-DA65BEDC7E68}">
@@ -15993,7 +16635,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D116:D121</xm:sqref>
+          <xm:sqref>D122:D127</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1ADDE22F-2707-40E6-BBB4-D58215757237}">
@@ -16008,7 +16650,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D122:D127</xm:sqref>
+          <xm:sqref>D128:D133</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{07B02D3E-A1AF-4A91-B5F2-D00818A51474}">
@@ -16023,7 +16665,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D128:D133</xm:sqref>
+          <xm:sqref>D134:D139</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{314392FE-68AE-4734-998E-0CEFC94B94EE}">
@@ -16038,7 +16680,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D134:D139</xm:sqref>
+          <xm:sqref>D140:D145</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F92C3259-51FD-4F47-B914-665298126467}">
@@ -16053,7 +16695,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D140:D144</xm:sqref>
+          <xm:sqref>D146:D150</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{430318A1-76C7-4141-AC13-D1823482773A}">
@@ -16068,7 +16710,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D145</xm:sqref>
+          <xm:sqref>D151</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5051664D-C8DC-4EB7-8CEC-8A768B94DF30}">
@@ -16083,7 +16725,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D146:D147</xm:sqref>
+          <xm:sqref>D152:D153</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5CCC1CEF-E8A7-40B1-B3DC-0BCCA240AED3}">
@@ -16098,7 +16740,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D148</xm:sqref>
+          <xm:sqref>D154</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F5B460B7-0F5E-461E-BFD8-63CB282F1276}">
@@ -16113,7 +16755,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D149</xm:sqref>
+          <xm:sqref>D155</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2552C362-36BD-474F-94D7-E62C8EC1C1D4}">
@@ -16128,7 +16770,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D150</xm:sqref>
+          <xm:sqref>D156</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C01B6ED1-42C1-41F1-8688-EB358929AB88}">
@@ -16143,7 +16785,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D151</xm:sqref>
+          <xm:sqref>D157</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B5A8F896-B228-4E22-A05C-EB7D20277B63}">
@@ -16158,7 +16800,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D152:D157</xm:sqref>
+          <xm:sqref>D158:D163</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7AE75E91-737E-4141-9EA7-D26F3B7CB069}">
@@ -16173,7 +16815,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D158:D163</xm:sqref>
+          <xm:sqref>D164:D169</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{55A11941-0547-4FF1-9B90-8F39582F8450}">
@@ -16188,7 +16830,37 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D164:D169</xm:sqref>
+          <xm:sqref>D170:D175</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BCB5B918-0AE7-47B3-8501-F323287B3C77}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F0802FE7-1B80-466B-92E0-040746669D64}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/(WBS)AWS演習_進捗管理表(沼田).xlsx
+++ b/(WBS)AWS演習_進捗管理表(沼田).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF3F799-C69A-4E88-810C-4D211B78B87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EB9293-56A0-495A-86B5-B086EF759D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1726,13 +1726,6 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="21" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1745,6 +1738,13 @@
     <xf numFmtId="179" fontId="33" fillId="0" borderId="3" xfId="9" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - アクセント 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1806,6 +1806,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7"/>
         </patternFill>
       </fill>
@@ -1813,13 +1820,6 @@
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -2355,8 +2355,8 @@
   <dimension ref="A1:BL175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2412,15 +2412,15 @@
       <c r="B3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="156">
+      <c r="D3" s="155"/>
+      <c r="E3" s="153">
         <f ca="1">TODAY()-2</f>
-        <v>45475</v>
-      </c>
-      <c r="F3" s="156"/>
+        <v>45476</v>
+      </c>
+      <c r="F3" s="153"/>
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,106 +2428,106 @@
         <v>1</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="151"/>
+      <c r="D4" s="155"/>
       <c r="E4" s="27">
         <v>1</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
-      <c r="I4" s="153">
+      <c r="I4" s="150">
         <f ca="1">I5</f>
         <v>45473</v>
       </c>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="155"/>
-      <c r="P4" s="153">
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="150">
         <f ca="1">P5</f>
         <v>45480</v>
       </c>
-      <c r="Q4" s="154"/>
-      <c r="R4" s="154"/>
-      <c r="S4" s="154"/>
-      <c r="T4" s="154"/>
-      <c r="U4" s="154"/>
-      <c r="V4" s="155"/>
-      <c r="W4" s="153">
+      <c r="Q4" s="151"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="152"/>
+      <c r="W4" s="150">
         <f ca="1">W5</f>
         <v>45487</v>
       </c>
-      <c r="X4" s="154"/>
-      <c r="Y4" s="154"/>
-      <c r="Z4" s="154"/>
-      <c r="AA4" s="154"/>
-      <c r="AB4" s="154"/>
-      <c r="AC4" s="155"/>
-      <c r="AD4" s="153">
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="152"/>
+      <c r="AD4" s="150">
         <f ca="1">AD5</f>
         <v>45494</v>
       </c>
-      <c r="AE4" s="154"/>
-      <c r="AF4" s="154"/>
-      <c r="AG4" s="154"/>
-      <c r="AH4" s="154"/>
-      <c r="AI4" s="154"/>
-      <c r="AJ4" s="155"/>
-      <c r="AK4" s="153">
+      <c r="AE4" s="151"/>
+      <c r="AF4" s="151"/>
+      <c r="AG4" s="151"/>
+      <c r="AH4" s="151"/>
+      <c r="AI4" s="151"/>
+      <c r="AJ4" s="152"/>
+      <c r="AK4" s="150">
         <f ca="1">AK5</f>
         <v>45501</v>
       </c>
-      <c r="AL4" s="154"/>
-      <c r="AM4" s="154"/>
-      <c r="AN4" s="154"/>
-      <c r="AO4" s="154"/>
-      <c r="AP4" s="154"/>
-      <c r="AQ4" s="155"/>
-      <c r="AR4" s="153">
+      <c r="AL4" s="151"/>
+      <c r="AM4" s="151"/>
+      <c r="AN4" s="151"/>
+      <c r="AO4" s="151"/>
+      <c r="AP4" s="151"/>
+      <c r="AQ4" s="152"/>
+      <c r="AR4" s="150">
         <f ca="1">AR5</f>
         <v>45508</v>
       </c>
-      <c r="AS4" s="154"/>
-      <c r="AT4" s="154"/>
-      <c r="AU4" s="154"/>
-      <c r="AV4" s="154"/>
-      <c r="AW4" s="154"/>
-      <c r="AX4" s="155"/>
-      <c r="AY4" s="153">
+      <c r="AS4" s="151"/>
+      <c r="AT4" s="151"/>
+      <c r="AU4" s="151"/>
+      <c r="AV4" s="151"/>
+      <c r="AW4" s="151"/>
+      <c r="AX4" s="152"/>
+      <c r="AY4" s="150">
         <f ca="1">AY5</f>
         <v>45515</v>
       </c>
-      <c r="AZ4" s="154"/>
-      <c r="BA4" s="154"/>
-      <c r="BB4" s="154"/>
-      <c r="BC4" s="154"/>
-      <c r="BD4" s="154"/>
-      <c r="BE4" s="155"/>
-      <c r="BF4" s="153">
+      <c r="AZ4" s="151"/>
+      <c r="BA4" s="151"/>
+      <c r="BB4" s="151"/>
+      <c r="BC4" s="151"/>
+      <c r="BD4" s="151"/>
+      <c r="BE4" s="152"/>
+      <c r="BF4" s="150">
         <f ca="1">BF5</f>
         <v>45522</v>
       </c>
-      <c r="BG4" s="154"/>
-      <c r="BH4" s="154"/>
-      <c r="BI4" s="154"/>
-      <c r="BJ4" s="154"/>
-      <c r="BK4" s="154"/>
-      <c r="BL4" s="155"/>
+      <c r="BG4" s="151"/>
+      <c r="BH4" s="151"/>
+      <c r="BI4" s="151"/>
+      <c r="BJ4" s="151"/>
+      <c r="BK4" s="151"/>
+      <c r="BL4" s="152"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
       <c r="I5" s="7">
         <f ca="1">プロジェクト_開始-WEEKDAY(プロジェクト_開始,1)+1+7*(週_表示-1)</f>
         <v>45473</v>
@@ -3155,7 +3155,9 @@
       <c r="C9" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="39">
+        <v>1</v>
+      </c>
       <c r="E9" s="40">
         <v>45478</v>
       </c>
@@ -3234,7 +3236,9 @@
       <c r="C10" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="39">
+        <v>1</v>
+      </c>
       <c r="E10" s="40">
         <v>45478</v>
       </c>
@@ -15632,6 +15636,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -15639,11 +15648,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <conditionalFormatting sqref="D15:D19">
@@ -15684,6 +15688,34 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{DA4082BA-C4EC-4420-B5A0-D382F93A8118}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BCB5B918-0AE7-47B3-8501-F323287B3C77}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F0802FE7-1B80-466B-92E0-040746669D64}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -16198,39 +16230,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL175">
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>AND(タスク_終了&gt;=I$5,タスク_開始&lt;J$5)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BCB5B918-0AE7-47B3-8501-F323287B3C77}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F0802FE7-1B80-466B-92E0-040746669D64}</x14:id>
-        </ext>
-      </extLst>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>AND(タスク_開始&lt;=I$5,ROUNDDOWN((タスク_終了-タスク_開始+1)*タスク_進捗状況,0)+タスク_開始-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -16291,6 +16295,36 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D24:D25 D27:D28 D30:D31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BCB5B918-0AE7-47B3-8501-F323287B3C77}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F0802FE7-1B80-466B-92E0-040746669D64}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C5D26957-274F-4CF0-B793-57F3934A8317}">
@@ -16832,36 +16866,6 @@
           </x14:cfRule>
           <xm:sqref>D170:D175</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BCB5B918-0AE7-47B3-8501-F323287B3C77}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F0802FE7-1B80-466B-92E0-040746669D64}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D29</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/(WBS)AWS演習_進捗管理表(沼田).xlsx
+++ b/(WBS)AWS演習_進捗管理表(沼田).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EB9293-56A0-495A-86B5-B086EF759D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64F7403-F046-4D5F-AD5B-AFC78B13E601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2355,8 +2355,8 @@
   <dimension ref="A1:BL175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3621,7 +3621,9 @@
       <c r="C15" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="48"/>
+      <c r="D15" s="48">
+        <v>1</v>
+      </c>
       <c r="E15" s="49">
         <v>45478</v>
       </c>
@@ -3698,7 +3700,9 @@
       <c r="C16" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="48"/>
+      <c r="D16" s="48">
+        <v>0.05</v>
+      </c>
       <c r="E16" s="49">
         <v>45478</v>
       </c>

--- a/(WBS)AWS演習_進捗管理表(沼田).xlsx
+++ b/(WBS)AWS演習_進捗管理表(沼田).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64F7403-F046-4D5F-AD5B-AFC78B13E601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5124C6BC-163C-4167-8EF5-2C614007AB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1726,6 +1726,13 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="21" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1738,13 +1745,6 @@
     <xf numFmtId="179" fontId="33" fillId="0" borderId="3" xfId="9" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - アクセント 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2355,8 +2355,8 @@
   <dimension ref="A1:BL175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <pane ySplit="6" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2412,15 +2412,15 @@
       <c r="B3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="153">
+      <c r="D3" s="151"/>
+      <c r="E3" s="156">
         <f ca="1">TODAY()-2</f>
-        <v>45476</v>
-      </c>
-      <c r="F3" s="153"/>
+        <v>45479</v>
+      </c>
+      <c r="F3" s="156"/>
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,106 +2428,106 @@
         <v>1</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="155"/>
+      <c r="D4" s="151"/>
       <c r="E4" s="27">
         <v>1</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
-      <c r="I4" s="150">
+      <c r="I4" s="153">
         <f ca="1">I5</f>
         <v>45473</v>
       </c>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="150">
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="153">
         <f ca="1">P5</f>
         <v>45480</v>
       </c>
-      <c r="Q4" s="151"/>
-      <c r="R4" s="151"/>
-      <c r="S4" s="151"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="152"/>
-      <c r="W4" s="150">
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
+      <c r="T4" s="154"/>
+      <c r="U4" s="154"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="153">
         <f ca="1">W5</f>
         <v>45487</v>
       </c>
-      <c r="X4" s="151"/>
-      <c r="Y4" s="151"/>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="152"/>
-      <c r="AD4" s="150">
+      <c r="X4" s="154"/>
+      <c r="Y4" s="154"/>
+      <c r="Z4" s="154"/>
+      <c r="AA4" s="154"/>
+      <c r="AB4" s="154"/>
+      <c r="AC4" s="155"/>
+      <c r="AD4" s="153">
         <f ca="1">AD5</f>
         <v>45494</v>
       </c>
-      <c r="AE4" s="151"/>
-      <c r="AF4" s="151"/>
-      <c r="AG4" s="151"/>
-      <c r="AH4" s="151"/>
-      <c r="AI4" s="151"/>
-      <c r="AJ4" s="152"/>
-      <c r="AK4" s="150">
+      <c r="AE4" s="154"/>
+      <c r="AF4" s="154"/>
+      <c r="AG4" s="154"/>
+      <c r="AH4" s="154"/>
+      <c r="AI4" s="154"/>
+      <c r="AJ4" s="155"/>
+      <c r="AK4" s="153">
         <f ca="1">AK5</f>
         <v>45501</v>
       </c>
-      <c r="AL4" s="151"/>
-      <c r="AM4" s="151"/>
-      <c r="AN4" s="151"/>
-      <c r="AO4" s="151"/>
-      <c r="AP4" s="151"/>
-      <c r="AQ4" s="152"/>
-      <c r="AR4" s="150">
+      <c r="AL4" s="154"/>
+      <c r="AM4" s="154"/>
+      <c r="AN4" s="154"/>
+      <c r="AO4" s="154"/>
+      <c r="AP4" s="154"/>
+      <c r="AQ4" s="155"/>
+      <c r="AR4" s="153">
         <f ca="1">AR5</f>
         <v>45508</v>
       </c>
-      <c r="AS4" s="151"/>
-      <c r="AT4" s="151"/>
-      <c r="AU4" s="151"/>
-      <c r="AV4" s="151"/>
-      <c r="AW4" s="151"/>
-      <c r="AX4" s="152"/>
-      <c r="AY4" s="150">
+      <c r="AS4" s="154"/>
+      <c r="AT4" s="154"/>
+      <c r="AU4" s="154"/>
+      <c r="AV4" s="154"/>
+      <c r="AW4" s="154"/>
+      <c r="AX4" s="155"/>
+      <c r="AY4" s="153">
         <f ca="1">AY5</f>
         <v>45515</v>
       </c>
-      <c r="AZ4" s="151"/>
-      <c r="BA4" s="151"/>
-      <c r="BB4" s="151"/>
-      <c r="BC4" s="151"/>
-      <c r="BD4" s="151"/>
-      <c r="BE4" s="152"/>
-      <c r="BF4" s="150">
+      <c r="AZ4" s="154"/>
+      <c r="BA4" s="154"/>
+      <c r="BB4" s="154"/>
+      <c r="BC4" s="154"/>
+      <c r="BD4" s="154"/>
+      <c r="BE4" s="155"/>
+      <c r="BF4" s="153">
         <f ca="1">BF5</f>
         <v>45522</v>
       </c>
-      <c r="BG4" s="151"/>
-      <c r="BH4" s="151"/>
-      <c r="BI4" s="151"/>
-      <c r="BJ4" s="151"/>
-      <c r="BK4" s="151"/>
-      <c r="BL4" s="152"/>
+      <c r="BG4" s="154"/>
+      <c r="BH4" s="154"/>
+      <c r="BI4" s="154"/>
+      <c r="BJ4" s="154"/>
+      <c r="BK4" s="154"/>
+      <c r="BL4" s="155"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
       <c r="I5" s="7">
         <f ca="1">プロジェクト_開始-WEEKDAY(プロジェクト_開始,1)+1+7*(週_表示-1)</f>
         <v>45473</v>
@@ -4089,7 +4089,9 @@
       <c r="C21" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="56"/>
+      <c r="D21" s="56">
+        <v>1</v>
+      </c>
       <c r="E21" s="57">
         <v>45481</v>
       </c>
@@ -15640,11 +15642,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -15652,6 +15649,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <conditionalFormatting sqref="D15:D19">

--- a/(WBS)AWS演習_進捗管理表(沼田).xlsx
+++ b/(WBS)AWS演習_進捗管理表(沼田).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5124C6BC-163C-4167-8EF5-2C614007AB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D5FF70-51BC-41CD-A4E6-4FDCD41D8B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1726,13 +1726,6 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="21" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1745,6 +1738,13 @@
     <xf numFmtId="179" fontId="33" fillId="0" borderId="3" xfId="9" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - アクセント 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2355,8 +2355,8 @@
   <dimension ref="A1:BL175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2412,15 +2412,15 @@
       <c r="B3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="156">
+      <c r="D3" s="155"/>
+      <c r="E3" s="153">
         <f ca="1">TODAY()-2</f>
-        <v>45479</v>
-      </c>
-      <c r="F3" s="156"/>
+        <v>45480</v>
+      </c>
+      <c r="F3" s="153"/>
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,329 +2428,329 @@
         <v>1</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="151"/>
+      <c r="D4" s="155"/>
       <c r="E4" s="27">
         <v>1</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
-      <c r="I4" s="153">
+      <c r="I4" s="150">
         <f ca="1">I5</f>
-        <v>45473</v>
-      </c>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="155"/>
-      <c r="P4" s="153">
+        <v>45480</v>
+      </c>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="150">
         <f ca="1">P5</f>
-        <v>45480</v>
-      </c>
-      <c r="Q4" s="154"/>
-      <c r="R4" s="154"/>
-      <c r="S4" s="154"/>
-      <c r="T4" s="154"/>
-      <c r="U4" s="154"/>
-      <c r="V4" s="155"/>
-      <c r="W4" s="153">
+        <v>45487</v>
+      </c>
+      <c r="Q4" s="151"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="152"/>
+      <c r="W4" s="150">
         <f ca="1">W5</f>
-        <v>45487</v>
-      </c>
-      <c r="X4" s="154"/>
-      <c r="Y4" s="154"/>
-      <c r="Z4" s="154"/>
-      <c r="AA4" s="154"/>
-      <c r="AB4" s="154"/>
-      <c r="AC4" s="155"/>
-      <c r="AD4" s="153">
+        <v>45494</v>
+      </c>
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="152"/>
+      <c r="AD4" s="150">
         <f ca="1">AD5</f>
-        <v>45494</v>
-      </c>
-      <c r="AE4" s="154"/>
-      <c r="AF4" s="154"/>
-      <c r="AG4" s="154"/>
-      <c r="AH4" s="154"/>
-      <c r="AI4" s="154"/>
-      <c r="AJ4" s="155"/>
-      <c r="AK4" s="153">
+        <v>45501</v>
+      </c>
+      <c r="AE4" s="151"/>
+      <c r="AF4" s="151"/>
+      <c r="AG4" s="151"/>
+      <c r="AH4" s="151"/>
+      <c r="AI4" s="151"/>
+      <c r="AJ4" s="152"/>
+      <c r="AK4" s="150">
         <f ca="1">AK5</f>
-        <v>45501</v>
-      </c>
-      <c r="AL4" s="154"/>
-      <c r="AM4" s="154"/>
-      <c r="AN4" s="154"/>
-      <c r="AO4" s="154"/>
-      <c r="AP4" s="154"/>
-      <c r="AQ4" s="155"/>
-      <c r="AR4" s="153">
+        <v>45508</v>
+      </c>
+      <c r="AL4" s="151"/>
+      <c r="AM4" s="151"/>
+      <c r="AN4" s="151"/>
+      <c r="AO4" s="151"/>
+      <c r="AP4" s="151"/>
+      <c r="AQ4" s="152"/>
+      <c r="AR4" s="150">
         <f ca="1">AR5</f>
-        <v>45508</v>
-      </c>
-      <c r="AS4" s="154"/>
-      <c r="AT4" s="154"/>
-      <c r="AU4" s="154"/>
-      <c r="AV4" s="154"/>
-      <c r="AW4" s="154"/>
-      <c r="AX4" s="155"/>
-      <c r="AY4" s="153">
+        <v>45515</v>
+      </c>
+      <c r="AS4" s="151"/>
+      <c r="AT4" s="151"/>
+      <c r="AU4" s="151"/>
+      <c r="AV4" s="151"/>
+      <c r="AW4" s="151"/>
+      <c r="AX4" s="152"/>
+      <c r="AY4" s="150">
         <f ca="1">AY5</f>
-        <v>45515</v>
-      </c>
-      <c r="AZ4" s="154"/>
-      <c r="BA4" s="154"/>
-      <c r="BB4" s="154"/>
-      <c r="BC4" s="154"/>
-      <c r="BD4" s="154"/>
-      <c r="BE4" s="155"/>
-      <c r="BF4" s="153">
+        <v>45522</v>
+      </c>
+      <c r="AZ4" s="151"/>
+      <c r="BA4" s="151"/>
+      <c r="BB4" s="151"/>
+      <c r="BC4" s="151"/>
+      <c r="BD4" s="151"/>
+      <c r="BE4" s="152"/>
+      <c r="BF4" s="150">
         <f ca="1">BF5</f>
-        <v>45522</v>
-      </c>
-      <c r="BG4" s="154"/>
-      <c r="BH4" s="154"/>
-      <c r="BI4" s="154"/>
-      <c r="BJ4" s="154"/>
-      <c r="BK4" s="154"/>
-      <c r="BL4" s="155"/>
+        <v>45529</v>
+      </c>
+      <c r="BG4" s="151"/>
+      <c r="BH4" s="151"/>
+      <c r="BI4" s="151"/>
+      <c r="BJ4" s="151"/>
+      <c r="BK4" s="151"/>
+      <c r="BL4" s="152"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
       <c r="I5" s="7">
         <f ca="1">プロジェクト_開始-WEEKDAY(プロジェクト_開始,1)+1+7*(週_表示-1)</f>
-        <v>45473</v>
+        <v>45480</v>
       </c>
       <c r="J5" s="8">
         <f ca="1">I5+1</f>
-        <v>45474</v>
+        <v>45481</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>45475</v>
+        <v>45482</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45476</v>
+        <v>45483</v>
       </c>
       <c r="M5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45477</v>
+        <v>45484</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45478</v>
+        <v>45485</v>
       </c>
       <c r="O5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>45479</v>
+        <v>45486</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">O5+1</f>
-        <v>45480</v>
+        <v>45487</v>
       </c>
       <c r="Q5" s="8">
         <f ca="1">P5+1</f>
-        <v>45481</v>
+        <v>45488</v>
       </c>
       <c r="R5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45482</v>
+        <v>45489</v>
       </c>
       <c r="S5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45483</v>
+        <v>45490</v>
       </c>
       <c r="T5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45484</v>
+        <v>45491</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45485</v>
+        <v>45492</v>
       </c>
       <c r="V5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>45486</v>
+        <v>45493</v>
       </c>
       <c r="W5" s="7">
         <f ca="1">V5+1</f>
-        <v>45487</v>
+        <v>45494</v>
       </c>
       <c r="X5" s="8">
         <f ca="1">W5+1</f>
-        <v>45488</v>
+        <v>45495</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45489</v>
+        <v>45496</v>
       </c>
       <c r="Z5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45490</v>
+        <v>45497</v>
       </c>
       <c r="AA5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45491</v>
+        <v>45498</v>
       </c>
       <c r="AB5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45492</v>
+        <v>45499</v>
       </c>
       <c r="AC5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>45493</v>
+        <v>45500</v>
       </c>
       <c r="AD5" s="7">
         <f ca="1">AC5+1</f>
-        <v>45494</v>
+        <v>45501</v>
       </c>
       <c r="AE5" s="8">
         <f ca="1">AD5+1</f>
-        <v>45495</v>
+        <v>45502</v>
       </c>
       <c r="AF5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45496</v>
+        <v>45503</v>
       </c>
       <c r="AG5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45497</v>
+        <v>45504</v>
       </c>
       <c r="AH5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45498</v>
+        <v>45505</v>
       </c>
       <c r="AI5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45499</v>
+        <v>45506</v>
       </c>
       <c r="AJ5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>45500</v>
+        <v>45507</v>
       </c>
       <c r="AK5" s="7">
         <f ca="1">AJ5+1</f>
-        <v>45501</v>
+        <v>45508</v>
       </c>
       <c r="AL5" s="8">
         <f ca="1">AK5+1</f>
-        <v>45502</v>
+        <v>45509</v>
       </c>
       <c r="AM5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45503</v>
+        <v>45510</v>
       </c>
       <c r="AN5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45504</v>
+        <v>45511</v>
       </c>
       <c r="AO5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45505</v>
+        <v>45512</v>
       </c>
       <c r="AP5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45506</v>
+        <v>45513</v>
       </c>
       <c r="AQ5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>45507</v>
+        <v>45514</v>
       </c>
       <c r="AR5" s="7">
         <f ca="1">AQ5+1</f>
-        <v>45508</v>
+        <v>45515</v>
       </c>
       <c r="AS5" s="8">
         <f ca="1">AR5+1</f>
-        <v>45509</v>
+        <v>45516</v>
       </c>
       <c r="AT5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="AU5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45511</v>
+        <v>45518</v>
       </c>
       <c r="AV5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45512</v>
+        <v>45519</v>
       </c>
       <c r="AW5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>45513</v>
+        <v>45520</v>
       </c>
       <c r="AX5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>45514</v>
+        <v>45521</v>
       </c>
       <c r="AY5" s="7">
         <f ca="1">AX5+1</f>
-        <v>45515</v>
+        <v>45522</v>
       </c>
       <c r="AZ5" s="8">
         <f ca="1">AY5+1</f>
-        <v>45516</v>
+        <v>45523</v>
       </c>
       <c r="BA5" s="8">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>45517</v>
+        <v>45524</v>
       </c>
       <c r="BB5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>45518</v>
+        <v>45525</v>
       </c>
       <c r="BC5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>45519</v>
+        <v>45526</v>
       </c>
       <c r="BD5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="BE5" s="9">
         <f t="shared" ca="1" si="1"/>
-        <v>45521</v>
+        <v>45528</v>
       </c>
       <c r="BF5" s="7">
         <f ca="1">BE5+1</f>
-        <v>45522</v>
+        <v>45529</v>
       </c>
       <c r="BG5" s="8">
         <f ca="1">BF5+1</f>
-        <v>45523</v>
+        <v>45530</v>
       </c>
       <c r="BH5" s="8">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>45524</v>
+        <v>45531</v>
       </c>
       <c r="BI5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>45525</v>
+        <v>45532</v>
       </c>
       <c r="BJ5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>45526</v>
+        <v>45533</v>
       </c>
       <c r="BK5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>45527</v>
+        <v>45534</v>
       </c>
       <c r="BL5" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>45528</v>
+        <v>45535</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3701,7 +3701,7 @@
         <v>59</v>
       </c>
       <c r="D16" s="48">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="E16" s="49">
         <v>45478</v>
@@ -4168,7 +4168,9 @@
       <c r="C22" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="56"/>
+      <c r="D22" s="56">
+        <v>1</v>
+      </c>
       <c r="E22" s="57">
         <v>45482</v>
       </c>
@@ -4245,7 +4247,9 @@
       <c r="C23" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="56"/>
+      <c r="D23" s="56">
+        <v>1</v>
+      </c>
       <c r="E23" s="57">
         <v>45482</v>
       </c>
@@ -4322,7 +4326,9 @@
       <c r="C24" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="56"/>
+      <c r="D24" s="56">
+        <v>1</v>
+      </c>
       <c r="E24" s="57">
         <v>45483</v>
       </c>
@@ -15642,6 +15648,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -15649,11 +15660,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <conditionalFormatting sqref="D15:D19">

--- a/(WBS)AWS演習_進捗管理表(沼田).xlsx
+++ b/(WBS)AWS演習_進捗管理表(沼田).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D5FF70-51BC-41CD-A4E6-4FDCD41D8B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F4C0C9-95DF-4957-98FF-A72AFDD0FCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1726,6 +1726,13 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="21" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1738,13 +1745,6 @@
     <xf numFmtId="179" fontId="33" fillId="0" borderId="3" xfId="9" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - アクセント 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2355,8 +2355,8 @@
   <dimension ref="A1:BL175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2412,15 +2412,15 @@
       <c r="B3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="153">
+      <c r="D3" s="151"/>
+      <c r="E3" s="156">
         <f ca="1">TODAY()-2</f>
         <v>45480</v>
       </c>
-      <c r="F3" s="153"/>
+      <c r="F3" s="156"/>
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,106 +2428,106 @@
         <v>1</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="155"/>
+      <c r="D4" s="151"/>
       <c r="E4" s="27">
         <v>1</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
-      <c r="I4" s="150">
+      <c r="I4" s="153">
         <f ca="1">I5</f>
         <v>45480</v>
       </c>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="150">
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="153">
         <f ca="1">P5</f>
         <v>45487</v>
       </c>
-      <c r="Q4" s="151"/>
-      <c r="R4" s="151"/>
-      <c r="S4" s="151"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="152"/>
-      <c r="W4" s="150">
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
+      <c r="T4" s="154"/>
+      <c r="U4" s="154"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="153">
         <f ca="1">W5</f>
         <v>45494</v>
       </c>
-      <c r="X4" s="151"/>
-      <c r="Y4" s="151"/>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="152"/>
-      <c r="AD4" s="150">
+      <c r="X4" s="154"/>
+      <c r="Y4" s="154"/>
+      <c r="Z4" s="154"/>
+      <c r="AA4" s="154"/>
+      <c r="AB4" s="154"/>
+      <c r="AC4" s="155"/>
+      <c r="AD4" s="153">
         <f ca="1">AD5</f>
         <v>45501</v>
       </c>
-      <c r="AE4" s="151"/>
-      <c r="AF4" s="151"/>
-      <c r="AG4" s="151"/>
-      <c r="AH4" s="151"/>
-      <c r="AI4" s="151"/>
-      <c r="AJ4" s="152"/>
-      <c r="AK4" s="150">
+      <c r="AE4" s="154"/>
+      <c r="AF4" s="154"/>
+      <c r="AG4" s="154"/>
+      <c r="AH4" s="154"/>
+      <c r="AI4" s="154"/>
+      <c r="AJ4" s="155"/>
+      <c r="AK4" s="153">
         <f ca="1">AK5</f>
         <v>45508</v>
       </c>
-      <c r="AL4" s="151"/>
-      <c r="AM4" s="151"/>
-      <c r="AN4" s="151"/>
-      <c r="AO4" s="151"/>
-      <c r="AP4" s="151"/>
-      <c r="AQ4" s="152"/>
-      <c r="AR4" s="150">
+      <c r="AL4" s="154"/>
+      <c r="AM4" s="154"/>
+      <c r="AN4" s="154"/>
+      <c r="AO4" s="154"/>
+      <c r="AP4" s="154"/>
+      <c r="AQ4" s="155"/>
+      <c r="AR4" s="153">
         <f ca="1">AR5</f>
         <v>45515</v>
       </c>
-      <c r="AS4" s="151"/>
-      <c r="AT4" s="151"/>
-      <c r="AU4" s="151"/>
-      <c r="AV4" s="151"/>
-      <c r="AW4" s="151"/>
-      <c r="AX4" s="152"/>
-      <c r="AY4" s="150">
+      <c r="AS4" s="154"/>
+      <c r="AT4" s="154"/>
+      <c r="AU4" s="154"/>
+      <c r="AV4" s="154"/>
+      <c r="AW4" s="154"/>
+      <c r="AX4" s="155"/>
+      <c r="AY4" s="153">
         <f ca="1">AY5</f>
         <v>45522</v>
       </c>
-      <c r="AZ4" s="151"/>
-      <c r="BA4" s="151"/>
-      <c r="BB4" s="151"/>
-      <c r="BC4" s="151"/>
-      <c r="BD4" s="151"/>
-      <c r="BE4" s="152"/>
-      <c r="BF4" s="150">
+      <c r="AZ4" s="154"/>
+      <c r="BA4" s="154"/>
+      <c r="BB4" s="154"/>
+      <c r="BC4" s="154"/>
+      <c r="BD4" s="154"/>
+      <c r="BE4" s="155"/>
+      <c r="BF4" s="153">
         <f ca="1">BF5</f>
         <v>45529</v>
       </c>
-      <c r="BG4" s="151"/>
-      <c r="BH4" s="151"/>
-      <c r="BI4" s="151"/>
-      <c r="BJ4" s="151"/>
-      <c r="BK4" s="151"/>
-      <c r="BL4" s="152"/>
+      <c r="BG4" s="154"/>
+      <c r="BH4" s="154"/>
+      <c r="BI4" s="154"/>
+      <c r="BJ4" s="154"/>
+      <c r="BK4" s="154"/>
+      <c r="BL4" s="155"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
       <c r="I5" s="7">
         <f ca="1">プロジェクト_開始-WEEKDAY(プロジェクト_開始,1)+1+7*(週_表示-1)</f>
         <v>45480</v>
@@ -3701,7 +3701,7 @@
         <v>59</v>
       </c>
       <c r="D16" s="48">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E16" s="49">
         <v>45478</v>
@@ -15648,11 +15648,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -15660,6 +15655,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <conditionalFormatting sqref="D15:D19">

--- a/(WBS)AWS演習_進捗管理表(沼田).xlsx
+++ b/(WBS)AWS演習_進捗管理表(沼田).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F4C0C9-95DF-4957-98FF-A72AFDD0FCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68F1087-E3EA-4012-8797-78DAB9D6A3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1726,13 +1726,6 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="21" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1745,6 +1738,13 @@
     <xf numFmtId="179" fontId="33" fillId="0" borderId="3" xfId="9" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - アクセント 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2355,8 +2355,8 @@
   <dimension ref="A1:BL175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R13" sqref="R13"/>
+      <pane ySplit="6" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2412,15 +2412,15 @@
       <c r="B3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="156">
+      <c r="D3" s="155"/>
+      <c r="E3" s="153">
         <f ca="1">TODAY()-2</f>
-        <v>45480</v>
-      </c>
-      <c r="F3" s="156"/>
+        <v>45481</v>
+      </c>
+      <c r="F3" s="153"/>
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,106 +2428,106 @@
         <v>1</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="151"/>
+      <c r="D4" s="155"/>
       <c r="E4" s="27">
         <v>1</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
-      <c r="I4" s="153">
+      <c r="I4" s="150">
         <f ca="1">I5</f>
         <v>45480</v>
       </c>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="155"/>
-      <c r="P4" s="153">
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="150">
         <f ca="1">P5</f>
         <v>45487</v>
       </c>
-      <c r="Q4" s="154"/>
-      <c r="R4" s="154"/>
-      <c r="S4" s="154"/>
-      <c r="T4" s="154"/>
-      <c r="U4" s="154"/>
-      <c r="V4" s="155"/>
-      <c r="W4" s="153">
+      <c r="Q4" s="151"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="152"/>
+      <c r="W4" s="150">
         <f ca="1">W5</f>
         <v>45494</v>
       </c>
-      <c r="X4" s="154"/>
-      <c r="Y4" s="154"/>
-      <c r="Z4" s="154"/>
-      <c r="AA4" s="154"/>
-      <c r="AB4" s="154"/>
-      <c r="AC4" s="155"/>
-      <c r="AD4" s="153">
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="152"/>
+      <c r="AD4" s="150">
         <f ca="1">AD5</f>
         <v>45501</v>
       </c>
-      <c r="AE4" s="154"/>
-      <c r="AF4" s="154"/>
-      <c r="AG4" s="154"/>
-      <c r="AH4" s="154"/>
-      <c r="AI4" s="154"/>
-      <c r="AJ4" s="155"/>
-      <c r="AK4" s="153">
+      <c r="AE4" s="151"/>
+      <c r="AF4" s="151"/>
+      <c r="AG4" s="151"/>
+      <c r="AH4" s="151"/>
+      <c r="AI4" s="151"/>
+      <c r="AJ4" s="152"/>
+      <c r="AK4" s="150">
         <f ca="1">AK5</f>
         <v>45508</v>
       </c>
-      <c r="AL4" s="154"/>
-      <c r="AM4" s="154"/>
-      <c r="AN4" s="154"/>
-      <c r="AO4" s="154"/>
-      <c r="AP4" s="154"/>
-      <c r="AQ4" s="155"/>
-      <c r="AR4" s="153">
+      <c r="AL4" s="151"/>
+      <c r="AM4" s="151"/>
+      <c r="AN4" s="151"/>
+      <c r="AO4" s="151"/>
+      <c r="AP4" s="151"/>
+      <c r="AQ4" s="152"/>
+      <c r="AR4" s="150">
         <f ca="1">AR5</f>
         <v>45515</v>
       </c>
-      <c r="AS4" s="154"/>
-      <c r="AT4" s="154"/>
-      <c r="AU4" s="154"/>
-      <c r="AV4" s="154"/>
-      <c r="AW4" s="154"/>
-      <c r="AX4" s="155"/>
-      <c r="AY4" s="153">
+      <c r="AS4" s="151"/>
+      <c r="AT4" s="151"/>
+      <c r="AU4" s="151"/>
+      <c r="AV4" s="151"/>
+      <c r="AW4" s="151"/>
+      <c r="AX4" s="152"/>
+      <c r="AY4" s="150">
         <f ca="1">AY5</f>
         <v>45522</v>
       </c>
-      <c r="AZ4" s="154"/>
-      <c r="BA4" s="154"/>
-      <c r="BB4" s="154"/>
-      <c r="BC4" s="154"/>
-      <c r="BD4" s="154"/>
-      <c r="BE4" s="155"/>
-      <c r="BF4" s="153">
+      <c r="AZ4" s="151"/>
+      <c r="BA4" s="151"/>
+      <c r="BB4" s="151"/>
+      <c r="BC4" s="151"/>
+      <c r="BD4" s="151"/>
+      <c r="BE4" s="152"/>
+      <c r="BF4" s="150">
         <f ca="1">BF5</f>
         <v>45529</v>
       </c>
-      <c r="BG4" s="154"/>
-      <c r="BH4" s="154"/>
-      <c r="BI4" s="154"/>
-      <c r="BJ4" s="154"/>
-      <c r="BK4" s="154"/>
-      <c r="BL4" s="155"/>
+      <c r="BG4" s="151"/>
+      <c r="BH4" s="151"/>
+      <c r="BI4" s="151"/>
+      <c r="BJ4" s="151"/>
+      <c r="BK4" s="151"/>
+      <c r="BL4" s="152"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
       <c r="I5" s="7">
         <f ca="1">プロジェクト_開始-WEEKDAY(プロジェクト_開始,1)+1+7*(週_表示-1)</f>
         <v>45480</v>
@@ -4405,7 +4405,9 @@
       <c r="C25" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="56"/>
+      <c r="D25" s="56">
+        <v>1</v>
+      </c>
       <c r="E25" s="57">
         <v>45483</v>
       </c>
@@ -4482,7 +4484,9 @@
       <c r="C26" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="56"/>
+      <c r="D26" s="56">
+        <v>1</v>
+      </c>
       <c r="E26" s="57">
         <v>45484</v>
       </c>
@@ -4559,7 +4563,9 @@
       <c r="C27" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="56"/>
+      <c r="D27" s="56">
+        <v>1</v>
+      </c>
       <c r="E27" s="57">
         <v>45484</v>
       </c>
@@ -4636,7 +4642,9 @@
       <c r="C28" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="56"/>
+      <c r="D28" s="56">
+        <v>1</v>
+      </c>
       <c r="E28" s="57">
         <v>45484</v>
       </c>
@@ -15648,6 +15656,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -15655,11 +15668,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <conditionalFormatting sqref="D15:D19">

--- a/(WBS)AWS演習_進捗管理表(沼田).xlsx
+++ b/(WBS)AWS演習_進捗管理表(沼田).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68F1087-E3EA-4012-8797-78DAB9D6A3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006FDE5D-ED3D-42FF-A187-F848F82C42F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1726,6 +1726,13 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="21" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1738,13 +1745,6 @@
     <xf numFmtId="179" fontId="33" fillId="0" borderId="3" xfId="9" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - アクセント 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2355,8 +2355,8 @@
   <dimension ref="A1:BL175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
+      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2412,15 +2412,15 @@
       <c r="B3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="153">
+      <c r="D3" s="151"/>
+      <c r="E3" s="156">
         <f ca="1">TODAY()-2</f>
-        <v>45481</v>
-      </c>
-      <c r="F3" s="153"/>
+        <v>45482</v>
+      </c>
+      <c r="F3" s="156"/>
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,106 +2428,106 @@
         <v>1</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="155"/>
+      <c r="D4" s="151"/>
       <c r="E4" s="27">
         <v>1</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
-      <c r="I4" s="150">
+      <c r="I4" s="153">
         <f ca="1">I5</f>
         <v>45480</v>
       </c>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="150">
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="153">
         <f ca="1">P5</f>
         <v>45487</v>
       </c>
-      <c r="Q4" s="151"/>
-      <c r="R4" s="151"/>
-      <c r="S4" s="151"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="152"/>
-      <c r="W4" s="150">
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
+      <c r="T4" s="154"/>
+      <c r="U4" s="154"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="153">
         <f ca="1">W5</f>
         <v>45494</v>
       </c>
-      <c r="X4" s="151"/>
-      <c r="Y4" s="151"/>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="152"/>
-      <c r="AD4" s="150">
+      <c r="X4" s="154"/>
+      <c r="Y4" s="154"/>
+      <c r="Z4" s="154"/>
+      <c r="AA4" s="154"/>
+      <c r="AB4" s="154"/>
+      <c r="AC4" s="155"/>
+      <c r="AD4" s="153">
         <f ca="1">AD5</f>
         <v>45501</v>
       </c>
-      <c r="AE4" s="151"/>
-      <c r="AF4" s="151"/>
-      <c r="AG4" s="151"/>
-      <c r="AH4" s="151"/>
-      <c r="AI4" s="151"/>
-      <c r="AJ4" s="152"/>
-      <c r="AK4" s="150">
+      <c r="AE4" s="154"/>
+      <c r="AF4" s="154"/>
+      <c r="AG4" s="154"/>
+      <c r="AH4" s="154"/>
+      <c r="AI4" s="154"/>
+      <c r="AJ4" s="155"/>
+      <c r="AK4" s="153">
         <f ca="1">AK5</f>
         <v>45508</v>
       </c>
-      <c r="AL4" s="151"/>
-      <c r="AM4" s="151"/>
-      <c r="AN4" s="151"/>
-      <c r="AO4" s="151"/>
-      <c r="AP4" s="151"/>
-      <c r="AQ4" s="152"/>
-      <c r="AR4" s="150">
+      <c r="AL4" s="154"/>
+      <c r="AM4" s="154"/>
+      <c r="AN4" s="154"/>
+      <c r="AO4" s="154"/>
+      <c r="AP4" s="154"/>
+      <c r="AQ4" s="155"/>
+      <c r="AR4" s="153">
         <f ca="1">AR5</f>
         <v>45515</v>
       </c>
-      <c r="AS4" s="151"/>
-      <c r="AT4" s="151"/>
-      <c r="AU4" s="151"/>
-      <c r="AV4" s="151"/>
-      <c r="AW4" s="151"/>
-      <c r="AX4" s="152"/>
-      <c r="AY4" s="150">
+      <c r="AS4" s="154"/>
+      <c r="AT4" s="154"/>
+      <c r="AU4" s="154"/>
+      <c r="AV4" s="154"/>
+      <c r="AW4" s="154"/>
+      <c r="AX4" s="155"/>
+      <c r="AY4" s="153">
         <f ca="1">AY5</f>
         <v>45522</v>
       </c>
-      <c r="AZ4" s="151"/>
-      <c r="BA4" s="151"/>
-      <c r="BB4" s="151"/>
-      <c r="BC4" s="151"/>
-      <c r="BD4" s="151"/>
-      <c r="BE4" s="152"/>
-      <c r="BF4" s="150">
+      <c r="AZ4" s="154"/>
+      <c r="BA4" s="154"/>
+      <c r="BB4" s="154"/>
+      <c r="BC4" s="154"/>
+      <c r="BD4" s="154"/>
+      <c r="BE4" s="155"/>
+      <c r="BF4" s="153">
         <f ca="1">BF5</f>
         <v>45529</v>
       </c>
-      <c r="BG4" s="151"/>
-      <c r="BH4" s="151"/>
-      <c r="BI4" s="151"/>
-      <c r="BJ4" s="151"/>
-      <c r="BK4" s="151"/>
-      <c r="BL4" s="152"/>
+      <c r="BG4" s="154"/>
+      <c r="BH4" s="154"/>
+      <c r="BI4" s="154"/>
+      <c r="BJ4" s="154"/>
+      <c r="BK4" s="154"/>
+      <c r="BL4" s="155"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="156"/>
-      <c r="G5" s="156"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
       <c r="I5" s="7">
         <f ca="1">プロジェクト_開始-WEEKDAY(プロジェクト_開始,1)+1+7*(週_表示-1)</f>
         <v>45480</v>
@@ -3701,7 +3701,7 @@
         <v>59</v>
       </c>
       <c r="D16" s="48">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E16" s="49">
         <v>45478</v>
@@ -4721,7 +4721,9 @@
       <c r="C29" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="56"/>
+      <c r="D29" s="56">
+        <v>1</v>
+      </c>
       <c r="E29" s="57">
         <v>45485</v>
       </c>
@@ -4798,7 +4800,9 @@
       <c r="C30" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="56"/>
+      <c r="D30" s="56">
+        <v>1</v>
+      </c>
       <c r="E30" s="57">
         <v>45485</v>
       </c>
@@ -15656,11 +15660,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -15668,6 +15667,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <conditionalFormatting sqref="D15:D19">

--- a/(WBS)AWS演習_進捗管理表(沼田).xlsx
+++ b/(WBS)AWS演習_進捗管理表(沼田).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006FDE5D-ED3D-42FF-A187-F848F82C42F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986FFC7C-0064-49FC-B4DE-C107AA5E87DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1726,13 +1726,6 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="21" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1745,6 +1738,13 @@
     <xf numFmtId="179" fontId="33" fillId="0" borderId="3" xfId="9" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="8" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - アクセント 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2355,8 +2355,8 @@
   <dimension ref="A1:BL175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2412,15 +2412,15 @@
       <c r="B3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="156">
+      <c r="D3" s="155"/>
+      <c r="E3" s="153">
         <f ca="1">TODAY()-2</f>
-        <v>45482</v>
-      </c>
-      <c r="F3" s="156"/>
+        <v>45483</v>
+      </c>
+      <c r="F3" s="153"/>
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2428,106 +2428,106 @@
         <v>1</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="151"/>
+      <c r="D4" s="155"/>
       <c r="E4" s="27">
         <v>1</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
-      <c r="I4" s="153">
+      <c r="I4" s="150">
         <f ca="1">I5</f>
         <v>45480</v>
       </c>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="155"/>
-      <c r="P4" s="153">
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="152"/>
+      <c r="P4" s="150">
         <f ca="1">P5</f>
         <v>45487</v>
       </c>
-      <c r="Q4" s="154"/>
-      <c r="R4" s="154"/>
-      <c r="S4" s="154"/>
-      <c r="T4" s="154"/>
-      <c r="U4" s="154"/>
-      <c r="V4" s="155"/>
-      <c r="W4" s="153">
+      <c r="Q4" s="151"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="152"/>
+      <c r="W4" s="150">
         <f ca="1">W5</f>
         <v>45494</v>
       </c>
-      <c r="X4" s="154"/>
-      <c r="Y4" s="154"/>
-      <c r="Z4" s="154"/>
-      <c r="AA4" s="154"/>
-      <c r="AB4" s="154"/>
-      <c r="AC4" s="155"/>
-      <c r="AD4" s="153">
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="152"/>
+      <c r="AD4" s="150">
         <f ca="1">AD5</f>
         <v>45501</v>
       </c>
-      <c r="AE4" s="154"/>
-      <c r="AF4" s="154"/>
-      <c r="AG4" s="154"/>
-      <c r="AH4" s="154"/>
-      <c r="AI4" s="154"/>
-      <c r="AJ4" s="155"/>
-      <c r="AK4" s="153">
+      <c r="AE4" s="151"/>
+      <c r="AF4" s="151"/>
+      <c r="AG4" s="151"/>
+      <c r="AH4" s="151"/>
+      <c r="AI4" s="151"/>
+      <c r="AJ4" s="152"/>
+      <c r="AK4" s="150">
         <f ca="1">AK5</f>
         <v>45508</v>
       </c>
-      <c r="AL4" s="154"/>
-      <c r="AM4" s="154"/>
-      <c r="AN4" s="154"/>
-      <c r="AO4" s="154"/>
-      <c r="AP4" s="154"/>
-      <c r="AQ4" s="155"/>
-      <c r="AR4" s="153">
+      <c r="AL4" s="151"/>
+      <c r="AM4" s="151"/>
+      <c r="AN4" s="151"/>
+      <c r="AO4" s="151"/>
+      <c r="AP4" s="151"/>
+      <c r="AQ4" s="152"/>
+      <c r="AR4" s="150">
         <f ca="1">AR5</f>
         <v>45515</v>
       </c>
-      <c r="AS4" s="154"/>
-      <c r="AT4" s="154"/>
-      <c r="AU4" s="154"/>
-      <c r="AV4" s="154"/>
-      <c r="AW4" s="154"/>
-      <c r="AX4" s="155"/>
-      <c r="AY4" s="153">
+      <c r="AS4" s="151"/>
+      <c r="AT4" s="151"/>
+      <c r="AU4" s="151"/>
+      <c r="AV4" s="151"/>
+      <c r="AW4" s="151"/>
+      <c r="AX4" s="152"/>
+      <c r="AY4" s="150">
         <f ca="1">AY5</f>
         <v>45522</v>
       </c>
-      <c r="AZ4" s="154"/>
-      <c r="BA4" s="154"/>
-      <c r="BB4" s="154"/>
-      <c r="BC4" s="154"/>
-      <c r="BD4" s="154"/>
-      <c r="BE4" s="155"/>
-      <c r="BF4" s="153">
+      <c r="AZ4" s="151"/>
+      <c r="BA4" s="151"/>
+      <c r="BB4" s="151"/>
+      <c r="BC4" s="151"/>
+      <c r="BD4" s="151"/>
+      <c r="BE4" s="152"/>
+      <c r="BF4" s="150">
         <f ca="1">BF5</f>
         <v>45529</v>
       </c>
-      <c r="BG4" s="154"/>
-      <c r="BH4" s="154"/>
-      <c r="BI4" s="154"/>
-      <c r="BJ4" s="154"/>
-      <c r="BK4" s="154"/>
-      <c r="BL4" s="155"/>
+      <c r="BG4" s="151"/>
+      <c r="BH4" s="151"/>
+      <c r="BI4" s="151"/>
+      <c r="BJ4" s="151"/>
+      <c r="BK4" s="151"/>
+      <c r="BL4" s="152"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
       <c r="I5" s="7">
         <f ca="1">プロジェクト_開始-WEEKDAY(プロジェクト_開始,1)+1+7*(週_表示-1)</f>
         <v>45480</v>
@@ -3701,7 +3701,7 @@
         <v>59</v>
       </c>
       <c r="D16" s="48">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E16" s="49">
         <v>45478</v>
@@ -3779,7 +3779,9 @@
       <c r="C17" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="48"/>
+      <c r="D17" s="48">
+        <v>1</v>
+      </c>
       <c r="E17" s="49">
         <v>45489</v>
       </c>
@@ -3856,7 +3858,9 @@
       <c r="C18" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="48"/>
+      <c r="D18" s="48">
+        <v>1</v>
+      </c>
       <c r="E18" s="49">
         <v>45490</v>
       </c>
@@ -15660,6 +15664,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -15667,11 +15676,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="19"/>
   <conditionalFormatting sqref="D15:D19">
